--- a/Test Documentation.xlsx
+++ b/Test Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomto\Documents\IDEA\NewspaperApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103B046C-7F94-4B98-961E-3C3874761BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4905CEAC-1754-4BBA-ACC0-BD5E6C3B8DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="218">
   <si>
     <t>TC1</t>
   </si>
@@ -1584,6 +1584,9 @@
     <t>Feature request</t>
   </si>
   <si>
+    <t>EC11</t>
+  </si>
+  <si>
     <t>Awaiting User entity
 Implementation</t>
   </si>
@@ -1591,6 +1594,50 @@
     <t>Must refresh the
 persistence context or else
 fails</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use setState and setValid</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Check for altered fields</t>
+    </r>
+  </si>
+  <si>
+    <t>setState with
+ APPROVED and
+setContent with
+"test content"</t>
+  </si>
+  <si>
+    <t>Fields altered successfully</t>
+  </si>
+  <si>
+    <t>11. Check if Comment methods setContent and setState function as expected with valid parameters</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2262,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2849,6 +2896,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -11728,8 +11778,8 @@
   </sheetPr>
   <dimension ref="A1:K1227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89:H91"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -11826,7 +11876,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>37</v>
@@ -11851,7 +11901,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="73">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="101"/>
       <c r="F7" s="101"/>
@@ -13153,7 +13203,7 @@
         <v>194</v>
       </c>
       <c r="J89" s="189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="12" customHeight="1">
@@ -13235,7 +13285,7 @@
         <v>41</v>
       </c>
       <c r="J95" s="189" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="12" customHeight="1">
@@ -13375,40 +13425,85 @@
       <c r="I106" s="115"/>
       <c r="J106" s="100"/>
     </row>
-    <row r="107" spans="1:10">
-      <c r="D107" s="190"/>
-      <c r="E107" s="190"/>
-      <c r="F107" s="190"/>
-      <c r="I107" s="115"/>
-      <c r="J107" s="100"/>
+    <row r="107" spans="1:10" s="107" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A107" s="225" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" s="226"/>
+      <c r="C107" s="226"/>
+      <c r="D107" s="226"/>
+      <c r="E107" s="226"/>
+      <c r="F107" s="226"/>
+      <c r="G107" s="226"/>
+      <c r="H107" s="226"/>
+      <c r="I107" s="226"/>
+      <c r="J107" s="227"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="D108" s="190"/>
-      <c r="E108" s="190"/>
-      <c r="F108" s="190"/>
-      <c r="I108" s="115"/>
-      <c r="J108" s="100"/>
+      <c r="A108" s="188" t="s">
+        <v>210</v>
+      </c>
+      <c r="B108" s="189" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" s="187" t="s">
+        <v>216</v>
+      </c>
+      <c r="E108" s="187"/>
+      <c r="F108" s="187"/>
+      <c r="G108" s="119"/>
+      <c r="H108" s="187" t="s">
+        <v>216</v>
+      </c>
+      <c r="I108" s="217" t="s">
+        <v>41</v>
+      </c>
+      <c r="J108" s="187"/>
     </row>
     <row r="109" spans="1:10">
-      <c r="D109" s="190"/>
-      <c r="E109" s="190"/>
-      <c r="F109" s="190"/>
-      <c r="I109" s="115"/>
-      <c r="J109" s="100"/>
+      <c r="A109" s="188"/>
+      <c r="B109" s="187"/>
+      <c r="C109" s="121" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109" s="187"/>
+      <c r="E109" s="187"/>
+      <c r="F109" s="187"/>
+      <c r="G109" s="119"/>
+      <c r="H109" s="187"/>
+      <c r="I109" s="217"/>
+      <c r="J109" s="187"/>
     </row>
     <row r="110" spans="1:10">
-      <c r="D110" s="190"/>
-      <c r="E110" s="190"/>
-      <c r="F110" s="190"/>
-      <c r="I110" s="115"/>
-      <c r="J110" s="100"/>
+      <c r="A110" s="188"/>
+      <c r="B110" s="187"/>
+      <c r="C110" s="119" t="s">
+        <v>213</v>
+      </c>
+      <c r="D110" s="187"/>
+      <c r="E110" s="187"/>
+      <c r="F110" s="187"/>
+      <c r="G110" s="119"/>
+      <c r="H110" s="187"/>
+      <c r="I110" s="217"/>
+      <c r="J110" s="187"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="D111" s="190"/>
-      <c r="E111" s="190"/>
-      <c r="F111" s="190"/>
-      <c r="I111" s="115"/>
-      <c r="J111" s="100"/>
+      <c r="A111" s="188"/>
+      <c r="B111" s="187"/>
+      <c r="C111" s="228" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" s="187"/>
+      <c r="E111" s="187"/>
+      <c r="F111" s="187"/>
+      <c r="G111" s="119"/>
+      <c r="H111" s="187"/>
+      <c r="I111" s="217"/>
+      <c r="J111" s="187"/>
     </row>
     <row r="112" spans="1:10">
       <c r="D112" s="190"/>
@@ -18022,13 +18117,19 @@
       <c r="J1227" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="208">
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
     <mergeCell ref="A102:A104"/>
     <mergeCell ref="B102:B104"/>
     <mergeCell ref="D102:F104"/>
     <mergeCell ref="H102:H104"/>
     <mergeCell ref="I102:I104"/>
     <mergeCell ref="J102:J104"/>
+    <mergeCell ref="A107:J107"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="A108:A111"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:J3"/>
@@ -18156,16 +18257,12 @@
     <mergeCell ref="I95:I98"/>
     <mergeCell ref="J95:J98"/>
     <mergeCell ref="A101:J101"/>
-    <mergeCell ref="D109:F109"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D111:F111"/>
     <mergeCell ref="D112:F112"/>
     <mergeCell ref="D113:F113"/>
     <mergeCell ref="D114:F114"/>
     <mergeCell ref="D105:F105"/>
     <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="D108:F111"/>
     <mergeCell ref="D121:F121"/>
     <mergeCell ref="D122:F122"/>
     <mergeCell ref="D123:F123"/>

--- a/Test Documentation.xlsx
+++ b/Test Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomto\Documents\IDEA\NewspaperApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86182FE9-BDDB-43C7-9039-5FDED99E6EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5FA398-45F6-4691-A0FC-F5A13B0AAE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="821" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="228">
   <si>
     <t>TC1</t>
   </si>
@@ -1525,9 +1525,15 @@
     <t>EC10</t>
   </si>
   <si>
+    <t>EC11</t>
+  </si>
+  <si>
     <t>Must refresh the
 persistence context or else
 fails</t>
+  </si>
+  <si>
+    <t>10. Check if Comment methods setContent and setState function as expected with valid parameters</t>
   </si>
   <si>
     <r>
@@ -1571,9 +1577,6 @@
     <t>Fields altered successfully</t>
   </si>
   <si>
-    <t>11. Check if Comment methods setContent and setState function as expected with valid parameters</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1604,7 +1607,132 @@
     <t>Added extra Comment tests</t>
   </si>
   <si>
-    <t>Commit 516177c</t>
+    <t>11. Check if a Comment's content may exceed the maximum size</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create a valid Comment Entity with
+content size that exceeds the maximum</t>
+    </r>
+  </si>
+  <si>
+    <t>Content Size
+constraint check</t>
+  </si>
+  <si>
+    <t>Constraint Violation Exception</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Use setContent with size exceeding content</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">setContent constraint check </t>
+  </si>
+  <si>
+    <t>Runtime Exception</t>
+  </si>
+  <si>
+    <t>Thrown when persisting</t>
+  </si>
+  <si>
+    <t>EC12</t>
+  </si>
+  <si>
+    <t>12. Check if after updating a Story's name, the change is reflected in the Comment's Story</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create a valid Comment Entity assosiaced 
+with the Story</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Alter Story's name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Refresh the Comment</t>
+    </r>
+  </si>
+  <si>
+    <t>Altered name is shown</t>
+  </si>
+  <si>
+    <t>Commit 19eb22c</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2357,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2853,6 +2981,9 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5461,8 +5592,8 @@
   </sheetPr>
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -5624,19 +5755,19 @@
         <v>45115</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>184</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>107</v>
       </c>
       <c r="G13" s="121" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1" ht="30" customHeight="1">
@@ -5724,7 +5855,7 @@
   <hyperlinks>
     <hyperlink ref="G12" r:id="rId1" xr:uid="{FF85C68E-5FE4-42BD-8522-F17E18BE3D46}"/>
     <hyperlink ref="G11" r:id="rId2" location="diff-98aea50246c5a314b5ef13c39fe2b37e5a296ac3586d9caa51b5dd1958e8b5ac" xr:uid="{36E5DF57-A6B2-4A7E-81D9-8E61D006EFE9}"/>
-    <hyperlink ref="G13" r:id="rId3" xr:uid="{5E203539-7B9D-45BF-94E1-CC46496ABD1B}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{ACFC7BCB-99F7-4DE4-A322-35EA24FDCC9F}"/>
   </hyperlinks>
   <pageMargins left="0.37" right="0.47" top="0.5" bottom="0.38" header="0.5" footer="0.17"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="96" verticalDpi="96" r:id="rId4"/>
@@ -5742,8 +5873,8 @@
   </sheetPr>
   <dimension ref="A1:N1227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -11745,8 +11876,8 @@
   </sheetPr>
   <dimension ref="A1:K1227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -11754,7 +11885,8 @@
     <col min="1" max="1" width="15.77734375" style="113" customWidth="1"/>
     <col min="2" max="2" width="18.109375" style="99" customWidth="1"/>
     <col min="3" max="3" width="42.44140625" style="99" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="99"/>
+    <col min="4" max="4" width="9.21875" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="99"/>
     <col min="6" max="6" width="15.44140625" style="99" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" style="99" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="32.88671875" style="99" customWidth="1"/>
@@ -11843,7 +11975,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="72">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>37</v>
@@ -11868,7 +12000,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="73">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="100"/>
       <c r="F7" s="100"/>
@@ -13172,7 +13304,7 @@
         <v>41</v>
       </c>
       <c r="J89" s="188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="12" customHeight="1">
@@ -13254,7 +13386,7 @@
         <v>41</v>
       </c>
       <c r="J95" s="188" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="12" customHeight="1">
@@ -13275,7 +13407,7 @@
       <c r="A97" s="187"/>
       <c r="B97" s="186"/>
       <c r="C97" s="120" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D97" s="186"/>
       <c r="E97" s="186"/>
@@ -13315,7 +13447,7 @@
     </row>
     <row r="101" spans="1:10" s="106" customFormat="1" ht="30.6" customHeight="1">
       <c r="A101" s="220" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B101" s="221"/>
       <c r="C101" s="221"/>
@@ -13332,19 +13464,19 @@
         <v>201</v>
       </c>
       <c r="B102" s="188" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C102" s="118" t="s">
         <v>170</v>
       </c>
       <c r="D102" s="186" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E102" s="186"/>
       <c r="F102" s="186"/>
       <c r="G102" s="118"/>
       <c r="H102" s="186" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I102" s="216" t="s">
         <v>41</v>
@@ -13369,7 +13501,7 @@
       <c r="A104" s="187"/>
       <c r="B104" s="186"/>
       <c r="C104" s="118" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D104" s="186"/>
       <c r="E104" s="186"/>
@@ -13383,7 +13515,7 @@
       <c r="A105" s="187"/>
       <c r="B105" s="186"/>
       <c r="C105" s="223" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D105" s="186"/>
       <c r="E105" s="186"/>
@@ -13402,138 +13534,255 @@
     </row>
     <row r="107" spans="1:10" s="106" customFormat="1" ht="10.199999999999999"/>
     <row r="108" spans="1:10">
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="H109"/>
-      <c r="I109"/>
-      <c r="J109"/>
+      <c r="A108" s="151" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" s="152"/>
+      <c r="C108" s="152"/>
+      <c r="D108" s="152"/>
+      <c r="E108" s="152"/>
+      <c r="F108" s="152"/>
+      <c r="G108" s="152"/>
+      <c r="H108" s="152"/>
+      <c r="I108" s="152"/>
+      <c r="J108" s="153"/>
+    </row>
+    <row r="109" spans="1:10" ht="27.6">
+      <c r="A109" s="187" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109" s="188" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" s="186" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="186"/>
+      <c r="F109" s="186"/>
+      <c r="G109" s="118"/>
+      <c r="H109" s="188" t="s">
+        <v>216</v>
+      </c>
+      <c r="I109" s="216" t="s">
+        <v>41</v>
+      </c>
+      <c r="J109" s="224" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
+      <c r="A110" s="187"/>
+      <c r="B110" s="188"/>
+      <c r="C110" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="186"/>
+      <c r="E110" s="186"/>
+      <c r="F110" s="186"/>
+      <c r="G110" s="118"/>
+      <c r="H110" s="188"/>
+      <c r="I110" s="216"/>
+      <c r="J110" s="188"/>
     </row>
     <row r="111" spans="1:10">
-      <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111"/>
+      <c r="A111" s="187"/>
+      <c r="B111" s="190" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="190"/>
+      <c r="D111" s="190"/>
+      <c r="E111" s="190"/>
+      <c r="F111" s="190"/>
+      <c r="G111" s="190"/>
+      <c r="H111" s="190"/>
+      <c r="I111" s="190"/>
+      <c r="J111" s="190"/>
     </row>
     <row r="112" spans="1:10">
-      <c r="D112" s="189"/>
-      <c r="E112" s="189"/>
-      <c r="F112" s="189"/>
-      <c r="I112" s="114"/>
-      <c r="J112" s="99"/>
-    </row>
-    <row r="113" spans="4:10">
-      <c r="D113" s="189"/>
-      <c r="E113" s="189"/>
-      <c r="F113" s="189"/>
-      <c r="I113" s="114"/>
-      <c r="J113" s="99"/>
-    </row>
-    <row r="114" spans="4:10">
+      <c r="A112" s="187"/>
+      <c r="B112" s="188" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="118" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" s="186" t="s">
+        <v>219</v>
+      </c>
+      <c r="E112" s="186"/>
+      <c r="F112" s="186"/>
+      <c r="G112" s="118"/>
+      <c r="H112" s="186" t="s">
+        <v>219</v>
+      </c>
+      <c r="I112" s="216" t="s">
+        <v>41</v>
+      </c>
+      <c r="J112" s="186"/>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="187"/>
+      <c r="B113" s="186"/>
+      <c r="C113" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" s="186"/>
+      <c r="E113" s="186"/>
+      <c r="F113" s="186"/>
+      <c r="G113" s="118"/>
+      <c r="H113" s="186"/>
+      <c r="I113" s="216"/>
+      <c r="J113" s="186"/>
+    </row>
+    <row r="114" spans="1:10">
       <c r="D114" s="189"/>
       <c r="E114" s="189"/>
       <c r="F114" s="189"/>
       <c r="I114" s="114"/>
       <c r="J114" s="99"/>
     </row>
-    <row r="115" spans="4:10">
+    <row r="115" spans="1:10">
       <c r="D115" s="189"/>
       <c r="E115" s="189"/>
       <c r="F115" s="189"/>
       <c r="I115" s="114"/>
       <c r="J115" s="99"/>
     </row>
-    <row r="116" spans="4:10">
-      <c r="D116" s="189"/>
-      <c r="E116" s="189"/>
-      <c r="F116" s="189"/>
-      <c r="I116" s="114"/>
-      <c r="J116" s="99"/>
-    </row>
-    <row r="117" spans="4:10">
-      <c r="D117" s="189"/>
-      <c r="E117" s="189"/>
-      <c r="F117" s="189"/>
-      <c r="I117" s="114"/>
-      <c r="J117" s="99"/>
-    </row>
-    <row r="118" spans="4:10">
-      <c r="D118" s="189"/>
-      <c r="E118" s="189"/>
-      <c r="F118" s="189"/>
-      <c r="I118" s="114"/>
-      <c r="J118" s="99"/>
-    </row>
-    <row r="119" spans="4:10">
-      <c r="D119" s="189"/>
-      <c r="E119" s="189"/>
-      <c r="F119" s="189"/>
-      <c r="I119" s="114"/>
-      <c r="J119" s="99"/>
-    </row>
-    <row r="120" spans="4:10">
-      <c r="D120" s="189"/>
-      <c r="E120" s="189"/>
-      <c r="F120" s="189"/>
-      <c r="I120" s="114"/>
-      <c r="J120" s="99"/>
-    </row>
-    <row r="121" spans="4:10">
+    <row r="116" spans="1:10">
+      <c r="A116" s="151" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" s="152"/>
+      <c r="C116" s="152"/>
+      <c r="D116" s="152"/>
+      <c r="E116" s="152"/>
+      <c r="F116" s="152"/>
+      <c r="G116" s="152"/>
+      <c r="H116" s="152"/>
+      <c r="I116" s="152"/>
+      <c r="J116" s="153"/>
+    </row>
+    <row r="117" spans="1:10" ht="27.6">
+      <c r="A117" s="187" t="s">
+        <v>221</v>
+      </c>
+      <c r="B117" s="188" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="D117" s="186" t="s">
+        <v>226</v>
+      </c>
+      <c r="E117" s="186"/>
+      <c r="F117" s="186"/>
+      <c r="G117" s="118"/>
+      <c r="H117" s="186" t="s">
+        <v>226</v>
+      </c>
+      <c r="I117" s="216" t="s">
+        <v>41</v>
+      </c>
+      <c r="J117" s="188" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="187"/>
+      <c r="B118" s="186"/>
+      <c r="C118" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="186"/>
+      <c r="E118" s="186"/>
+      <c r="F118" s="186"/>
+      <c r="G118" s="118"/>
+      <c r="H118" s="186"/>
+      <c r="I118" s="216"/>
+      <c r="J118" s="186"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="187"/>
+      <c r="B119" s="186"/>
+      <c r="C119" s="120" t="s">
+        <v>224</v>
+      </c>
+      <c r="D119" s="186"/>
+      <c r="E119" s="186"/>
+      <c r="F119" s="186"/>
+      <c r="G119" s="118"/>
+      <c r="H119" s="186"/>
+      <c r="I119" s="216"/>
+      <c r="J119" s="186"/>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="187"/>
+      <c r="B120" s="186"/>
+      <c r="C120" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120" s="186"/>
+      <c r="E120" s="186"/>
+      <c r="F120" s="186"/>
+      <c r="G120" s="118"/>
+      <c r="H120" s="186"/>
+      <c r="I120" s="216"/>
+      <c r="J120" s="186"/>
+    </row>
+    <row r="121" spans="1:10">
       <c r="D121" s="189"/>
       <c r="E121" s="189"/>
       <c r="F121" s="189"/>
       <c r="I121" s="114"/>
       <c r="J121" s="99"/>
     </row>
-    <row r="122" spans="4:10">
+    <row r="122" spans="1:10">
       <c r="D122" s="189"/>
       <c r="E122" s="189"/>
       <c r="F122" s="189"/>
       <c r="I122" s="114"/>
       <c r="J122" s="99"/>
     </row>
-    <row r="123" spans="4:10">
+    <row r="123" spans="1:10">
       <c r="D123" s="189"/>
       <c r="E123" s="189"/>
       <c r="F123" s="189"/>
       <c r="I123" s="114"/>
       <c r="J123" s="99"/>
     </row>
-    <row r="124" spans="4:10">
+    <row r="124" spans="1:10">
       <c r="D124" s="189"/>
       <c r="E124" s="189"/>
       <c r="F124" s="189"/>
       <c r="I124" s="114"/>
       <c r="J124" s="99"/>
     </row>
-    <row r="125" spans="4:10">
+    <row r="125" spans="1:10">
       <c r="D125" s="189"/>
       <c r="E125" s="189"/>
       <c r="F125" s="189"/>
       <c r="I125" s="114"/>
       <c r="J125" s="99"/>
     </row>
-    <row r="126" spans="4:10">
+    <row r="126" spans="1:10">
       <c r="D126" s="189"/>
       <c r="E126" s="189"/>
       <c r="F126" s="189"/>
       <c r="I126" s="114"/>
       <c r="J126" s="99"/>
     </row>
-    <row r="127" spans="4:10">
+    <row r="127" spans="1:10">
       <c r="D127" s="189"/>
       <c r="E127" s="189"/>
       <c r="F127" s="189"/>
       <c r="I127" s="114"/>
       <c r="J127" s="99"/>
     </row>
-    <row r="128" spans="4:10">
+    <row r="128" spans="1:10">
       <c r="D128" s="189"/>
       <c r="E128" s="189"/>
       <c r="F128" s="189"/>
@@ -18033,10 +18282,30 @@
       <c r="J1227" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="200">
+  <mergeCells count="213">
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="D112:F113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A116:J116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="D117:F120"/>
+    <mergeCell ref="H117:H120"/>
+    <mergeCell ref="I117:I120"/>
+    <mergeCell ref="J117:J120"/>
     <mergeCell ref="H102:H105"/>
     <mergeCell ref="I102:I105"/>
     <mergeCell ref="J102:J105"/>
+    <mergeCell ref="A108:J108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="D109:F110"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="B111:J111"/>
     <mergeCell ref="A101:J101"/>
     <mergeCell ref="B102:B105"/>
     <mergeCell ref="A102:A105"/>
@@ -18166,8 +18435,6 @@
     <mergeCell ref="H95:H98"/>
     <mergeCell ref="I95:I98"/>
     <mergeCell ref="J95:J98"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="D113:F113"/>
     <mergeCell ref="D114:F114"/>
     <mergeCell ref="D106:F106"/>
     <mergeCell ref="D102:F105"/>
@@ -18178,11 +18445,6 @@
     <mergeCell ref="D125:F125"/>
     <mergeCell ref="D126:F126"/>
     <mergeCell ref="D115:F115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D120:F120"/>
     <mergeCell ref="D143:F143"/>
     <mergeCell ref="D144:F144"/>
     <mergeCell ref="D133:F133"/>
@@ -18246,7 +18508,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/Test Documentation.xlsx
+++ b/Test Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomto\Documents\IDEA\NewspaperApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5FA398-45F6-4691-A0FC-F5A13B0AAE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AA1D1A-261B-484E-AD3C-262A9D6649C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="821" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="821" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -1732,7 +1732,7 @@
     <t>Altered name is shown</t>
   </si>
   <si>
-    <t>Commit 19eb22c</t>
+    <t>Commit 9568a9e</t>
   </si>
 </sst>
 </file>
@@ -5592,8 +5592,8 @@
   </sheetPr>
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -5855,7 +5855,7 @@
   <hyperlinks>
     <hyperlink ref="G12" r:id="rId1" xr:uid="{FF85C68E-5FE4-42BD-8522-F17E18BE3D46}"/>
     <hyperlink ref="G11" r:id="rId2" location="diff-98aea50246c5a314b5ef13c39fe2b37e5a296ac3586d9caa51b5dd1958e8b5ac" xr:uid="{36E5DF57-A6B2-4A7E-81D9-8E61D006EFE9}"/>
-    <hyperlink ref="G13" r:id="rId3" xr:uid="{ACFC7BCB-99F7-4DE4-A322-35EA24FDCC9F}"/>
+    <hyperlink ref="G13" r:id="rId3" xr:uid="{4E3BB830-C43D-4E7A-804E-D53909EE12B5}"/>
   </hyperlinks>
   <pageMargins left="0.37" right="0.47" top="0.5" bottom="0.38" header="0.5" footer="0.17"/>
   <pageSetup paperSize="9" scale="84" fitToHeight="0" orientation="landscape" horizontalDpi="96" verticalDpi="96" r:id="rId4"/>
@@ -11876,7 +11876,7 @@
   </sheetPr>
   <dimension ref="A1:K1227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Test Documentation.xlsx
+++ b/Test Documentation.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomto\Documents\IDEA\NewspaperApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FE16F9-65CD-4E00-8D1A-F9F7002BF952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E9422D-2397-418D-8071-1F7FD549FD99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="821" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="821" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
     <sheet name="Comment Controller" sheetId="122" r:id="rId2"/>
     <sheet name="Comment Entity" sheetId="125" r:id="rId3"/>
     <sheet name="Story Entity" sheetId="126" r:id="rId4"/>
-    <sheet name="Test Report" sheetId="107" r:id="rId5"/>
+    <sheet name="Topic Entity" sheetId="127" r:id="rId5"/>
+    <sheet name="Test Report" sheetId="107" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Access">[1]Validation!$E$2:$E$223</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="369">
   <si>
     <t>TC1</t>
   </si>
@@ -3212,6 +3213,69 @@
   <si>
     <t>Added Story Entity tests,
 Style changes</t>
+  </si>
+  <si>
+    <t>TOPIC ENTITY TESTS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Check that Story has exactly 0 Topics
+AND Topic does not contain the Story</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Check that Story has exactly 1 Topic
+AND Topic contains the Story</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Check that Story has exactly 1 Topic
+AND Topic's Story list contains the Story</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -7119,8 +7183,8 @@
   </sheetPr>
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -20015,8 +20079,8 @@
   </sheetPr>
   <dimension ref="A1:K1227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99:J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
@@ -21566,11 +21630,11 @@
       <c r="I97" s="223"/>
       <c r="J97" s="186"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" ht="26.4">
       <c r="A98" s="188"/>
       <c r="B98" s="227"/>
-      <c r="C98" s="226" t="s">
-        <v>295</v>
+      <c r="C98" s="77" t="s">
+        <v>368</v>
       </c>
       <c r="D98" s="227"/>
       <c r="E98" s="227"/>
@@ -21936,13 +22000,13 @@
       <c r="I122" s="231"/>
       <c r="J122" s="231"/>
     </row>
-    <row r="123" spans="1:10" ht="13.8" customHeight="1">
+    <row r="123" spans="1:10" ht="26.4">
       <c r="A123" s="188"/>
       <c r="B123" s="211" t="s">
         <v>320</v>
       </c>
-      <c r="C123" s="226" t="s">
-        <v>308</v>
+      <c r="C123" s="77" t="s">
+        <v>367</v>
       </c>
       <c r="D123" s="211" t="s">
         <v>323</v>
@@ -21972,11 +22036,11 @@
       <c r="I124" s="223"/>
       <c r="J124" s="186"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" ht="26.4">
       <c r="A125" s="188"/>
       <c r="B125" s="227"/>
-      <c r="C125" s="226" t="s">
-        <v>322</v>
+      <c r="C125" s="77" t="s">
+        <v>366</v>
       </c>
       <c r="D125" s="227"/>
       <c r="E125" s="227"/>
@@ -27013,6 +27077,7007 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9487CD5C-59F6-48E3-800D-3610ADE3033E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K1227"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" style="113" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="99" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="99" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="99"/>
+    <col min="6" max="6" width="15.44140625" style="99" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="99" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" style="99" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="115" customWidth="1"/>
+    <col min="10" max="10" width="24.44140625" style="118" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="99"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="106" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A1" s="163" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="105"/>
+    </row>
+    <row r="2" spans="1:11" s="106" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A2" s="163"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="105"/>
+    </row>
+    <row r="3" spans="1:11" s="109" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A3" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="174" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="179"/>
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="108"/>
+    </row>
+    <row r="4" spans="1:11" s="109" customFormat="1" ht="13.2">
+      <c r="A4" s="74"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="108"/>
+    </row>
+    <row r="5" spans="1:11" s="110" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A5" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="174" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="179"/>
+      <c r="K5" s="69"/>
+    </row>
+    <row r="6" spans="1:11" s="109" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="179"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="108"/>
+    </row>
+    <row r="7" spans="1:11" s="109" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="179"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
+      <c r="K7" s="108"/>
+    </row>
+    <row r="8" spans="1:11" s="109" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="199"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="108"/>
+    </row>
+    <row r="9" spans="1:11" s="112" customFormat="1" ht="12" customHeight="1">
+      <c r="A9" s="164" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="166" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="176" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="165" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="111"/>
+    </row>
+    <row r="10" spans="1:11" s="109" customFormat="1" ht="12" customHeight="1">
+      <c r="A10" s="165"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="108"/>
+    </row>
+    <row r="11" spans="1:11" s="116" customFormat="1" ht="15">
+      <c r="A11" s="180"/>
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="181"/>
+    </row>
+    <row r="12" spans="1:11" s="106" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A12" s="153" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="155"/>
+    </row>
+    <row r="13" spans="1:11" s="106" customFormat="1" ht="13.2" outlineLevel="1">
+      <c r="A13" s="188" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="211" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="235" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="211" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="211"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="211" t="s">
+        <v>228</v>
+      </c>
+      <c r="I13" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="186"/>
+    </row>
+    <row r="14" spans="1:11" s="106" customFormat="1" ht="13.2">
+      <c r="A14" s="188"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="226" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="186"/>
+    </row>
+    <row r="15" spans="1:11" s="106" customFormat="1" ht="26.4" outlineLevel="1">
+      <c r="A15" s="188"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="77" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="186"/>
+    </row>
+    <row r="16" spans="1:11" s="106" customFormat="1" ht="13.8" customHeight="1" outlineLevel="1">
+      <c r="A16" s="188"/>
+      <c r="B16" s="211"/>
+      <c r="C16" s="226" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="211"/>
+      <c r="E16" s="211"/>
+      <c r="F16" s="211"/>
+      <c r="G16" s="226"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="186"/>
+    </row>
+    <row r="17" spans="1:10" s="106" customFormat="1" outlineLevel="1">
+      <c r="A17" s="113"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="225"/>
+      <c r="J17" s="99"/>
+    </row>
+    <row r="18" spans="1:10" s="106" customFormat="1" outlineLevel="1">
+      <c r="A18" s="113"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="99"/>
+    </row>
+    <row r="19" spans="1:10" s="106" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A19" s="153" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="155"/>
+    </row>
+    <row r="20" spans="1:10" s="106" customFormat="1" ht="26.4" outlineLevel="1">
+      <c r="A20" s="197" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="198" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="198" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="198"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="219"/>
+    </row>
+    <row r="21" spans="1:10" s="106" customFormat="1" ht="13.2" outlineLevel="1">
+      <c r="A21" s="197"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="213"/>
+    </row>
+    <row r="22" spans="1:10" s="106" customFormat="1" ht="13.2">
+      <c r="A22" s="197"/>
+      <c r="B22" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="231"/>
+      <c r="D22" s="231"/>
+      <c r="E22" s="231"/>
+      <c r="F22" s="231"/>
+      <c r="G22" s="231"/>
+      <c r="H22" s="231"/>
+      <c r="I22" s="231"/>
+      <c r="J22" s="231"/>
+    </row>
+    <row r="23" spans="1:10" s="106" customFormat="1" ht="26.4">
+      <c r="A23" s="197"/>
+      <c r="B23" s="198" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="198" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="219"/>
+    </row>
+    <row r="24" spans="1:10" s="106" customFormat="1" ht="13.2">
+      <c r="A24" s="197"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="213"/>
+    </row>
+    <row r="25" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A25" s="197"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190"/>
+      <c r="D25" s="190"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="190"/>
+    </row>
+    <row r="26" spans="1:10" s="117" customFormat="1" ht="26.4" outlineLevel="1">
+      <c r="A26" s="197"/>
+      <c r="B26" s="198" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="198" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="198"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="219"/>
+    </row>
+    <row r="27" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A27" s="197"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" s="198"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="213"/>
+    </row>
+    <row r="28" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A28" s="197"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
+    </row>
+    <row r="29" spans="1:10" s="106" customFormat="1" ht="26.4">
+      <c r="A29" s="197"/>
+      <c r="B29" s="198" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="198" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="198"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="219"/>
+    </row>
+    <row r="30" spans="1:10" s="106" customFormat="1" ht="13.2" outlineLevel="1">
+      <c r="A30" s="197"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="213"/>
+    </row>
+    <row r="31" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A31" s="197"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="190"/>
+    </row>
+    <row r="32" spans="1:10" s="117" customFormat="1" ht="26.4" outlineLevel="1">
+      <c r="A32" s="197"/>
+      <c r="B32" s="198" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" s="198" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="219"/>
+    </row>
+    <row r="33" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A33" s="197"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="213"/>
+    </row>
+    <row r="34" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A34" s="197"/>
+      <c r="B34" s="231" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="231"/>
+      <c r="D34" s="231"/>
+      <c r="E34" s="231"/>
+      <c r="F34" s="231"/>
+      <c r="G34" s="231"/>
+      <c r="H34" s="231"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="231"/>
+    </row>
+    <row r="35" spans="1:10" s="117" customFormat="1" ht="26.4" outlineLevel="1">
+      <c r="A35" s="197"/>
+      <c r="B35" s="198" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="198" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="211" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="219"/>
+    </row>
+    <row r="36" spans="1:10" s="106" customFormat="1" ht="13.2">
+      <c r="A36" s="197"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D36" s="198"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="198"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="213"/>
+    </row>
+    <row r="37" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A37" s="197"/>
+      <c r="B37" s="190"/>
+      <c r="C37" s="190"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="190"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="190"/>
+    </row>
+    <row r="38" spans="1:10" s="117" customFormat="1" ht="26.4" outlineLevel="1">
+      <c r="A38" s="197"/>
+      <c r="B38" s="198" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="198" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="198"/>
+      <c r="F38" s="198"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" s="219"/>
+    </row>
+    <row r="39" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A39" s="197"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="198"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="213"/>
+    </row>
+    <row r="40" spans="1:10" s="106" customFormat="1" ht="13.2">
+      <c r="A40" s="197"/>
+      <c r="B40" s="190"/>
+      <c r="C40" s="190"/>
+      <c r="D40" s="190"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="190"/>
+      <c r="G40" s="190"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="190"/>
+    </row>
+    <row r="41" spans="1:10" s="117" customFormat="1" ht="26.4" outlineLevel="1">
+      <c r="A41" s="197"/>
+      <c r="B41" s="198" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="98" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="198" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="198"/>
+      <c r="F41" s="198"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="211" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41" s="219"/>
+    </row>
+    <row r="42" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A42" s="197"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="211"/>
+      <c r="I42" s="212"/>
+      <c r="J42" s="213"/>
+    </row>
+    <row r="43" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A43" s="197"/>
+      <c r="B43" s="190"/>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="190"/>
+      <c r="H43" s="190"/>
+      <c r="I43" s="190"/>
+      <c r="J43" s="190"/>
+    </row>
+    <row r="44" spans="1:10" s="106" customFormat="1" ht="26.4">
+      <c r="A44" s="197"/>
+      <c r="B44" s="198" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="198" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="198"/>
+      <c r="F44" s="198"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="219"/>
+    </row>
+    <row r="45" spans="1:10" s="117" customFormat="1" ht="13.8" customHeight="1" outlineLevel="1">
+      <c r="A45" s="197"/>
+      <c r="B45" s="198"/>
+      <c r="C45" s="56" t="s">
+        <v>239</v>
+      </c>
+      <c r="D45" s="198"/>
+      <c r="E45" s="198"/>
+      <c r="F45" s="198"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="211"/>
+      <c r="I45" s="212"/>
+      <c r="J45" s="213"/>
+    </row>
+    <row r="46" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A46" s="197"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="190"/>
+      <c r="H46" s="190"/>
+      <c r="I46" s="190"/>
+      <c r="J46" s="190"/>
+    </row>
+    <row r="47" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A47" s="197"/>
+      <c r="B47" s="211" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="226" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="227"/>
+      <c r="F47" s="227"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" s="187" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="186"/>
+    </row>
+    <row r="48" spans="1:10" s="106" customFormat="1" ht="26.4">
+      <c r="A48" s="197"/>
+      <c r="B48" s="211"/>
+      <c r="C48" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" s="227"/>
+      <c r="E48" s="227"/>
+      <c r="F48" s="227"/>
+      <c r="G48" s="226"/>
+      <c r="H48" s="227"/>
+      <c r="I48" s="187"/>
+      <c r="J48" s="186"/>
+    </row>
+    <row r="49" spans="1:10" s="106" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A49" s="197"/>
+      <c r="B49" s="211"/>
+      <c r="C49" s="77" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="227"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="227"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="227"/>
+      <c r="I49" s="187"/>
+      <c r="J49" s="186"/>
+    </row>
+    <row r="50" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A50" s="197"/>
+      <c r="B50" s="231" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="231"/>
+      <c r="D50" s="231"/>
+      <c r="E50" s="231"/>
+      <c r="F50" s="231"/>
+      <c r="G50" s="231"/>
+      <c r="H50" s="231"/>
+      <c r="I50" s="231"/>
+      <c r="J50" s="231"/>
+    </row>
+    <row r="51" spans="1:10" s="117" customFormat="1" ht="26.4" outlineLevel="1">
+      <c r="A51" s="197"/>
+      <c r="B51" s="198" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="198" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="198"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="211" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" s="219"/>
+    </row>
+    <row r="52" spans="1:10" s="106" customFormat="1" ht="13.8" customHeight="1" outlineLevel="1">
+      <c r="A52" s="197"/>
+      <c r="B52" s="198"/>
+      <c r="C52" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="211"/>
+      <c r="I52" s="212"/>
+      <c r="J52" s="213"/>
+    </row>
+    <row r="53" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A53" s="197"/>
+      <c r="B53" s="190"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="190"/>
+      <c r="F53" s="190"/>
+      <c r="G53" s="190"/>
+      <c r="H53" s="190"/>
+      <c r="I53" s="190"/>
+      <c r="J53" s="190"/>
+    </row>
+    <row r="54" spans="1:10" s="117" customFormat="1" ht="26.4" outlineLevel="1">
+      <c r="A54" s="197"/>
+      <c r="B54" s="198" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="98" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="198" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" s="198"/>
+      <c r="F54" s="198"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="211" t="s">
+        <v>258</v>
+      </c>
+      <c r="I54" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" s="219"/>
+    </row>
+    <row r="55" spans="1:10" s="106" customFormat="1" ht="13.8" customHeight="1" outlineLevel="1">
+      <c r="A55" s="197"/>
+      <c r="B55" s="198"/>
+      <c r="C55" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D55" s="198"/>
+      <c r="E55" s="198"/>
+      <c r="F55" s="198"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="211"/>
+      <c r="I55" s="212"/>
+      <c r="J55" s="213"/>
+    </row>
+    <row r="56" spans="1:10" s="106" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A56" s="197"/>
+      <c r="B56" s="231" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" s="231"/>
+      <c r="D56" s="231"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="231"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="231"/>
+      <c r="J56" s="231"/>
+    </row>
+    <row r="57" spans="1:10" s="117" customFormat="1" ht="26.4" outlineLevel="1">
+      <c r="A57" s="197"/>
+      <c r="B57" s="198" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="98" t="s">
+        <v>260</v>
+      </c>
+      <c r="D57" s="228" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="228"/>
+      <c r="F57" s="228"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="229" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J57" s="144" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="106" customFormat="1" ht="13.8" customHeight="1" outlineLevel="1">
+      <c r="A58" s="197"/>
+      <c r="B58" s="198"/>
+      <c r="C58" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="228"/>
+      <c r="E58" s="228"/>
+      <c r="F58" s="228"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="229"/>
+      <c r="I58" s="212"/>
+      <c r="J58" s="213"/>
+    </row>
+    <row r="59" spans="1:10" s="117" customFormat="1" outlineLevel="1">
+      <c r="A59" s="197"/>
+      <c r="B59" s="190"/>
+      <c r="C59" s="190"/>
+      <c r="D59" s="190"/>
+      <c r="E59" s="190"/>
+      <c r="F59" s="190"/>
+      <c r="G59" s="190"/>
+      <c r="H59" s="190"/>
+      <c r="I59" s="190"/>
+      <c r="J59" s="190"/>
+    </row>
+    <row r="60" spans="1:10" s="117" customFormat="1" ht="39.6" outlineLevel="1">
+      <c r="A60" s="197"/>
+      <c r="B60" s="198" t="s">
+        <v>262</v>
+      </c>
+      <c r="C60" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="D60" s="198" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" s="198"/>
+      <c r="F60" s="198"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="211" t="s">
+        <v>258</v>
+      </c>
+      <c r="I60" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J60" s="144"/>
+    </row>
+    <row r="61" spans="1:10" s="106" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A61" s="197"/>
+      <c r="B61" s="198"/>
+      <c r="C61" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="198"/>
+      <c r="E61" s="198"/>
+      <c r="F61" s="198"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="211"/>
+      <c r="I61" s="212"/>
+      <c r="J61" s="213"/>
+    </row>
+    <row r="62" spans="1:10" s="106" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A62" s="197"/>
+      <c r="B62" s="190"/>
+      <c r="C62" s="190"/>
+      <c r="D62" s="190"/>
+      <c r="E62" s="190"/>
+      <c r="F62" s="190"/>
+      <c r="G62" s="190"/>
+      <c r="H62" s="190"/>
+      <c r="I62" s="190"/>
+      <c r="J62" s="190"/>
+    </row>
+    <row r="63" spans="1:10" s="117" customFormat="1" ht="39.6" outlineLevel="1">
+      <c r="A63" s="197"/>
+      <c r="B63" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="C63" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="228" t="s">
+        <v>216</v>
+      </c>
+      <c r="E63" s="228"/>
+      <c r="F63" s="228"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="229" t="s">
+        <v>216</v>
+      </c>
+      <c r="I63" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J63" s="144" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="106" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A64" s="197"/>
+      <c r="B64" s="198"/>
+      <c r="C64" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="228"/>
+      <c r="E64" s="228"/>
+      <c r="F64" s="228"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="229"/>
+      <c r="I64" s="212"/>
+      <c r="J64" s="213"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="197"/>
+      <c r="B65" s="190"/>
+      <c r="C65" s="190"/>
+      <c r="D65" s="190"/>
+      <c r="E65" s="190"/>
+      <c r="F65" s="190"/>
+      <c r="G65" s="190"/>
+      <c r="H65" s="190"/>
+      <c r="I65" s="190"/>
+      <c r="J65" s="190"/>
+    </row>
+    <row r="66" spans="1:10" ht="26.4">
+      <c r="A66" s="197"/>
+      <c r="B66" s="198" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="228" t="s">
+        <v>216</v>
+      </c>
+      <c r="E66" s="228"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="229" t="s">
+        <v>216</v>
+      </c>
+      <c r="I66" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J66" s="144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="28.8" customHeight="1">
+      <c r="A67" s="197"/>
+      <c r="B67" s="198"/>
+      <c r="C67" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="228"/>
+      <c r="E67" s="228"/>
+      <c r="F67" s="228"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="229"/>
+      <c r="I67" s="212"/>
+      <c r="J67" s="213"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="197"/>
+      <c r="B68" s="231" t="s">
+        <v>277</v>
+      </c>
+      <c r="C68" s="231"/>
+      <c r="D68" s="231"/>
+      <c r="E68" s="231"/>
+      <c r="F68" s="231"/>
+      <c r="G68" s="231"/>
+      <c r="H68" s="231"/>
+      <c r="I68" s="231"/>
+      <c r="J68" s="231"/>
+    </row>
+    <row r="69" spans="1:10" ht="26.4" customHeight="1">
+      <c r="A69" s="197"/>
+      <c r="B69" s="198" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" s="98" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" s="228" t="s">
+        <v>216</v>
+      </c>
+      <c r="E69" s="228"/>
+      <c r="F69" s="228"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="229" t="s">
+        <v>216</v>
+      </c>
+      <c r="I69" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J69" s="144" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="197"/>
+      <c r="B70" s="198"/>
+      <c r="C70" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="228"/>
+      <c r="E70" s="228"/>
+      <c r="F70" s="228"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="229"/>
+      <c r="I70" s="212"/>
+      <c r="J70" s="213"/>
+    </row>
+    <row r="71" spans="1:10" s="106" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A71" s="197"/>
+      <c r="B71" s="190"/>
+      <c r="C71" s="190"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="190"/>
+      <c r="F71" s="190"/>
+      <c r="G71" s="190"/>
+      <c r="H71" s="190"/>
+      <c r="I71" s="190"/>
+      <c r="J71" s="190"/>
+    </row>
+    <row r="72" spans="1:10" ht="26.4">
+      <c r="A72" s="197"/>
+      <c r="B72" s="198" t="s">
+        <v>271</v>
+      </c>
+      <c r="C72" s="98" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="198" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" s="198"/>
+      <c r="F72" s="198"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="211" t="s">
+        <v>258</v>
+      </c>
+      <c r="I72" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J72" s="144"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="197"/>
+      <c r="B73" s="198"/>
+      <c r="C73" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" s="198"/>
+      <c r="E73" s="198"/>
+      <c r="F73" s="198"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="211"/>
+      <c r="I73" s="212"/>
+      <c r="J73" s="213"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="I75" s="225"/>
+      <c r="J75" s="99"/>
+    </row>
+    <row r="76" spans="1:10" s="106" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A76" s="153" t="s">
+        <v>278</v>
+      </c>
+      <c r="B76" s="154"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="154"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="154"/>
+      <c r="G76" s="154"/>
+      <c r="H76" s="154"/>
+      <c r="I76" s="154"/>
+      <c r="J76" s="155"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="188" t="s">
+        <v>290</v>
+      </c>
+      <c r="B77" s="231" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="231"/>
+      <c r="D77" s="231"/>
+      <c r="E77" s="231"/>
+      <c r="F77" s="231"/>
+      <c r="G77" s="231"/>
+      <c r="H77" s="231"/>
+      <c r="I77" s="231"/>
+      <c r="J77" s="231"/>
+    </row>
+    <row r="78" spans="1:10" ht="13.8" customHeight="1">
+      <c r="A78" s="188"/>
+      <c r="B78" s="198" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="D78" s="228" t="s">
+        <v>216</v>
+      </c>
+      <c r="E78" s="228"/>
+      <c r="F78" s="228"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="229" t="s">
+        <v>216</v>
+      </c>
+      <c r="I78" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J78" s="219"/>
+    </row>
+    <row r="79" spans="1:10" ht="26.4">
+      <c r="A79" s="188"/>
+      <c r="B79" s="198"/>
+      <c r="C79" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="228"/>
+      <c r="E79" s="228"/>
+      <c r="F79" s="228"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="229"/>
+      <c r="I79" s="212"/>
+      <c r="J79" s="213"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="188"/>
+      <c r="B80" s="190"/>
+      <c r="C80" s="190"/>
+      <c r="D80" s="190"/>
+      <c r="E80" s="190"/>
+      <c r="F80" s="190"/>
+      <c r="G80" s="190"/>
+      <c r="H80" s="190"/>
+      <c r="I80" s="190"/>
+      <c r="J80" s="190"/>
+    </row>
+    <row r="81" spans="1:10" ht="13.8" customHeight="1">
+      <c r="A81" s="188"/>
+      <c r="B81" s="198" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" s="228" t="s">
+        <v>216</v>
+      </c>
+      <c r="E81" s="228"/>
+      <c r="F81" s="228"/>
+      <c r="G81" s="40"/>
+      <c r="H81" s="229" t="s">
+        <v>216</v>
+      </c>
+      <c r="I81" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J81" s="219"/>
+    </row>
+    <row r="82" spans="1:10" s="106" customFormat="1" ht="26.4">
+      <c r="A82" s="188"/>
+      <c r="B82" s="198"/>
+      <c r="C82" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="D82" s="228"/>
+      <c r="E82" s="228"/>
+      <c r="F82" s="228"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="229"/>
+      <c r="I82" s="212"/>
+      <c r="J82" s="213"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="188"/>
+      <c r="B83" s="190"/>
+      <c r="C83" s="190"/>
+      <c r="D83" s="190"/>
+      <c r="E83" s="190"/>
+      <c r="F83" s="190"/>
+      <c r="G83" s="190"/>
+      <c r="H83" s="190"/>
+      <c r="I83" s="190"/>
+      <c r="J83" s="190"/>
+    </row>
+    <row r="84" spans="1:10" ht="13.8" customHeight="1">
+      <c r="A84" s="188"/>
+      <c r="B84" s="198" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="D84" s="228" t="s">
+        <v>216</v>
+      </c>
+      <c r="E84" s="228"/>
+      <c r="F84" s="228"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="229" t="s">
+        <v>216</v>
+      </c>
+      <c r="I84" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J84" s="219"/>
+    </row>
+    <row r="85" spans="1:10" ht="26.4">
+      <c r="A85" s="188"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" s="228"/>
+      <c r="E85" s="228"/>
+      <c r="F85" s="228"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="229"/>
+      <c r="I85" s="212"/>
+      <c r="J85" s="213"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="188"/>
+      <c r="B86" s="190"/>
+      <c r="C86" s="190"/>
+      <c r="D86" s="190"/>
+      <c r="E86" s="190"/>
+      <c r="F86" s="190"/>
+      <c r="G86" s="190"/>
+      <c r="H86" s="190"/>
+      <c r="I86" s="190"/>
+      <c r="J86" s="190"/>
+    </row>
+    <row r="87" spans="1:10" ht="13.8" customHeight="1">
+      <c r="A87" s="188"/>
+      <c r="B87" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="D87" s="228" t="s">
+        <v>216</v>
+      </c>
+      <c r="E87" s="228"/>
+      <c r="F87" s="228"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="229" t="s">
+        <v>216</v>
+      </c>
+      <c r="I87" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J87" s="219"/>
+    </row>
+    <row r="88" spans="1:10" s="106" customFormat="1" ht="26.4">
+      <c r="A88" s="188"/>
+      <c r="B88" s="198"/>
+      <c r="C88" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="D88" s="228"/>
+      <c r="E88" s="228"/>
+      <c r="F88" s="228"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="229"/>
+      <c r="I88" s="212"/>
+      <c r="J88" s="213"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="188"/>
+      <c r="B89" s="231" t="s">
+        <v>287</v>
+      </c>
+      <c r="C89" s="231"/>
+      <c r="D89" s="231"/>
+      <c r="E89" s="231"/>
+      <c r="F89" s="231"/>
+      <c r="G89" s="231"/>
+      <c r="H89" s="231"/>
+      <c r="I89" s="231"/>
+      <c r="J89" s="231"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="188"/>
+      <c r="B90" s="198" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" s="232" t="s">
+        <v>289</v>
+      </c>
+      <c r="E90" s="228"/>
+      <c r="F90" s="228"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="211" t="s">
+        <v>289</v>
+      </c>
+      <c r="I90" s="212" t="s">
+        <v>41</v>
+      </c>
+      <c r="J90" s="219"/>
+    </row>
+    <row r="91" spans="1:10" ht="26.4">
+      <c r="A91" s="188"/>
+      <c r="B91" s="198"/>
+      <c r="C91" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="D91" s="228"/>
+      <c r="E91" s="228"/>
+      <c r="F91" s="228"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="211"/>
+      <c r="I91" s="212"/>
+      <c r="J91" s="213"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="I92" s="225"/>
+      <c r="J92" s="99"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="I93" s="225"/>
+      <c r="J93" s="99"/>
+    </row>
+    <row r="94" spans="1:10" s="106" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A94" s="153" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" s="154"/>
+      <c r="C94" s="154"/>
+      <c r="D94" s="154"/>
+      <c r="E94" s="154"/>
+      <c r="F94" s="154"/>
+      <c r="G94" s="154"/>
+      <c r="H94" s="154"/>
+      <c r="I94" s="154"/>
+      <c r="J94" s="155"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="188" t="s">
+        <v>311</v>
+      </c>
+      <c r="B95" s="231" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" s="231"/>
+      <c r="D95" s="231"/>
+      <c r="E95" s="231"/>
+      <c r="F95" s="231"/>
+      <c r="G95" s="231"/>
+      <c r="H95" s="231"/>
+      <c r="I95" s="231"/>
+      <c r="J95" s="231"/>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="188"/>
+      <c r="B96" s="211" t="s">
+        <v>292</v>
+      </c>
+      <c r="C96" s="226" t="s">
+        <v>293</v>
+      </c>
+      <c r="D96" s="211" t="s">
+        <v>296</v>
+      </c>
+      <c r="E96" s="227"/>
+      <c r="F96" s="227"/>
+      <c r="G96" s="118"/>
+      <c r="H96" s="211" t="s">
+        <v>296</v>
+      </c>
+      <c r="I96" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J96" s="186"/>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="188"/>
+      <c r="B97" s="227"/>
+      <c r="C97" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="D97" s="227"/>
+      <c r="E97" s="227"/>
+      <c r="F97" s="227"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="227"/>
+      <c r="I97" s="223"/>
+      <c r="J97" s="186"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="188"/>
+      <c r="B98" s="227"/>
+      <c r="C98" s="226" t="s">
+        <v>295</v>
+      </c>
+      <c r="D98" s="227"/>
+      <c r="E98" s="227"/>
+      <c r="F98" s="227"/>
+      <c r="G98" s="118"/>
+      <c r="H98" s="227"/>
+      <c r="I98" s="223"/>
+      <c r="J98" s="186"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="188"/>
+      <c r="B99" s="231" t="s">
+        <v>298</v>
+      </c>
+      <c r="C99" s="231"/>
+      <c r="D99" s="231"/>
+      <c r="E99" s="231"/>
+      <c r="F99" s="231"/>
+      <c r="G99" s="231"/>
+      <c r="H99" s="231"/>
+      <c r="I99" s="231"/>
+      <c r="J99" s="231"/>
+    </row>
+    <row r="100" spans="1:10" ht="26.4">
+      <c r="A100" s="188"/>
+      <c r="B100" s="211" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="D100" s="229" t="s">
+        <v>305</v>
+      </c>
+      <c r="E100" s="236"/>
+      <c r="F100" s="236"/>
+      <c r="G100" s="118"/>
+      <c r="H100" s="229" t="s">
+        <v>305</v>
+      </c>
+      <c r="I100" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J100" s="229" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="106" customFormat="1">
+      <c r="A101" s="188"/>
+      <c r="B101" s="227"/>
+      <c r="C101" s="235" t="s">
+        <v>300</v>
+      </c>
+      <c r="D101" s="236"/>
+      <c r="E101" s="236"/>
+      <c r="F101" s="236"/>
+      <c r="G101" s="118"/>
+      <c r="H101" s="236"/>
+      <c r="I101" s="223"/>
+      <c r="J101" s="236"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="188"/>
+      <c r="B102" s="227"/>
+      <c r="C102" s="226" t="s">
+        <v>295</v>
+      </c>
+      <c r="D102" s="236"/>
+      <c r="E102" s="236"/>
+      <c r="F102" s="236"/>
+      <c r="G102" s="118"/>
+      <c r="H102" s="236"/>
+      <c r="I102" s="223"/>
+      <c r="J102" s="236"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="188"/>
+      <c r="B103" s="190"/>
+      <c r="C103" s="190"/>
+      <c r="D103" s="190"/>
+      <c r="E103" s="190"/>
+      <c r="F103" s="190"/>
+      <c r="G103" s="190"/>
+      <c r="H103" s="190"/>
+      <c r="I103" s="190"/>
+      <c r="J103" s="190"/>
+    </row>
+    <row r="104" spans="1:10" ht="26.4">
+      <c r="A104" s="188"/>
+      <c r="B104" s="211" t="s">
+        <v>302</v>
+      </c>
+      <c r="C104" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" s="211" t="s">
+        <v>258</v>
+      </c>
+      <c r="E104" s="227"/>
+      <c r="F104" s="227"/>
+      <c r="G104" s="118"/>
+      <c r="H104" s="211" t="s">
+        <v>258</v>
+      </c>
+      <c r="I104" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J104" s="227"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="188"/>
+      <c r="B105" s="227"/>
+      <c r="C105" s="235" t="s">
+        <v>303</v>
+      </c>
+      <c r="D105" s="227"/>
+      <c r="E105" s="227"/>
+      <c r="F105" s="227"/>
+      <c r="G105" s="118"/>
+      <c r="H105" s="227"/>
+      <c r="I105" s="223"/>
+      <c r="J105" s="227"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="188"/>
+      <c r="B106" s="227"/>
+      <c r="C106" s="226" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" s="227"/>
+      <c r="E106" s="227"/>
+      <c r="F106" s="227"/>
+      <c r="G106" s="118"/>
+      <c r="H106" s="227"/>
+      <c r="I106" s="223"/>
+      <c r="J106" s="227"/>
+    </row>
+    <row r="107" spans="1:10" s="106" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A107" s="188"/>
+      <c r="B107" s="190"/>
+      <c r="C107" s="190"/>
+      <c r="D107" s="190"/>
+      <c r="E107" s="190"/>
+      <c r="F107" s="190"/>
+      <c r="G107" s="190"/>
+      <c r="H107" s="190"/>
+      <c r="I107" s="190"/>
+      <c r="J107" s="190"/>
+    </row>
+    <row r="108" spans="1:10" ht="26.4">
+      <c r="A108" s="188"/>
+      <c r="B108" s="211" t="s">
+        <v>306</v>
+      </c>
+      <c r="C108" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="D108" s="211" t="s">
+        <v>309</v>
+      </c>
+      <c r="E108" s="227"/>
+      <c r="F108" s="227"/>
+      <c r="G108" s="118"/>
+      <c r="H108" s="211" t="s">
+        <v>309</v>
+      </c>
+      <c r="I108" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J108" s="211" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="26.4">
+      <c r="A109" s="188"/>
+      <c r="B109" s="227"/>
+      <c r="C109" s="230" t="s">
+        <v>307</v>
+      </c>
+      <c r="D109" s="227"/>
+      <c r="E109" s="227"/>
+      <c r="F109" s="227"/>
+      <c r="G109" s="118"/>
+      <c r="H109" s="227"/>
+      <c r="I109" s="223"/>
+      <c r="J109" s="227"/>
+    </row>
+    <row r="110" spans="1:10" ht="26.4">
+      <c r="A110" s="188"/>
+      <c r="B110" s="227"/>
+      <c r="C110" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="D110" s="227"/>
+      <c r="E110" s="227"/>
+      <c r="F110" s="227"/>
+      <c r="G110" s="118"/>
+      <c r="H110" s="227"/>
+      <c r="I110" s="223"/>
+      <c r="J110" s="227"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="I111" s="225"/>
+      <c r="J111" s="99"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="I112" s="225"/>
+      <c r="J112" s="99"/>
+    </row>
+    <row r="113" spans="1:10" s="106" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A113" s="153" t="s">
+        <v>312</v>
+      </c>
+      <c r="B113" s="154"/>
+      <c r="C113" s="154"/>
+      <c r="D113" s="154"/>
+      <c r="E113" s="154"/>
+      <c r="F113" s="154"/>
+      <c r="G113" s="154"/>
+      <c r="H113" s="154"/>
+      <c r="I113" s="154"/>
+      <c r="J113" s="155"/>
+    </row>
+    <row r="114" spans="1:10" ht="13.8" customHeight="1">
+      <c r="A114" s="188" t="s">
+        <v>324</v>
+      </c>
+      <c r="B114" s="231" t="s">
+        <v>298</v>
+      </c>
+      <c r="C114" s="231"/>
+      <c r="D114" s="231"/>
+      <c r="E114" s="231"/>
+      <c r="F114" s="231"/>
+      <c r="G114" s="231"/>
+      <c r="H114" s="231"/>
+      <c r="I114" s="231"/>
+      <c r="J114" s="231"/>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="188"/>
+      <c r="B115" s="211" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="D115" s="211" t="s">
+        <v>318</v>
+      </c>
+      <c r="E115" s="227"/>
+      <c r="F115" s="227"/>
+      <c r="G115" s="118"/>
+      <c r="H115" s="211" t="s">
+        <v>318</v>
+      </c>
+      <c r="I115" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J115" s="211"/>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="188"/>
+      <c r="B116" s="227"/>
+      <c r="C116" s="235" t="s">
+        <v>317</v>
+      </c>
+      <c r="D116" s="227"/>
+      <c r="E116" s="227"/>
+      <c r="F116" s="227"/>
+      <c r="G116" s="118"/>
+      <c r="H116" s="227"/>
+      <c r="I116" s="223"/>
+      <c r="J116" s="227"/>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="188"/>
+      <c r="B117" s="227"/>
+      <c r="C117" s="226" t="s">
+        <v>295</v>
+      </c>
+      <c r="D117" s="227"/>
+      <c r="E117" s="227"/>
+      <c r="F117" s="227"/>
+      <c r="G117" s="118"/>
+      <c r="H117" s="227"/>
+      <c r="I117" s="223"/>
+      <c r="J117" s="227"/>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="188"/>
+      <c r="B118" s="190"/>
+      <c r="C118" s="190"/>
+      <c r="D118" s="190"/>
+      <c r="E118" s="190"/>
+      <c r="F118" s="190"/>
+      <c r="G118" s="190"/>
+      <c r="H118" s="190"/>
+      <c r="I118" s="190"/>
+      <c r="J118" s="190"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="188"/>
+      <c r="B119" s="211" t="s">
+        <v>302</v>
+      </c>
+      <c r="C119" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" s="211" t="s">
+        <v>318</v>
+      </c>
+      <c r="E119" s="227"/>
+      <c r="F119" s="227"/>
+      <c r="G119" s="118"/>
+      <c r="H119" s="211" t="s">
+        <v>318</v>
+      </c>
+      <c r="I119" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J119" s="211"/>
+    </row>
+    <row r="120" spans="1:10" ht="26.4">
+      <c r="A120" s="188"/>
+      <c r="B120" s="227"/>
+      <c r="C120" s="230" t="s">
+        <v>319</v>
+      </c>
+      <c r="D120" s="227"/>
+      <c r="E120" s="227"/>
+      <c r="F120" s="227"/>
+      <c r="G120" s="118"/>
+      <c r="H120" s="227"/>
+      <c r="I120" s="223"/>
+      <c r="J120" s="227"/>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="188"/>
+      <c r="B121" s="227"/>
+      <c r="C121" s="226" t="s">
+        <v>295</v>
+      </c>
+      <c r="D121" s="227"/>
+      <c r="E121" s="227"/>
+      <c r="F121" s="227"/>
+      <c r="G121" s="118"/>
+      <c r="H121" s="227"/>
+      <c r="I121" s="223"/>
+      <c r="J121" s="227"/>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="188"/>
+      <c r="B122" s="231" t="s">
+        <v>297</v>
+      </c>
+      <c r="C122" s="231"/>
+      <c r="D122" s="231"/>
+      <c r="E122" s="231"/>
+      <c r="F122" s="231"/>
+      <c r="G122" s="231"/>
+      <c r="H122" s="231"/>
+      <c r="I122" s="231"/>
+      <c r="J122" s="231"/>
+    </row>
+    <row r="123" spans="1:10" ht="13.8" customHeight="1">
+      <c r="A123" s="188"/>
+      <c r="B123" s="211" t="s">
+        <v>320</v>
+      </c>
+      <c r="C123" s="226" t="s">
+        <v>308</v>
+      </c>
+      <c r="D123" s="211" t="s">
+        <v>323</v>
+      </c>
+      <c r="E123" s="227"/>
+      <c r="F123" s="227"/>
+      <c r="G123" s="118"/>
+      <c r="H123" s="211" t="s">
+        <v>323</v>
+      </c>
+      <c r="I123" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J123" s="186"/>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="188"/>
+      <c r="B124" s="227"/>
+      <c r="C124" s="235" t="s">
+        <v>321</v>
+      </c>
+      <c r="D124" s="227"/>
+      <c r="E124" s="227"/>
+      <c r="F124" s="227"/>
+      <c r="G124" s="118"/>
+      <c r="H124" s="227"/>
+      <c r="I124" s="223"/>
+      <c r="J124" s="186"/>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="188"/>
+      <c r="B125" s="227"/>
+      <c r="C125" s="226" t="s">
+        <v>322</v>
+      </c>
+      <c r="D125" s="227"/>
+      <c r="E125" s="227"/>
+      <c r="F125" s="227"/>
+      <c r="G125" s="118"/>
+      <c r="H125" s="227"/>
+      <c r="I125" s="223"/>
+      <c r="J125" s="186"/>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="D126" s="200"/>
+      <c r="E126" s="200"/>
+      <c r="F126" s="200"/>
+      <c r="I126" s="114"/>
+      <c r="J126" s="99"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="D127" s="200"/>
+      <c r="E127" s="200"/>
+      <c r="F127" s="200"/>
+      <c r="I127" s="114"/>
+      <c r="J127" s="99"/>
+    </row>
+    <row r="128" spans="1:10" s="106" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A128" s="153" t="s">
+        <v>325</v>
+      </c>
+      <c r="B128" s="154"/>
+      <c r="C128" s="154"/>
+      <c r="D128" s="154"/>
+      <c r="E128" s="154"/>
+      <c r="F128" s="154"/>
+      <c r="G128" s="154"/>
+      <c r="H128" s="154"/>
+      <c r="I128" s="154"/>
+      <c r="J128" s="155"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="233" t="s">
+        <v>361</v>
+      </c>
+      <c r="B129" s="211" t="s">
+        <v>326</v>
+      </c>
+      <c r="C129" s="77" t="s">
+        <v>327</v>
+      </c>
+      <c r="D129" s="211" t="s">
+        <v>330</v>
+      </c>
+      <c r="E129" s="227"/>
+      <c r="F129" s="227"/>
+      <c r="G129" s="118"/>
+      <c r="H129" s="211" t="s">
+        <v>330</v>
+      </c>
+      <c r="I129" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J129" s="229"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="234"/>
+      <c r="B130" s="227"/>
+      <c r="C130" s="235" t="s">
+        <v>328</v>
+      </c>
+      <c r="D130" s="227"/>
+      <c r="E130" s="227"/>
+      <c r="F130" s="227"/>
+      <c r="G130" s="118"/>
+      <c r="H130" s="227"/>
+      <c r="I130" s="223"/>
+      <c r="J130" s="236"/>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="234"/>
+      <c r="B131" s="227"/>
+      <c r="C131" s="226" t="s">
+        <v>329</v>
+      </c>
+      <c r="D131" s="227"/>
+      <c r="E131" s="227"/>
+      <c r="F131" s="227"/>
+      <c r="G131" s="118"/>
+      <c r="H131" s="227"/>
+      <c r="I131" s="223"/>
+      <c r="J131" s="236"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="234"/>
+      <c r="B132" s="190"/>
+      <c r="C132" s="190"/>
+      <c r="D132" s="190"/>
+      <c r="E132" s="190"/>
+      <c r="F132" s="190"/>
+      <c r="G132" s="190"/>
+      <c r="H132" s="190"/>
+      <c r="I132" s="190"/>
+      <c r="J132" s="190"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="234"/>
+      <c r="B133" s="211" t="s">
+        <v>331</v>
+      </c>
+      <c r="C133" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="D133" s="211" t="s">
+        <v>330</v>
+      </c>
+      <c r="E133" s="227"/>
+      <c r="F133" s="227"/>
+      <c r="G133" s="118"/>
+      <c r="H133" s="211" t="s">
+        <v>330</v>
+      </c>
+      <c r="I133" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J133" s="229"/>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="234"/>
+      <c r="B134" s="227"/>
+      <c r="C134" s="235" t="s">
+        <v>333</v>
+      </c>
+      <c r="D134" s="227"/>
+      <c r="E134" s="227"/>
+      <c r="F134" s="227"/>
+      <c r="G134" s="118"/>
+      <c r="H134" s="227"/>
+      <c r="I134" s="223"/>
+      <c r="J134" s="236"/>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="234"/>
+      <c r="B135" s="227"/>
+      <c r="C135" s="226" t="s">
+        <v>334</v>
+      </c>
+      <c r="D135" s="227"/>
+      <c r="E135" s="227"/>
+      <c r="F135" s="227"/>
+      <c r="G135" s="118"/>
+      <c r="H135" s="227"/>
+      <c r="I135" s="223"/>
+      <c r="J135" s="236"/>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="234"/>
+      <c r="B136" s="190"/>
+      <c r="C136" s="190"/>
+      <c r="D136" s="190"/>
+      <c r="E136" s="190"/>
+      <c r="F136" s="190"/>
+      <c r="G136" s="190"/>
+      <c r="H136" s="190"/>
+      <c r="I136" s="190"/>
+      <c r="J136" s="190"/>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="234"/>
+      <c r="B137" s="211" t="s">
+        <v>336</v>
+      </c>
+      <c r="C137" s="77" t="s">
+        <v>337</v>
+      </c>
+      <c r="D137" s="211" t="s">
+        <v>340</v>
+      </c>
+      <c r="E137" s="227"/>
+      <c r="F137" s="227"/>
+      <c r="G137" s="118"/>
+      <c r="H137" s="211" t="s">
+        <v>340</v>
+      </c>
+      <c r="I137" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J137" s="229"/>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="234"/>
+      <c r="B138" s="227"/>
+      <c r="C138" s="235" t="s">
+        <v>338</v>
+      </c>
+      <c r="D138" s="227"/>
+      <c r="E138" s="227"/>
+      <c r="F138" s="227"/>
+      <c r="G138" s="118"/>
+      <c r="H138" s="227"/>
+      <c r="I138" s="223"/>
+      <c r="J138" s="236"/>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="234"/>
+      <c r="B139" s="227"/>
+      <c r="C139" s="226" t="s">
+        <v>339</v>
+      </c>
+      <c r="D139" s="227"/>
+      <c r="E139" s="227"/>
+      <c r="F139" s="227"/>
+      <c r="G139" s="118"/>
+      <c r="H139" s="227"/>
+      <c r="I139" s="223"/>
+      <c r="J139" s="236"/>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="234"/>
+      <c r="B140" s="190"/>
+      <c r="C140" s="190"/>
+      <c r="D140" s="190"/>
+      <c r="E140" s="190"/>
+      <c r="F140" s="190"/>
+      <c r="G140" s="190"/>
+      <c r="H140" s="190"/>
+      <c r="I140" s="190"/>
+      <c r="J140" s="190"/>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="234"/>
+      <c r="B141" s="211" t="s">
+        <v>341</v>
+      </c>
+      <c r="C141" s="77" t="s">
+        <v>342</v>
+      </c>
+      <c r="D141" s="211" t="s">
+        <v>345</v>
+      </c>
+      <c r="E141" s="227"/>
+      <c r="F141" s="227"/>
+      <c r="G141" s="118"/>
+      <c r="H141" s="211" t="s">
+        <v>345</v>
+      </c>
+      <c r="I141" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J141" s="229"/>
+    </row>
+    <row r="142" spans="1:10" ht="26.4">
+      <c r="A142" s="234"/>
+      <c r="B142" s="227"/>
+      <c r="C142" s="230" t="s">
+        <v>343</v>
+      </c>
+      <c r="D142" s="227"/>
+      <c r="E142" s="227"/>
+      <c r="F142" s="227"/>
+      <c r="G142" s="118"/>
+      <c r="H142" s="227"/>
+      <c r="I142" s="223"/>
+      <c r="J142" s="236"/>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="234"/>
+      <c r="B143" s="227"/>
+      <c r="C143" s="226" t="s">
+        <v>344</v>
+      </c>
+      <c r="D143" s="227"/>
+      <c r="E143" s="227"/>
+      <c r="F143" s="227"/>
+      <c r="G143" s="118"/>
+      <c r="H143" s="227"/>
+      <c r="I143" s="223"/>
+      <c r="J143" s="236"/>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="234"/>
+      <c r="B144" s="190"/>
+      <c r="C144" s="190"/>
+      <c r="D144" s="190"/>
+      <c r="E144" s="190"/>
+      <c r="F144" s="190"/>
+      <c r="G144" s="190"/>
+      <c r="H144" s="190"/>
+      <c r="I144" s="190"/>
+      <c r="J144" s="190"/>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="234"/>
+      <c r="B145" s="211" t="s">
+        <v>346</v>
+      </c>
+      <c r="C145" s="77" t="s">
+        <v>347</v>
+      </c>
+      <c r="D145" s="211" t="s">
+        <v>350</v>
+      </c>
+      <c r="E145" s="227"/>
+      <c r="F145" s="227"/>
+      <c r="G145" s="118"/>
+      <c r="H145" s="211" t="s">
+        <v>350</v>
+      </c>
+      <c r="I145" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J145" s="229"/>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="234"/>
+      <c r="B146" s="227"/>
+      <c r="C146" s="230" t="s">
+        <v>348</v>
+      </c>
+      <c r="D146" s="227"/>
+      <c r="E146" s="227"/>
+      <c r="F146" s="227"/>
+      <c r="G146" s="118"/>
+      <c r="H146" s="227"/>
+      <c r="I146" s="223"/>
+      <c r="J146" s="236"/>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="234"/>
+      <c r="B147" s="227"/>
+      <c r="C147" s="226" t="s">
+        <v>349</v>
+      </c>
+      <c r="D147" s="227"/>
+      <c r="E147" s="227"/>
+      <c r="F147" s="227"/>
+      <c r="G147" s="118"/>
+      <c r="H147" s="227"/>
+      <c r="I147" s="223"/>
+      <c r="J147" s="236"/>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="234"/>
+      <c r="B148" s="190"/>
+      <c r="C148" s="190"/>
+      <c r="D148" s="190"/>
+      <c r="E148" s="190"/>
+      <c r="F148" s="190"/>
+      <c r="G148" s="190"/>
+      <c r="H148" s="190"/>
+      <c r="I148" s="190"/>
+      <c r="J148" s="190"/>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="234"/>
+      <c r="B149" s="211" t="s">
+        <v>351</v>
+      </c>
+      <c r="C149" s="77" t="s">
+        <v>352</v>
+      </c>
+      <c r="D149" s="211" t="s">
+        <v>355</v>
+      </c>
+      <c r="E149" s="227"/>
+      <c r="F149" s="227"/>
+      <c r="G149" s="118"/>
+      <c r="H149" s="211" t="s">
+        <v>355</v>
+      </c>
+      <c r="I149" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J149" s="229"/>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="234"/>
+      <c r="B150" s="227"/>
+      <c r="C150" s="230" t="s">
+        <v>353</v>
+      </c>
+      <c r="D150" s="227"/>
+      <c r="E150" s="227"/>
+      <c r="F150" s="227"/>
+      <c r="G150" s="118"/>
+      <c r="H150" s="227"/>
+      <c r="I150" s="223"/>
+      <c r="J150" s="236"/>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="234"/>
+      <c r="B151" s="227"/>
+      <c r="C151" s="226" t="s">
+        <v>354</v>
+      </c>
+      <c r="D151" s="227"/>
+      <c r="E151" s="227"/>
+      <c r="F151" s="227"/>
+      <c r="G151" s="118"/>
+      <c r="H151" s="227"/>
+      <c r="I151" s="223"/>
+      <c r="J151" s="236"/>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="234"/>
+      <c r="B152" s="190"/>
+      <c r="C152" s="190"/>
+      <c r="D152" s="190"/>
+      <c r="E152" s="190"/>
+      <c r="F152" s="190"/>
+      <c r="G152" s="190"/>
+      <c r="H152" s="190"/>
+      <c r="I152" s="190"/>
+      <c r="J152" s="190"/>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="234"/>
+      <c r="B153" s="211" t="s">
+        <v>356</v>
+      </c>
+      <c r="C153" s="77" t="s">
+        <v>357</v>
+      </c>
+      <c r="D153" s="211" t="s">
+        <v>360</v>
+      </c>
+      <c r="E153" s="227"/>
+      <c r="F153" s="227"/>
+      <c r="G153" s="118"/>
+      <c r="H153" s="211" t="s">
+        <v>360</v>
+      </c>
+      <c r="I153" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="J153" s="229"/>
+    </row>
+    <row r="154" spans="1:10" ht="26.4">
+      <c r="A154" s="234"/>
+      <c r="B154" s="227"/>
+      <c r="C154" s="230" t="s">
+        <v>358</v>
+      </c>
+      <c r="D154" s="227"/>
+      <c r="E154" s="227"/>
+      <c r="F154" s="227"/>
+      <c r="G154" s="118"/>
+      <c r="H154" s="227"/>
+      <c r="I154" s="223"/>
+      <c r="J154" s="236"/>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="234"/>
+      <c r="B155" s="227"/>
+      <c r="C155" s="226" t="s">
+        <v>359</v>
+      </c>
+      <c r="D155" s="227"/>
+      <c r="E155" s="227"/>
+      <c r="F155" s="227"/>
+      <c r="G155" s="118"/>
+      <c r="H155" s="227"/>
+      <c r="I155" s="223"/>
+      <c r="J155" s="236"/>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="D156" s="200"/>
+      <c r="E156" s="200"/>
+      <c r="F156" s="200"/>
+      <c r="I156" s="114"/>
+      <c r="J156" s="99"/>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="D157" s="200"/>
+      <c r="E157" s="200"/>
+      <c r="F157" s="200"/>
+      <c r="I157" s="114"/>
+      <c r="J157" s="99"/>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="D158" s="200"/>
+      <c r="E158" s="200"/>
+      <c r="F158" s="200"/>
+      <c r="I158" s="114"/>
+      <c r="J158" s="99"/>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="D159" s="200"/>
+      <c r="E159" s="200"/>
+      <c r="F159" s="200"/>
+      <c r="I159" s="114"/>
+      <c r="J159" s="99"/>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="D160" s="200"/>
+      <c r="E160" s="200"/>
+      <c r="F160" s="200"/>
+      <c r="I160" s="114"/>
+      <c r="J160" s="99"/>
+    </row>
+    <row r="161" spans="9:10">
+      <c r="I161" s="114"/>
+      <c r="J161" s="99"/>
+    </row>
+    <row r="162" spans="9:10">
+      <c r="I162" s="114"/>
+      <c r="J162" s="99"/>
+    </row>
+    <row r="163" spans="9:10">
+      <c r="I163" s="114"/>
+      <c r="J163" s="99"/>
+    </row>
+    <row r="164" spans="9:10">
+      <c r="I164" s="114"/>
+      <c r="J164" s="99"/>
+    </row>
+    <row r="165" spans="9:10">
+      <c r="I165" s="114"/>
+      <c r="J165" s="99"/>
+    </row>
+    <row r="166" spans="9:10">
+      <c r="I166" s="114"/>
+      <c r="J166" s="99"/>
+    </row>
+    <row r="167" spans="9:10">
+      <c r="I167" s="114"/>
+      <c r="J167" s="99"/>
+    </row>
+    <row r="168" spans="9:10">
+      <c r="I168" s="114"/>
+      <c r="J168" s="99"/>
+    </row>
+    <row r="169" spans="9:10">
+      <c r="I169" s="114"/>
+      <c r="J169" s="99"/>
+    </row>
+    <row r="170" spans="9:10">
+      <c r="I170" s="114"/>
+      <c r="J170" s="99"/>
+    </row>
+    <row r="171" spans="9:10">
+      <c r="I171" s="114"/>
+      <c r="J171" s="99"/>
+    </row>
+    <row r="172" spans="9:10">
+      <c r="I172" s="114"/>
+      <c r="J172" s="99"/>
+    </row>
+    <row r="173" spans="9:10">
+      <c r="I173" s="114"/>
+      <c r="J173" s="99"/>
+    </row>
+    <row r="174" spans="9:10">
+      <c r="I174" s="114"/>
+      <c r="J174" s="99"/>
+    </row>
+    <row r="175" spans="9:10">
+      <c r="I175" s="114"/>
+      <c r="J175" s="99"/>
+    </row>
+    <row r="176" spans="9:10">
+      <c r="I176" s="114"/>
+      <c r="J176" s="99"/>
+    </row>
+    <row r="177" spans="9:10">
+      <c r="I177" s="114"/>
+      <c r="J177" s="99"/>
+    </row>
+    <row r="178" spans="9:10">
+      <c r="I178" s="114"/>
+      <c r="J178" s="99"/>
+    </row>
+    <row r="179" spans="9:10">
+      <c r="I179" s="114"/>
+      <c r="J179" s="99"/>
+    </row>
+    <row r="180" spans="9:10">
+      <c r="I180" s="114"/>
+      <c r="J180" s="99"/>
+    </row>
+    <row r="181" spans="9:10">
+      <c r="I181" s="114"/>
+      <c r="J181" s="99"/>
+    </row>
+    <row r="182" spans="9:10">
+      <c r="I182" s="114"/>
+      <c r="J182" s="99"/>
+    </row>
+    <row r="183" spans="9:10">
+      <c r="I183" s="114"/>
+      <c r="J183" s="99"/>
+    </row>
+    <row r="184" spans="9:10">
+      <c r="I184" s="114"/>
+      <c r="J184" s="99"/>
+    </row>
+    <row r="185" spans="9:10">
+      <c r="I185" s="114"/>
+      <c r="J185" s="99"/>
+    </row>
+    <row r="186" spans="9:10">
+      <c r="I186" s="114"/>
+      <c r="J186" s="99"/>
+    </row>
+    <row r="187" spans="9:10">
+      <c r="I187" s="114"/>
+      <c r="J187" s="99"/>
+    </row>
+    <row r="188" spans="9:10">
+      <c r="I188" s="114"/>
+      <c r="J188" s="99"/>
+    </row>
+    <row r="189" spans="9:10">
+      <c r="I189" s="114"/>
+      <c r="J189" s="99"/>
+    </row>
+    <row r="190" spans="9:10">
+      <c r="I190" s="114"/>
+      <c r="J190" s="99"/>
+    </row>
+    <row r="191" spans="9:10">
+      <c r="I191" s="114"/>
+      <c r="J191" s="99"/>
+    </row>
+    <row r="192" spans="9:10">
+      <c r="I192" s="114"/>
+      <c r="J192" s="99"/>
+    </row>
+    <row r="193" spans="9:10">
+      <c r="I193" s="114"/>
+      <c r="J193" s="99"/>
+    </row>
+    <row r="194" spans="9:10">
+      <c r="I194" s="114"/>
+      <c r="J194" s="99"/>
+    </row>
+    <row r="195" spans="9:10">
+      <c r="I195" s="114"/>
+      <c r="J195" s="99"/>
+    </row>
+    <row r="196" spans="9:10">
+      <c r="I196" s="114"/>
+      <c r="J196" s="99"/>
+    </row>
+    <row r="197" spans="9:10">
+      <c r="I197" s="114"/>
+      <c r="J197" s="99"/>
+    </row>
+    <row r="198" spans="9:10">
+      <c r="I198" s="114"/>
+      <c r="J198" s="99"/>
+    </row>
+    <row r="199" spans="9:10">
+      <c r="I199" s="114"/>
+      <c r="J199" s="99"/>
+    </row>
+    <row r="200" spans="9:10">
+      <c r="I200" s="114"/>
+      <c r="J200" s="99"/>
+    </row>
+    <row r="201" spans="9:10">
+      <c r="I201" s="114"/>
+      <c r="J201" s="99"/>
+    </row>
+    <row r="202" spans="9:10">
+      <c r="I202" s="114"/>
+      <c r="J202" s="99"/>
+    </row>
+    <row r="203" spans="9:10">
+      <c r="I203" s="114"/>
+      <c r="J203" s="99"/>
+    </row>
+    <row r="204" spans="9:10">
+      <c r="I204" s="114"/>
+      <c r="J204" s="99"/>
+    </row>
+    <row r="205" spans="9:10">
+      <c r="I205" s="114"/>
+      <c r="J205" s="99"/>
+    </row>
+    <row r="206" spans="9:10">
+      <c r="I206" s="114"/>
+      <c r="J206" s="99"/>
+    </row>
+    <row r="207" spans="9:10">
+      <c r="I207" s="114"/>
+      <c r="J207" s="99"/>
+    </row>
+    <row r="208" spans="9:10">
+      <c r="I208" s="114"/>
+      <c r="J208" s="99"/>
+    </row>
+    <row r="209" spans="9:10">
+      <c r="I209" s="114"/>
+      <c r="J209" s="99"/>
+    </row>
+    <row r="210" spans="9:10">
+      <c r="I210" s="114"/>
+      <c r="J210" s="99"/>
+    </row>
+    <row r="211" spans="9:10">
+      <c r="I211" s="114"/>
+      <c r="J211" s="99"/>
+    </row>
+    <row r="212" spans="9:10">
+      <c r="I212" s="114"/>
+      <c r="J212" s="99"/>
+    </row>
+    <row r="213" spans="9:10">
+      <c r="I213" s="114"/>
+      <c r="J213" s="99"/>
+    </row>
+    <row r="214" spans="9:10">
+      <c r="I214" s="114"/>
+      <c r="J214" s="99"/>
+    </row>
+    <row r="215" spans="9:10">
+      <c r="I215" s="114"/>
+      <c r="J215" s="99"/>
+    </row>
+    <row r="216" spans="9:10">
+      <c r="I216" s="114"/>
+      <c r="J216" s="99"/>
+    </row>
+    <row r="217" spans="9:10">
+      <c r="I217" s="114"/>
+      <c r="J217" s="99"/>
+    </row>
+    <row r="218" spans="9:10">
+      <c r="I218" s="114"/>
+      <c r="J218" s="99"/>
+    </row>
+    <row r="219" spans="9:10">
+      <c r="I219" s="114"/>
+      <c r="J219" s="99"/>
+    </row>
+    <row r="220" spans="9:10">
+      <c r="I220" s="114"/>
+      <c r="J220" s="99"/>
+    </row>
+    <row r="221" spans="9:10">
+      <c r="I221" s="114"/>
+      <c r="J221" s="99"/>
+    </row>
+    <row r="222" spans="9:10">
+      <c r="I222" s="114"/>
+      <c r="J222" s="99"/>
+    </row>
+    <row r="223" spans="9:10">
+      <c r="I223" s="114"/>
+      <c r="J223" s="99"/>
+    </row>
+    <row r="224" spans="9:10">
+      <c r="I224" s="114"/>
+      <c r="J224" s="99"/>
+    </row>
+    <row r="225" spans="9:10">
+      <c r="I225" s="114"/>
+      <c r="J225" s="99"/>
+    </row>
+    <row r="226" spans="9:10">
+      <c r="I226" s="114"/>
+      <c r="J226" s="99"/>
+    </row>
+    <row r="227" spans="9:10">
+      <c r="I227" s="114"/>
+      <c r="J227" s="99"/>
+    </row>
+    <row r="228" spans="9:10">
+      <c r="I228" s="114"/>
+      <c r="J228" s="99"/>
+    </row>
+    <row r="229" spans="9:10">
+      <c r="I229" s="114"/>
+      <c r="J229" s="99"/>
+    </row>
+    <row r="230" spans="9:10">
+      <c r="I230" s="114"/>
+      <c r="J230" s="99"/>
+    </row>
+    <row r="231" spans="9:10">
+      <c r="I231" s="114"/>
+      <c r="J231" s="99"/>
+    </row>
+    <row r="232" spans="9:10">
+      <c r="I232" s="114"/>
+      <c r="J232" s="99"/>
+    </row>
+    <row r="233" spans="9:10">
+      <c r="I233" s="114"/>
+      <c r="J233" s="99"/>
+    </row>
+    <row r="234" spans="9:10">
+      <c r="I234" s="114"/>
+      <c r="J234" s="99"/>
+    </row>
+    <row r="235" spans="9:10">
+      <c r="I235" s="114"/>
+      <c r="J235" s="99"/>
+    </row>
+    <row r="236" spans="9:10">
+      <c r="I236" s="114"/>
+      <c r="J236" s="99"/>
+    </row>
+    <row r="237" spans="9:10">
+      <c r="I237" s="114"/>
+      <c r="J237" s="99"/>
+    </row>
+    <row r="238" spans="9:10">
+      <c r="I238" s="114"/>
+      <c r="J238" s="99"/>
+    </row>
+    <row r="239" spans="9:10">
+      <c r="I239" s="114"/>
+      <c r="J239" s="99"/>
+    </row>
+    <row r="240" spans="9:10">
+      <c r="I240" s="114"/>
+      <c r="J240" s="99"/>
+    </row>
+    <row r="241" spans="9:10">
+      <c r="I241" s="114"/>
+      <c r="J241" s="99"/>
+    </row>
+    <row r="242" spans="9:10">
+      <c r="I242" s="114"/>
+      <c r="J242" s="99"/>
+    </row>
+    <row r="243" spans="9:10">
+      <c r="I243" s="114"/>
+      <c r="J243" s="99"/>
+    </row>
+    <row r="244" spans="9:10">
+      <c r="I244" s="114"/>
+      <c r="J244" s="99"/>
+    </row>
+    <row r="245" spans="9:10">
+      <c r="I245" s="114"/>
+      <c r="J245" s="99"/>
+    </row>
+    <row r="246" spans="9:10">
+      <c r="I246" s="114"/>
+      <c r="J246" s="99"/>
+    </row>
+    <row r="247" spans="9:10">
+      <c r="I247" s="114"/>
+      <c r="J247" s="99"/>
+    </row>
+    <row r="248" spans="9:10">
+      <c r="I248" s="114"/>
+      <c r="J248" s="99"/>
+    </row>
+    <row r="249" spans="9:10">
+      <c r="I249" s="114"/>
+      <c r="J249" s="99"/>
+    </row>
+    <row r="250" spans="9:10">
+      <c r="I250" s="114"/>
+      <c r="J250" s="99"/>
+    </row>
+    <row r="251" spans="9:10">
+      <c r="I251" s="114"/>
+      <c r="J251" s="99"/>
+    </row>
+    <row r="252" spans="9:10">
+      <c r="I252" s="114"/>
+      <c r="J252" s="99"/>
+    </row>
+    <row r="253" spans="9:10">
+      <c r="I253" s="114"/>
+      <c r="J253" s="99"/>
+    </row>
+    <row r="254" spans="9:10">
+      <c r="I254" s="114"/>
+      <c r="J254" s="99"/>
+    </row>
+    <row r="255" spans="9:10">
+      <c r="I255" s="114"/>
+      <c r="J255" s="99"/>
+    </row>
+    <row r="256" spans="9:10">
+      <c r="I256" s="114"/>
+      <c r="J256" s="99"/>
+    </row>
+    <row r="257" spans="9:10">
+      <c r="I257" s="114"/>
+      <c r="J257" s="99"/>
+    </row>
+    <row r="258" spans="9:10">
+      <c r="I258" s="114"/>
+      <c r="J258" s="99"/>
+    </row>
+    <row r="259" spans="9:10">
+      <c r="I259" s="114"/>
+      <c r="J259" s="99"/>
+    </row>
+    <row r="260" spans="9:10">
+      <c r="I260" s="114"/>
+      <c r="J260" s="99"/>
+    </row>
+    <row r="261" spans="9:10">
+      <c r="I261" s="114"/>
+      <c r="J261" s="99"/>
+    </row>
+    <row r="262" spans="9:10">
+      <c r="I262" s="114"/>
+      <c r="J262" s="99"/>
+    </row>
+    <row r="263" spans="9:10">
+      <c r="I263" s="114"/>
+      <c r="J263" s="99"/>
+    </row>
+    <row r="264" spans="9:10">
+      <c r="I264" s="114"/>
+      <c r="J264" s="99"/>
+    </row>
+    <row r="265" spans="9:10">
+      <c r="I265" s="114"/>
+      <c r="J265" s="99"/>
+    </row>
+    <row r="266" spans="9:10">
+      <c r="I266" s="114"/>
+      <c r="J266" s="99"/>
+    </row>
+    <row r="267" spans="9:10">
+      <c r="I267" s="114"/>
+      <c r="J267" s="99"/>
+    </row>
+    <row r="268" spans="9:10">
+      <c r="I268" s="114"/>
+      <c r="J268" s="99"/>
+    </row>
+    <row r="269" spans="9:10">
+      <c r="I269" s="114"/>
+      <c r="J269" s="99"/>
+    </row>
+    <row r="270" spans="9:10">
+      <c r="I270" s="114"/>
+      <c r="J270" s="99"/>
+    </row>
+    <row r="271" spans="9:10">
+      <c r="I271" s="114"/>
+      <c r="J271" s="99"/>
+    </row>
+    <row r="272" spans="9:10">
+      <c r="I272" s="114"/>
+      <c r="J272" s="99"/>
+    </row>
+    <row r="273" spans="9:10">
+      <c r="I273" s="114"/>
+      <c r="J273" s="99"/>
+    </row>
+    <row r="274" spans="9:10">
+      <c r="I274" s="114"/>
+      <c r="J274" s="99"/>
+    </row>
+    <row r="275" spans="9:10">
+      <c r="I275" s="114"/>
+      <c r="J275" s="99"/>
+    </row>
+    <row r="276" spans="9:10">
+      <c r="I276" s="114"/>
+      <c r="J276" s="99"/>
+    </row>
+    <row r="277" spans="9:10">
+      <c r="I277" s="114"/>
+      <c r="J277" s="99"/>
+    </row>
+    <row r="278" spans="9:10">
+      <c r="I278" s="114"/>
+      <c r="J278" s="99"/>
+    </row>
+    <row r="279" spans="9:10">
+      <c r="I279" s="114"/>
+      <c r="J279" s="99"/>
+    </row>
+    <row r="280" spans="9:10">
+      <c r="I280" s="114"/>
+      <c r="J280" s="99"/>
+    </row>
+    <row r="281" spans="9:10">
+      <c r="I281" s="114"/>
+      <c r="J281" s="99"/>
+    </row>
+    <row r="282" spans="9:10">
+      <c r="I282" s="114"/>
+      <c r="J282" s="99"/>
+    </row>
+    <row r="283" spans="9:10">
+      <c r="I283" s="114"/>
+      <c r="J283" s="99"/>
+    </row>
+    <row r="284" spans="9:10">
+      <c r="I284" s="114"/>
+      <c r="J284" s="99"/>
+    </row>
+    <row r="285" spans="9:10">
+      <c r="I285" s="114"/>
+      <c r="J285" s="99"/>
+    </row>
+    <row r="286" spans="9:10">
+      <c r="I286" s="114"/>
+      <c r="J286" s="99"/>
+    </row>
+    <row r="287" spans="9:10">
+      <c r="I287" s="114"/>
+      <c r="J287" s="99"/>
+    </row>
+    <row r="288" spans="9:10">
+      <c r="I288" s="114"/>
+      <c r="J288" s="99"/>
+    </row>
+    <row r="289" spans="9:10">
+      <c r="I289" s="114"/>
+      <c r="J289" s="99"/>
+    </row>
+    <row r="290" spans="9:10">
+      <c r="I290" s="114"/>
+      <c r="J290" s="99"/>
+    </row>
+    <row r="291" spans="9:10">
+      <c r="I291" s="114"/>
+      <c r="J291" s="99"/>
+    </row>
+    <row r="292" spans="9:10">
+      <c r="I292" s="114"/>
+      <c r="J292" s="99"/>
+    </row>
+    <row r="293" spans="9:10">
+      <c r="I293" s="114"/>
+      <c r="J293" s="99"/>
+    </row>
+    <row r="294" spans="9:10">
+      <c r="I294" s="114"/>
+      <c r="J294" s="99"/>
+    </row>
+    <row r="295" spans="9:10">
+      <c r="I295" s="114"/>
+      <c r="J295" s="99"/>
+    </row>
+    <row r="296" spans="9:10">
+      <c r="I296" s="114"/>
+      <c r="J296" s="99"/>
+    </row>
+    <row r="297" spans="9:10">
+      <c r="I297" s="114"/>
+      <c r="J297" s="99"/>
+    </row>
+    <row r="298" spans="9:10">
+      <c r="I298" s="114"/>
+      <c r="J298" s="99"/>
+    </row>
+    <row r="299" spans="9:10">
+      <c r="I299" s="114"/>
+      <c r="J299" s="99"/>
+    </row>
+    <row r="300" spans="9:10">
+      <c r="I300" s="114"/>
+      <c r="J300" s="99"/>
+    </row>
+    <row r="301" spans="9:10">
+      <c r="I301" s="114"/>
+      <c r="J301" s="99"/>
+    </row>
+    <row r="302" spans="9:10">
+      <c r="I302" s="114"/>
+      <c r="J302" s="99"/>
+    </row>
+    <row r="303" spans="9:10">
+      <c r="I303" s="114"/>
+      <c r="J303" s="99"/>
+    </row>
+    <row r="304" spans="9:10">
+      <c r="I304" s="114"/>
+      <c r="J304" s="99"/>
+    </row>
+    <row r="305" spans="9:10">
+      <c r="I305" s="114"/>
+      <c r="J305" s="99"/>
+    </row>
+    <row r="306" spans="9:10">
+      <c r="I306" s="114"/>
+      <c r="J306" s="99"/>
+    </row>
+    <row r="307" spans="9:10">
+      <c r="I307" s="114"/>
+      <c r="J307" s="99"/>
+    </row>
+    <row r="308" spans="9:10">
+      <c r="I308" s="114"/>
+      <c r="J308" s="99"/>
+    </row>
+    <row r="309" spans="9:10">
+      <c r="I309" s="114"/>
+      <c r="J309" s="99"/>
+    </row>
+    <row r="310" spans="9:10">
+      <c r="I310" s="114"/>
+      <c r="J310" s="99"/>
+    </row>
+    <row r="311" spans="9:10">
+      <c r="I311" s="114"/>
+      <c r="J311" s="99"/>
+    </row>
+    <row r="312" spans="9:10">
+      <c r="I312" s="114"/>
+      <c r="J312" s="99"/>
+    </row>
+    <row r="313" spans="9:10">
+      <c r="I313" s="114"/>
+      <c r="J313" s="99"/>
+    </row>
+    <row r="314" spans="9:10">
+      <c r="I314" s="114"/>
+      <c r="J314" s="99"/>
+    </row>
+    <row r="315" spans="9:10">
+      <c r="I315" s="114"/>
+      <c r="J315" s="99"/>
+    </row>
+    <row r="316" spans="9:10">
+      <c r="I316" s="114"/>
+      <c r="J316" s="99"/>
+    </row>
+    <row r="317" spans="9:10">
+      <c r="I317" s="114"/>
+      <c r="J317" s="99"/>
+    </row>
+    <row r="318" spans="9:10">
+      <c r="I318" s="114"/>
+      <c r="J318" s="99"/>
+    </row>
+    <row r="319" spans="9:10">
+      <c r="I319" s="114"/>
+      <c r="J319" s="99"/>
+    </row>
+    <row r="320" spans="9:10">
+      <c r="I320" s="114"/>
+      <c r="J320" s="99"/>
+    </row>
+    <row r="321" spans="9:10">
+      <c r="I321" s="114"/>
+      <c r="J321" s="99"/>
+    </row>
+    <row r="322" spans="9:10">
+      <c r="I322" s="114"/>
+      <c r="J322" s="99"/>
+    </row>
+    <row r="323" spans="9:10">
+      <c r="I323" s="114"/>
+      <c r="J323" s="99"/>
+    </row>
+    <row r="324" spans="9:10">
+      <c r="I324" s="114"/>
+      <c r="J324" s="99"/>
+    </row>
+    <row r="325" spans="9:10">
+      <c r="I325" s="114"/>
+      <c r="J325" s="99"/>
+    </row>
+    <row r="326" spans="9:10">
+      <c r="I326" s="114"/>
+      <c r="J326" s="99"/>
+    </row>
+    <row r="327" spans="9:10">
+      <c r="I327" s="114"/>
+      <c r="J327" s="99"/>
+    </row>
+    <row r="328" spans="9:10">
+      <c r="I328" s="114"/>
+      <c r="J328" s="99"/>
+    </row>
+    <row r="329" spans="9:10">
+      <c r="I329" s="114"/>
+      <c r="J329" s="99"/>
+    </row>
+    <row r="330" spans="9:10">
+      <c r="I330" s="114"/>
+      <c r="J330" s="99"/>
+    </row>
+    <row r="331" spans="9:10">
+      <c r="I331" s="114"/>
+      <c r="J331" s="99"/>
+    </row>
+    <row r="332" spans="9:10">
+      <c r="I332" s="114"/>
+      <c r="J332" s="99"/>
+    </row>
+    <row r="333" spans="9:10">
+      <c r="I333" s="114"/>
+      <c r="J333" s="99"/>
+    </row>
+    <row r="334" spans="9:10">
+      <c r="I334" s="114"/>
+      <c r="J334" s="99"/>
+    </row>
+    <row r="335" spans="9:10">
+      <c r="I335" s="114"/>
+      <c r="J335" s="99"/>
+    </row>
+    <row r="336" spans="9:10">
+      <c r="I336" s="114"/>
+      <c r="J336" s="99"/>
+    </row>
+    <row r="337" spans="9:10">
+      <c r="I337" s="114"/>
+      <c r="J337" s="99"/>
+    </row>
+    <row r="338" spans="9:10">
+      <c r="I338" s="114"/>
+      <c r="J338" s="99"/>
+    </row>
+    <row r="339" spans="9:10">
+      <c r="I339" s="114"/>
+      <c r="J339" s="99"/>
+    </row>
+    <row r="340" spans="9:10">
+      <c r="I340" s="114"/>
+      <c r="J340" s="99"/>
+    </row>
+    <row r="341" spans="9:10">
+      <c r="I341" s="114"/>
+      <c r="J341" s="99"/>
+    </row>
+    <row r="342" spans="9:10">
+      <c r="I342" s="114"/>
+      <c r="J342" s="99"/>
+    </row>
+    <row r="343" spans="9:10">
+      <c r="I343" s="114"/>
+      <c r="J343" s="99"/>
+    </row>
+    <row r="344" spans="9:10">
+      <c r="I344" s="114"/>
+      <c r="J344" s="99"/>
+    </row>
+    <row r="345" spans="9:10">
+      <c r="I345" s="114"/>
+      <c r="J345" s="99"/>
+    </row>
+    <row r="346" spans="9:10">
+      <c r="I346" s="114"/>
+      <c r="J346" s="99"/>
+    </row>
+    <row r="347" spans="9:10">
+      <c r="I347" s="114"/>
+      <c r="J347" s="99"/>
+    </row>
+    <row r="348" spans="9:10">
+      <c r="I348" s="114"/>
+      <c r="J348" s="99"/>
+    </row>
+    <row r="349" spans="9:10">
+      <c r="I349" s="114"/>
+      <c r="J349" s="99"/>
+    </row>
+    <row r="350" spans="9:10">
+      <c r="I350" s="114"/>
+      <c r="J350" s="99"/>
+    </row>
+    <row r="351" spans="9:10">
+      <c r="I351" s="114"/>
+      <c r="J351" s="99"/>
+    </row>
+    <row r="352" spans="9:10">
+      <c r="I352" s="114"/>
+      <c r="J352" s="99"/>
+    </row>
+    <row r="353" spans="9:10">
+      <c r="I353" s="114"/>
+      <c r="J353" s="99"/>
+    </row>
+    <row r="354" spans="9:10">
+      <c r="I354" s="114"/>
+      <c r="J354" s="99"/>
+    </row>
+    <row r="355" spans="9:10">
+      <c r="I355" s="114"/>
+      <c r="J355" s="99"/>
+    </row>
+    <row r="356" spans="9:10">
+      <c r="I356" s="114"/>
+      <c r="J356" s="99"/>
+    </row>
+    <row r="357" spans="9:10">
+      <c r="I357" s="114"/>
+      <c r="J357" s="99"/>
+    </row>
+    <row r="358" spans="9:10">
+      <c r="I358" s="114"/>
+      <c r="J358" s="99"/>
+    </row>
+    <row r="359" spans="9:10">
+      <c r="I359" s="114"/>
+      <c r="J359" s="99"/>
+    </row>
+    <row r="360" spans="9:10">
+      <c r="I360" s="114"/>
+      <c r="J360" s="99"/>
+    </row>
+    <row r="361" spans="9:10">
+      <c r="I361" s="114"/>
+      <c r="J361" s="99"/>
+    </row>
+    <row r="362" spans="9:10">
+      <c r="I362" s="114"/>
+      <c r="J362" s="99"/>
+    </row>
+    <row r="363" spans="9:10">
+      <c r="I363" s="114"/>
+      <c r="J363" s="99"/>
+    </row>
+    <row r="364" spans="9:10">
+      <c r="I364" s="114"/>
+      <c r="J364" s="99"/>
+    </row>
+    <row r="365" spans="9:10">
+      <c r="I365" s="114"/>
+      <c r="J365" s="99"/>
+    </row>
+    <row r="366" spans="9:10">
+      <c r="I366" s="114"/>
+      <c r="J366" s="99"/>
+    </row>
+    <row r="367" spans="9:10">
+      <c r="I367" s="114"/>
+      <c r="J367" s="99"/>
+    </row>
+    <row r="368" spans="9:10">
+      <c r="I368" s="114"/>
+      <c r="J368" s="99"/>
+    </row>
+    <row r="369" spans="9:10">
+      <c r="I369" s="114"/>
+      <c r="J369" s="99"/>
+    </row>
+    <row r="370" spans="9:10">
+      <c r="I370" s="114"/>
+      <c r="J370" s="99"/>
+    </row>
+    <row r="371" spans="9:10">
+      <c r="I371" s="114"/>
+      <c r="J371" s="99"/>
+    </row>
+    <row r="372" spans="9:10">
+      <c r="I372" s="114"/>
+      <c r="J372" s="99"/>
+    </row>
+    <row r="373" spans="9:10">
+      <c r="I373" s="114"/>
+      <c r="J373" s="99"/>
+    </row>
+    <row r="374" spans="9:10">
+      <c r="I374" s="114"/>
+      <c r="J374" s="99"/>
+    </row>
+    <row r="375" spans="9:10">
+      <c r="I375" s="114"/>
+      <c r="J375" s="99"/>
+    </row>
+    <row r="376" spans="9:10">
+      <c r="I376" s="114"/>
+      <c r="J376" s="99"/>
+    </row>
+    <row r="377" spans="9:10">
+      <c r="I377" s="114"/>
+      <c r="J377" s="99"/>
+    </row>
+    <row r="378" spans="9:10">
+      <c r="I378" s="114"/>
+      <c r="J378" s="99"/>
+    </row>
+    <row r="379" spans="9:10">
+      <c r="I379" s="114"/>
+      <c r="J379" s="99"/>
+    </row>
+    <row r="380" spans="9:10">
+      <c r="I380" s="114"/>
+      <c r="J380" s="99"/>
+    </row>
+    <row r="381" spans="9:10">
+      <c r="I381" s="114"/>
+      <c r="J381" s="99"/>
+    </row>
+    <row r="382" spans="9:10">
+      <c r="I382" s="114"/>
+      <c r="J382" s="99"/>
+    </row>
+    <row r="383" spans="9:10">
+      <c r="I383" s="114"/>
+      <c r="J383" s="99"/>
+    </row>
+    <row r="384" spans="9:10">
+      <c r="I384" s="114"/>
+      <c r="J384" s="99"/>
+    </row>
+    <row r="385" spans="9:10">
+      <c r="I385" s="114"/>
+      <c r="J385" s="99"/>
+    </row>
+    <row r="386" spans="9:10">
+      <c r="I386" s="114"/>
+      <c r="J386" s="99"/>
+    </row>
+    <row r="387" spans="9:10">
+      <c r="I387" s="114"/>
+      <c r="J387" s="99"/>
+    </row>
+    <row r="388" spans="9:10">
+      <c r="I388" s="114"/>
+      <c r="J388" s="99"/>
+    </row>
+    <row r="389" spans="9:10">
+      <c r="I389" s="114"/>
+      <c r="J389" s="99"/>
+    </row>
+    <row r="390" spans="9:10">
+      <c r="I390" s="114"/>
+      <c r="J390" s="99"/>
+    </row>
+    <row r="391" spans="9:10">
+      <c r="I391" s="114"/>
+      <c r="J391" s="99"/>
+    </row>
+    <row r="392" spans="9:10">
+      <c r="I392" s="114"/>
+      <c r="J392" s="99"/>
+    </row>
+    <row r="393" spans="9:10">
+      <c r="I393" s="114"/>
+      <c r="J393" s="99"/>
+    </row>
+    <row r="394" spans="9:10">
+      <c r="I394" s="114"/>
+      <c r="J394" s="99"/>
+    </row>
+    <row r="395" spans="9:10">
+      <c r="I395" s="114"/>
+      <c r="J395" s="99"/>
+    </row>
+    <row r="396" spans="9:10">
+      <c r="I396" s="114"/>
+      <c r="J396" s="99"/>
+    </row>
+    <row r="397" spans="9:10">
+      <c r="I397" s="114"/>
+      <c r="J397" s="99"/>
+    </row>
+    <row r="398" spans="9:10">
+      <c r="I398" s="114"/>
+      <c r="J398" s="99"/>
+    </row>
+    <row r="399" spans="9:10">
+      <c r="I399" s="114"/>
+      <c r="J399" s="99"/>
+    </row>
+    <row r="400" spans="9:10">
+      <c r="I400" s="114"/>
+      <c r="J400" s="99"/>
+    </row>
+    <row r="401" spans="9:10">
+      <c r="I401" s="114"/>
+      <c r="J401" s="99"/>
+    </row>
+    <row r="402" spans="9:10">
+      <c r="I402" s="114"/>
+      <c r="J402" s="99"/>
+    </row>
+    <row r="403" spans="9:10">
+      <c r="I403" s="114"/>
+      <c r="J403" s="99"/>
+    </row>
+    <row r="404" spans="9:10">
+      <c r="I404" s="114"/>
+      <c r="J404" s="99"/>
+    </row>
+    <row r="405" spans="9:10">
+      <c r="I405" s="114"/>
+      <c r="J405" s="99"/>
+    </row>
+    <row r="406" spans="9:10">
+      <c r="I406" s="114"/>
+      <c r="J406" s="99"/>
+    </row>
+    <row r="407" spans="9:10">
+      <c r="I407" s="114"/>
+      <c r="J407" s="99"/>
+    </row>
+    <row r="408" spans="9:10">
+      <c r="I408" s="114"/>
+      <c r="J408" s="99"/>
+    </row>
+    <row r="409" spans="9:10">
+      <c r="I409" s="114"/>
+      <c r="J409" s="99"/>
+    </row>
+    <row r="410" spans="9:10">
+      <c r="I410" s="114"/>
+      <c r="J410" s="99"/>
+    </row>
+    <row r="411" spans="9:10">
+      <c r="I411" s="114"/>
+      <c r="J411" s="99"/>
+    </row>
+    <row r="412" spans="9:10">
+      <c r="I412" s="114"/>
+      <c r="J412" s="99"/>
+    </row>
+    <row r="413" spans="9:10">
+      <c r="I413" s="114"/>
+      <c r="J413" s="99"/>
+    </row>
+    <row r="414" spans="9:10">
+      <c r="I414" s="114"/>
+      <c r="J414" s="99"/>
+    </row>
+    <row r="415" spans="9:10">
+      <c r="I415" s="114"/>
+      <c r="J415" s="99"/>
+    </row>
+    <row r="416" spans="9:10">
+      <c r="I416" s="114"/>
+      <c r="J416" s="99"/>
+    </row>
+    <row r="417" spans="9:10">
+      <c r="I417" s="114"/>
+      <c r="J417" s="99"/>
+    </row>
+    <row r="418" spans="9:10">
+      <c r="I418" s="114"/>
+      <c r="J418" s="99"/>
+    </row>
+    <row r="419" spans="9:10">
+      <c r="I419" s="114"/>
+      <c r="J419" s="99"/>
+    </row>
+    <row r="420" spans="9:10">
+      <c r="I420" s="114"/>
+      <c r="J420" s="99"/>
+    </row>
+    <row r="421" spans="9:10">
+      <c r="I421" s="114"/>
+      <c r="J421" s="99"/>
+    </row>
+    <row r="422" spans="9:10">
+      <c r="I422" s="114"/>
+      <c r="J422" s="99"/>
+    </row>
+    <row r="423" spans="9:10">
+      <c r="I423" s="114"/>
+      <c r="J423" s="99"/>
+    </row>
+    <row r="424" spans="9:10">
+      <c r="I424" s="114"/>
+      <c r="J424" s="99"/>
+    </row>
+    <row r="425" spans="9:10">
+      <c r="I425" s="114"/>
+      <c r="J425" s="99"/>
+    </row>
+    <row r="426" spans="9:10">
+      <c r="I426" s="114"/>
+      <c r="J426" s="99"/>
+    </row>
+    <row r="427" spans="9:10">
+      <c r="I427" s="114"/>
+      <c r="J427" s="99"/>
+    </row>
+    <row r="428" spans="9:10">
+      <c r="I428" s="114"/>
+      <c r="J428" s="99"/>
+    </row>
+    <row r="429" spans="9:10">
+      <c r="I429" s="114"/>
+      <c r="J429" s="99"/>
+    </row>
+    <row r="430" spans="9:10">
+      <c r="I430" s="114"/>
+      <c r="J430" s="99"/>
+    </row>
+    <row r="431" spans="9:10">
+      <c r="I431" s="114"/>
+      <c r="J431" s="99"/>
+    </row>
+    <row r="432" spans="9:10">
+      <c r="I432" s="114"/>
+      <c r="J432" s="99"/>
+    </row>
+    <row r="433" spans="9:10">
+      <c r="I433" s="114"/>
+      <c r="J433" s="99"/>
+    </row>
+    <row r="434" spans="9:10">
+      <c r="I434" s="114"/>
+      <c r="J434" s="99"/>
+    </row>
+    <row r="435" spans="9:10">
+      <c r="I435" s="114"/>
+      <c r="J435" s="99"/>
+    </row>
+    <row r="436" spans="9:10">
+      <c r="I436" s="114"/>
+      <c r="J436" s="99"/>
+    </row>
+    <row r="437" spans="9:10">
+      <c r="I437" s="114"/>
+      <c r="J437" s="99"/>
+    </row>
+    <row r="438" spans="9:10">
+      <c r="I438" s="114"/>
+      <c r="J438" s="99"/>
+    </row>
+    <row r="439" spans="9:10">
+      <c r="I439" s="114"/>
+      <c r="J439" s="99"/>
+    </row>
+    <row r="440" spans="9:10">
+      <c r="I440" s="114"/>
+      <c r="J440" s="99"/>
+    </row>
+    <row r="441" spans="9:10">
+      <c r="I441" s="114"/>
+      <c r="J441" s="99"/>
+    </row>
+    <row r="442" spans="9:10">
+      <c r="I442" s="114"/>
+      <c r="J442" s="99"/>
+    </row>
+    <row r="443" spans="9:10">
+      <c r="I443" s="114"/>
+      <c r="J443" s="99"/>
+    </row>
+    <row r="444" spans="9:10">
+      <c r="I444" s="114"/>
+      <c r="J444" s="99"/>
+    </row>
+    <row r="445" spans="9:10">
+      <c r="I445" s="114"/>
+      <c r="J445" s="99"/>
+    </row>
+    <row r="446" spans="9:10">
+      <c r="I446" s="114"/>
+      <c r="J446" s="99"/>
+    </row>
+    <row r="447" spans="9:10">
+      <c r="I447" s="114"/>
+      <c r="J447" s="99"/>
+    </row>
+    <row r="448" spans="9:10">
+      <c r="I448" s="114"/>
+      <c r="J448" s="99"/>
+    </row>
+    <row r="449" spans="9:10">
+      <c r="I449" s="114"/>
+      <c r="J449" s="99"/>
+    </row>
+    <row r="450" spans="9:10">
+      <c r="I450" s="114"/>
+      <c r="J450" s="99"/>
+    </row>
+    <row r="451" spans="9:10">
+      <c r="I451" s="114"/>
+      <c r="J451" s="99"/>
+    </row>
+    <row r="452" spans="9:10">
+      <c r="I452" s="114"/>
+      <c r="J452" s="99"/>
+    </row>
+    <row r="453" spans="9:10">
+      <c r="I453" s="114"/>
+      <c r="J453" s="99"/>
+    </row>
+    <row r="454" spans="9:10">
+      <c r="I454" s="114"/>
+      <c r="J454" s="99"/>
+    </row>
+    <row r="455" spans="9:10">
+      <c r="I455" s="114"/>
+      <c r="J455" s="99"/>
+    </row>
+    <row r="456" spans="9:10">
+      <c r="I456" s="114"/>
+      <c r="J456" s="99"/>
+    </row>
+    <row r="457" spans="9:10">
+      <c r="I457" s="114"/>
+      <c r="J457" s="99"/>
+    </row>
+    <row r="458" spans="9:10">
+      <c r="I458" s="114"/>
+      <c r="J458" s="99"/>
+    </row>
+    <row r="459" spans="9:10">
+      <c r="I459" s="114"/>
+      <c r="J459" s="99"/>
+    </row>
+    <row r="460" spans="9:10">
+      <c r="I460" s="114"/>
+      <c r="J460" s="99"/>
+    </row>
+    <row r="461" spans="9:10">
+      <c r="I461" s="114"/>
+      <c r="J461" s="99"/>
+    </row>
+    <row r="462" spans="9:10">
+      <c r="I462" s="114"/>
+      <c r="J462" s="99"/>
+    </row>
+    <row r="463" spans="9:10">
+      <c r="I463" s="114"/>
+      <c r="J463" s="99"/>
+    </row>
+    <row r="464" spans="9:10">
+      <c r="I464" s="114"/>
+      <c r="J464" s="99"/>
+    </row>
+    <row r="465" spans="9:10">
+      <c r="I465" s="114"/>
+      <c r="J465" s="99"/>
+    </row>
+    <row r="466" spans="9:10">
+      <c r="I466" s="114"/>
+      <c r="J466" s="99"/>
+    </row>
+    <row r="467" spans="9:10">
+      <c r="I467" s="114"/>
+      <c r="J467" s="99"/>
+    </row>
+    <row r="468" spans="9:10">
+      <c r="I468" s="114"/>
+      <c r="J468" s="99"/>
+    </row>
+    <row r="469" spans="9:10">
+      <c r="I469" s="114"/>
+      <c r="J469" s="99"/>
+    </row>
+    <row r="470" spans="9:10">
+      <c r="I470" s="114"/>
+      <c r="J470" s="99"/>
+    </row>
+    <row r="471" spans="9:10">
+      <c r="I471" s="114"/>
+      <c r="J471" s="99"/>
+    </row>
+    <row r="472" spans="9:10">
+      <c r="I472" s="114"/>
+      <c r="J472" s="99"/>
+    </row>
+    <row r="473" spans="9:10">
+      <c r="I473" s="114"/>
+      <c r="J473" s="99"/>
+    </row>
+    <row r="474" spans="9:10">
+      <c r="I474" s="114"/>
+      <c r="J474" s="99"/>
+    </row>
+    <row r="475" spans="9:10">
+      <c r="I475" s="114"/>
+      <c r="J475" s="99"/>
+    </row>
+    <row r="476" spans="9:10">
+      <c r="I476" s="114"/>
+      <c r="J476" s="99"/>
+    </row>
+    <row r="477" spans="9:10">
+      <c r="I477" s="114"/>
+      <c r="J477" s="99"/>
+    </row>
+    <row r="478" spans="9:10">
+      <c r="I478" s="114"/>
+      <c r="J478" s="99"/>
+    </row>
+    <row r="479" spans="9:10">
+      <c r="I479" s="114"/>
+      <c r="J479" s="99"/>
+    </row>
+    <row r="480" spans="9:10">
+      <c r="I480" s="114"/>
+      <c r="J480" s="99"/>
+    </row>
+    <row r="481" spans="9:10">
+      <c r="I481" s="114"/>
+      <c r="J481" s="99"/>
+    </row>
+    <row r="482" spans="9:10">
+      <c r="I482" s="114"/>
+      <c r="J482" s="99"/>
+    </row>
+    <row r="483" spans="9:10">
+      <c r="I483" s="114"/>
+      <c r="J483" s="99"/>
+    </row>
+    <row r="484" spans="9:10">
+      <c r="I484" s="114"/>
+      <c r="J484" s="99"/>
+    </row>
+    <row r="485" spans="9:10">
+      <c r="I485" s="114"/>
+      <c r="J485" s="99"/>
+    </row>
+    <row r="486" spans="9:10">
+      <c r="I486" s="114"/>
+      <c r="J486" s="99"/>
+    </row>
+    <row r="487" spans="9:10">
+      <c r="I487" s="114"/>
+      <c r="J487" s="99"/>
+    </row>
+    <row r="488" spans="9:10">
+      <c r="I488" s="114"/>
+      <c r="J488" s="99"/>
+    </row>
+    <row r="489" spans="9:10">
+      <c r="I489" s="114"/>
+      <c r="J489" s="99"/>
+    </row>
+    <row r="490" spans="9:10">
+      <c r="I490" s="114"/>
+      <c r="J490" s="99"/>
+    </row>
+    <row r="491" spans="9:10">
+      <c r="I491" s="114"/>
+      <c r="J491" s="99"/>
+    </row>
+    <row r="492" spans="9:10">
+      <c r="I492" s="114"/>
+      <c r="J492" s="99"/>
+    </row>
+    <row r="493" spans="9:10">
+      <c r="I493" s="114"/>
+      <c r="J493" s="99"/>
+    </row>
+    <row r="494" spans="9:10">
+      <c r="I494" s="114"/>
+      <c r="J494" s="99"/>
+    </row>
+    <row r="495" spans="9:10">
+      <c r="I495" s="114"/>
+      <c r="J495" s="99"/>
+    </row>
+    <row r="496" spans="9:10">
+      <c r="I496" s="114"/>
+      <c r="J496" s="99"/>
+    </row>
+    <row r="497" spans="9:10">
+      <c r="I497" s="114"/>
+      <c r="J497" s="99"/>
+    </row>
+    <row r="498" spans="9:10">
+      <c r="I498" s="114"/>
+      <c r="J498" s="99"/>
+    </row>
+    <row r="499" spans="9:10">
+      <c r="I499" s="114"/>
+      <c r="J499" s="99"/>
+    </row>
+    <row r="500" spans="9:10">
+      <c r="I500" s="114"/>
+      <c r="J500" s="99"/>
+    </row>
+    <row r="501" spans="9:10">
+      <c r="I501" s="114"/>
+      <c r="J501" s="99"/>
+    </row>
+    <row r="502" spans="9:10">
+      <c r="I502" s="114"/>
+      <c r="J502" s="99"/>
+    </row>
+    <row r="503" spans="9:10">
+      <c r="I503" s="114"/>
+      <c r="J503" s="99"/>
+    </row>
+    <row r="504" spans="9:10">
+      <c r="I504" s="114"/>
+      <c r="J504" s="99"/>
+    </row>
+    <row r="505" spans="9:10">
+      <c r="I505" s="114"/>
+      <c r="J505" s="99"/>
+    </row>
+    <row r="506" spans="9:10">
+      <c r="I506" s="114"/>
+      <c r="J506" s="99"/>
+    </row>
+    <row r="507" spans="9:10">
+      <c r="I507" s="114"/>
+      <c r="J507" s="99"/>
+    </row>
+    <row r="508" spans="9:10">
+      <c r="I508" s="114"/>
+      <c r="J508" s="99"/>
+    </row>
+    <row r="509" spans="9:10">
+      <c r="I509" s="114"/>
+      <c r="J509" s="99"/>
+    </row>
+    <row r="510" spans="9:10">
+      <c r="I510" s="114"/>
+      <c r="J510" s="99"/>
+    </row>
+    <row r="511" spans="9:10">
+      <c r="I511" s="114"/>
+      <c r="J511" s="99"/>
+    </row>
+    <row r="512" spans="9:10">
+      <c r="I512" s="114"/>
+      <c r="J512" s="99"/>
+    </row>
+    <row r="513" spans="9:10">
+      <c r="I513" s="114"/>
+      <c r="J513" s="99"/>
+    </row>
+    <row r="514" spans="9:10">
+      <c r="I514" s="114"/>
+      <c r="J514" s="99"/>
+    </row>
+    <row r="515" spans="9:10">
+      <c r="I515" s="114"/>
+      <c r="J515" s="99"/>
+    </row>
+    <row r="516" spans="9:10">
+      <c r="I516" s="114"/>
+      <c r="J516" s="99"/>
+    </row>
+    <row r="517" spans="9:10">
+      <c r="I517" s="114"/>
+      <c r="J517" s="99"/>
+    </row>
+    <row r="518" spans="9:10">
+      <c r="I518" s="114"/>
+      <c r="J518" s="99"/>
+    </row>
+    <row r="519" spans="9:10">
+      <c r="I519" s="114"/>
+      <c r="J519" s="99"/>
+    </row>
+    <row r="520" spans="9:10">
+      <c r="I520" s="114"/>
+      <c r="J520" s="99"/>
+    </row>
+    <row r="521" spans="9:10">
+      <c r="I521" s="114"/>
+      <c r="J521" s="99"/>
+    </row>
+    <row r="522" spans="9:10">
+      <c r="I522" s="114"/>
+      <c r="J522" s="99"/>
+    </row>
+    <row r="523" spans="9:10">
+      <c r="I523" s="114"/>
+      <c r="J523" s="99"/>
+    </row>
+    <row r="524" spans="9:10">
+      <c r="I524" s="114"/>
+      <c r="J524" s="99"/>
+    </row>
+    <row r="525" spans="9:10">
+      <c r="I525" s="114"/>
+      <c r="J525" s="99"/>
+    </row>
+    <row r="526" spans="9:10">
+      <c r="I526" s="114"/>
+      <c r="J526" s="99"/>
+    </row>
+    <row r="527" spans="9:10">
+      <c r="I527" s="114"/>
+      <c r="J527" s="99"/>
+    </row>
+    <row r="528" spans="9:10">
+      <c r="I528" s="114"/>
+      <c r="J528" s="99"/>
+    </row>
+    <row r="529" spans="9:10">
+      <c r="I529" s="114"/>
+      <c r="J529" s="99"/>
+    </row>
+    <row r="530" spans="9:10">
+      <c r="I530" s="114"/>
+      <c r="J530" s="99"/>
+    </row>
+    <row r="531" spans="9:10">
+      <c r="I531" s="114"/>
+      <c r="J531" s="99"/>
+    </row>
+    <row r="532" spans="9:10">
+      <c r="I532" s="114"/>
+      <c r="J532" s="99"/>
+    </row>
+    <row r="533" spans="9:10">
+      <c r="I533" s="114"/>
+      <c r="J533" s="99"/>
+    </row>
+    <row r="534" spans="9:10">
+      <c r="I534" s="114"/>
+      <c r="J534" s="99"/>
+    </row>
+    <row r="535" spans="9:10">
+      <c r="I535" s="114"/>
+      <c r="J535" s="99"/>
+    </row>
+    <row r="536" spans="9:10">
+      <c r="I536" s="114"/>
+      <c r="J536" s="99"/>
+    </row>
+    <row r="537" spans="9:10">
+      <c r="I537" s="114"/>
+      <c r="J537" s="99"/>
+    </row>
+    <row r="538" spans="9:10">
+      <c r="I538" s="114"/>
+      <c r="J538" s="99"/>
+    </row>
+    <row r="539" spans="9:10">
+      <c r="I539" s="114"/>
+      <c r="J539" s="99"/>
+    </row>
+    <row r="540" spans="9:10">
+      <c r="I540" s="114"/>
+      <c r="J540" s="99"/>
+    </row>
+    <row r="541" spans="9:10">
+      <c r="I541" s="114"/>
+      <c r="J541" s="99"/>
+    </row>
+    <row r="542" spans="9:10">
+      <c r="I542" s="114"/>
+      <c r="J542" s="99"/>
+    </row>
+    <row r="543" spans="9:10">
+      <c r="I543" s="114"/>
+      <c r="J543" s="99"/>
+    </row>
+    <row r="544" spans="9:10">
+      <c r="I544" s="114"/>
+      <c r="J544" s="99"/>
+    </row>
+    <row r="545" spans="9:10">
+      <c r="I545" s="114"/>
+      <c r="J545" s="99"/>
+    </row>
+    <row r="546" spans="9:10">
+      <c r="I546" s="114"/>
+      <c r="J546" s="99"/>
+    </row>
+    <row r="547" spans="9:10">
+      <c r="I547" s="114"/>
+      <c r="J547" s="99"/>
+    </row>
+    <row r="548" spans="9:10">
+      <c r="I548" s="114"/>
+      <c r="J548" s="99"/>
+    </row>
+    <row r="549" spans="9:10">
+      <c r="I549" s="114"/>
+      <c r="J549" s="99"/>
+    </row>
+    <row r="550" spans="9:10">
+      <c r="I550" s="114"/>
+      <c r="J550" s="99"/>
+    </row>
+    <row r="551" spans="9:10">
+      <c r="I551" s="114"/>
+      <c r="J551" s="99"/>
+    </row>
+    <row r="552" spans="9:10">
+      <c r="I552" s="114"/>
+      <c r="J552" s="99"/>
+    </row>
+    <row r="553" spans="9:10">
+      <c r="I553" s="114"/>
+      <c r="J553" s="99"/>
+    </row>
+    <row r="554" spans="9:10">
+      <c r="I554" s="114"/>
+      <c r="J554" s="99"/>
+    </row>
+    <row r="555" spans="9:10">
+      <c r="I555" s="114"/>
+      <c r="J555" s="99"/>
+    </row>
+    <row r="556" spans="9:10">
+      <c r="I556" s="114"/>
+      <c r="J556" s="99"/>
+    </row>
+    <row r="557" spans="9:10">
+      <c r="I557" s="114"/>
+      <c r="J557" s="99"/>
+    </row>
+    <row r="558" spans="9:10">
+      <c r="I558" s="114"/>
+      <c r="J558" s="99"/>
+    </row>
+    <row r="559" spans="9:10">
+      <c r="I559" s="114"/>
+      <c r="J559" s="99"/>
+    </row>
+    <row r="560" spans="9:10">
+      <c r="I560" s="114"/>
+      <c r="J560" s="99"/>
+    </row>
+    <row r="561" spans="9:10">
+      <c r="I561" s="114"/>
+      <c r="J561" s="99"/>
+    </row>
+    <row r="562" spans="9:10">
+      <c r="I562" s="114"/>
+      <c r="J562" s="99"/>
+    </row>
+    <row r="563" spans="9:10">
+      <c r="I563" s="114"/>
+      <c r="J563" s="99"/>
+    </row>
+    <row r="564" spans="9:10">
+      <c r="I564" s="114"/>
+      <c r="J564" s="99"/>
+    </row>
+    <row r="565" spans="9:10">
+      <c r="I565" s="114"/>
+      <c r="J565" s="99"/>
+    </row>
+    <row r="566" spans="9:10">
+      <c r="I566" s="114"/>
+      <c r="J566" s="99"/>
+    </row>
+    <row r="567" spans="9:10">
+      <c r="I567" s="114"/>
+      <c r="J567" s="99"/>
+    </row>
+    <row r="568" spans="9:10">
+      <c r="I568" s="114"/>
+      <c r="J568" s="99"/>
+    </row>
+    <row r="569" spans="9:10">
+      <c r="I569" s="114"/>
+      <c r="J569" s="99"/>
+    </row>
+    <row r="570" spans="9:10">
+      <c r="I570" s="114"/>
+      <c r="J570" s="99"/>
+    </row>
+    <row r="571" spans="9:10">
+      <c r="I571" s="114"/>
+      <c r="J571" s="99"/>
+    </row>
+    <row r="572" spans="9:10">
+      <c r="I572" s="114"/>
+      <c r="J572" s="99"/>
+    </row>
+    <row r="573" spans="9:10">
+      <c r="I573" s="114"/>
+      <c r="J573" s="99"/>
+    </row>
+    <row r="574" spans="9:10">
+      <c r="I574" s="114"/>
+      <c r="J574" s="99"/>
+    </row>
+    <row r="575" spans="9:10">
+      <c r="I575" s="114"/>
+      <c r="J575" s="99"/>
+    </row>
+    <row r="576" spans="9:10">
+      <c r="I576" s="114"/>
+      <c r="J576" s="99"/>
+    </row>
+    <row r="577" spans="9:10">
+      <c r="I577" s="114"/>
+      <c r="J577" s="99"/>
+    </row>
+    <row r="578" spans="9:10">
+      <c r="I578" s="114"/>
+      <c r="J578" s="99"/>
+    </row>
+    <row r="579" spans="9:10">
+      <c r="I579" s="114"/>
+      <c r="J579" s="99"/>
+    </row>
+    <row r="580" spans="9:10">
+      <c r="I580" s="114"/>
+      <c r="J580" s="99"/>
+    </row>
+    <row r="581" spans="9:10">
+      <c r="I581" s="114"/>
+      <c r="J581" s="99"/>
+    </row>
+    <row r="582" spans="9:10">
+      <c r="I582" s="114"/>
+      <c r="J582" s="99"/>
+    </row>
+    <row r="583" spans="9:10">
+      <c r="I583" s="114"/>
+      <c r="J583" s="99"/>
+    </row>
+    <row r="584" spans="9:10">
+      <c r="I584" s="114"/>
+      <c r="J584" s="99"/>
+    </row>
+    <row r="585" spans="9:10">
+      <c r="I585" s="114"/>
+      <c r="J585" s="99"/>
+    </row>
+    <row r="586" spans="9:10">
+      <c r="I586" s="114"/>
+      <c r="J586" s="99"/>
+    </row>
+    <row r="587" spans="9:10">
+      <c r="I587" s="114"/>
+      <c r="J587" s="99"/>
+    </row>
+    <row r="588" spans="9:10">
+      <c r="I588" s="114"/>
+      <c r="J588" s="99"/>
+    </row>
+    <row r="589" spans="9:10">
+      <c r="I589" s="114"/>
+      <c r="J589" s="99"/>
+    </row>
+    <row r="590" spans="9:10">
+      <c r="I590" s="114"/>
+      <c r="J590" s="99"/>
+    </row>
+    <row r="591" spans="9:10">
+      <c r="I591" s="114"/>
+      <c r="J591" s="99"/>
+    </row>
+    <row r="592" spans="9:10">
+      <c r="I592" s="114"/>
+      <c r="J592" s="99"/>
+    </row>
+    <row r="593" spans="9:10">
+      <c r="I593" s="114"/>
+      <c r="J593" s="99"/>
+    </row>
+    <row r="594" spans="9:10">
+      <c r="I594" s="114"/>
+      <c r="J594" s="99"/>
+    </row>
+    <row r="595" spans="9:10">
+      <c r="I595" s="114"/>
+      <c r="J595" s="99"/>
+    </row>
+    <row r="596" spans="9:10">
+      <c r="I596" s="114"/>
+      <c r="J596" s="99"/>
+    </row>
+    <row r="597" spans="9:10">
+      <c r="I597" s="114"/>
+      <c r="J597" s="99"/>
+    </row>
+    <row r="598" spans="9:10">
+      <c r="I598" s="114"/>
+      <c r="J598" s="99"/>
+    </row>
+    <row r="599" spans="9:10">
+      <c r="I599" s="114"/>
+      <c r="J599" s="99"/>
+    </row>
+    <row r="600" spans="9:10">
+      <c r="I600" s="114"/>
+      <c r="J600" s="99"/>
+    </row>
+    <row r="601" spans="9:10">
+      <c r="I601" s="114"/>
+      <c r="J601" s="99"/>
+    </row>
+    <row r="602" spans="9:10">
+      <c r="I602" s="114"/>
+      <c r="J602" s="99"/>
+    </row>
+    <row r="603" spans="9:10">
+      <c r="I603" s="114"/>
+      <c r="J603" s="99"/>
+    </row>
+    <row r="604" spans="9:10">
+      <c r="I604" s="114"/>
+      <c r="J604" s="99"/>
+    </row>
+    <row r="605" spans="9:10">
+      <c r="I605" s="114"/>
+      <c r="J605" s="99"/>
+    </row>
+    <row r="606" spans="9:10">
+      <c r="I606" s="114"/>
+      <c r="J606" s="99"/>
+    </row>
+    <row r="607" spans="9:10">
+      <c r="I607" s="114"/>
+      <c r="J607" s="99"/>
+    </row>
+    <row r="608" spans="9:10">
+      <c r="I608" s="114"/>
+      <c r="J608" s="99"/>
+    </row>
+    <row r="609" spans="9:10">
+      <c r="I609" s="114"/>
+      <c r="J609" s="99"/>
+    </row>
+    <row r="610" spans="9:10">
+      <c r="I610" s="114"/>
+      <c r="J610" s="99"/>
+    </row>
+    <row r="611" spans="9:10">
+      <c r="I611" s="114"/>
+      <c r="J611" s="99"/>
+    </row>
+    <row r="612" spans="9:10">
+      <c r="I612" s="114"/>
+      <c r="J612" s="99"/>
+    </row>
+    <row r="613" spans="9:10">
+      <c r="I613" s="114"/>
+      <c r="J613" s="99"/>
+    </row>
+    <row r="614" spans="9:10">
+      <c r="I614" s="114"/>
+      <c r="J614" s="99"/>
+    </row>
+    <row r="615" spans="9:10">
+      <c r="I615" s="114"/>
+      <c r="J615" s="99"/>
+    </row>
+    <row r="616" spans="9:10">
+      <c r="I616" s="114"/>
+      <c r="J616" s="99"/>
+    </row>
+    <row r="617" spans="9:10">
+      <c r="I617" s="114"/>
+      <c r="J617" s="99"/>
+    </row>
+    <row r="618" spans="9:10">
+      <c r="I618" s="114"/>
+      <c r="J618" s="99"/>
+    </row>
+    <row r="619" spans="9:10">
+      <c r="I619" s="114"/>
+      <c r="J619" s="99"/>
+    </row>
+    <row r="620" spans="9:10">
+      <c r="I620" s="114"/>
+      <c r="J620" s="99"/>
+    </row>
+    <row r="621" spans="9:10">
+      <c r="I621" s="114"/>
+      <c r="J621" s="99"/>
+    </row>
+    <row r="622" spans="9:10">
+      <c r="I622" s="114"/>
+      <c r="J622" s="99"/>
+    </row>
+    <row r="623" spans="9:10">
+      <c r="I623" s="114"/>
+      <c r="J623" s="99"/>
+    </row>
+    <row r="624" spans="9:10">
+      <c r="I624" s="114"/>
+      <c r="J624" s="99"/>
+    </row>
+    <row r="625" spans="9:10">
+      <c r="I625" s="114"/>
+      <c r="J625" s="99"/>
+    </row>
+    <row r="626" spans="9:10">
+      <c r="I626" s="114"/>
+      <c r="J626" s="99"/>
+    </row>
+    <row r="627" spans="9:10">
+      <c r="I627" s="114"/>
+      <c r="J627" s="99"/>
+    </row>
+    <row r="628" spans="9:10">
+      <c r="I628" s="114"/>
+      <c r="J628" s="99"/>
+    </row>
+    <row r="629" spans="9:10">
+      <c r="I629" s="114"/>
+      <c r="J629" s="99"/>
+    </row>
+    <row r="630" spans="9:10">
+      <c r="I630" s="114"/>
+      <c r="J630" s="99"/>
+    </row>
+    <row r="631" spans="9:10">
+      <c r="I631" s="114"/>
+      <c r="J631" s="99"/>
+    </row>
+    <row r="632" spans="9:10">
+      <c r="I632" s="114"/>
+      <c r="J632" s="99"/>
+    </row>
+    <row r="633" spans="9:10">
+      <c r="I633" s="114"/>
+      <c r="J633" s="99"/>
+    </row>
+    <row r="634" spans="9:10">
+      <c r="I634" s="114"/>
+      <c r="J634" s="99"/>
+    </row>
+    <row r="635" spans="9:10">
+      <c r="I635" s="114"/>
+      <c r="J635" s="99"/>
+    </row>
+    <row r="636" spans="9:10">
+      <c r="I636" s="114"/>
+      <c r="J636" s="99"/>
+    </row>
+    <row r="637" spans="9:10">
+      <c r="I637" s="114"/>
+      <c r="J637" s="99"/>
+    </row>
+    <row r="638" spans="9:10">
+      <c r="I638" s="114"/>
+      <c r="J638" s="99"/>
+    </row>
+    <row r="639" spans="9:10">
+      <c r="I639" s="114"/>
+      <c r="J639" s="99"/>
+    </row>
+    <row r="640" spans="9:10">
+      <c r="I640" s="114"/>
+      <c r="J640" s="99"/>
+    </row>
+    <row r="641" spans="9:10">
+      <c r="I641" s="114"/>
+      <c r="J641" s="99"/>
+    </row>
+    <row r="642" spans="9:10">
+      <c r="I642" s="114"/>
+      <c r="J642" s="99"/>
+    </row>
+    <row r="643" spans="9:10">
+      <c r="I643" s="114"/>
+      <c r="J643" s="99"/>
+    </row>
+    <row r="644" spans="9:10">
+      <c r="I644" s="114"/>
+      <c r="J644" s="99"/>
+    </row>
+    <row r="645" spans="9:10">
+      <c r="I645" s="114"/>
+      <c r="J645" s="99"/>
+    </row>
+    <row r="646" spans="9:10">
+      <c r="I646" s="114"/>
+      <c r="J646" s="99"/>
+    </row>
+    <row r="647" spans="9:10">
+      <c r="I647" s="114"/>
+      <c r="J647" s="99"/>
+    </row>
+    <row r="648" spans="9:10">
+      <c r="I648" s="114"/>
+      <c r="J648" s="99"/>
+    </row>
+    <row r="649" spans="9:10">
+      <c r="I649" s="114"/>
+      <c r="J649" s="99"/>
+    </row>
+    <row r="650" spans="9:10">
+      <c r="I650" s="114"/>
+      <c r="J650" s="99"/>
+    </row>
+    <row r="651" spans="9:10">
+      <c r="I651" s="114"/>
+      <c r="J651" s="99"/>
+    </row>
+    <row r="652" spans="9:10">
+      <c r="I652" s="114"/>
+      <c r="J652" s="99"/>
+    </row>
+    <row r="653" spans="9:10">
+      <c r="I653" s="114"/>
+      <c r="J653" s="99"/>
+    </row>
+    <row r="654" spans="9:10">
+      <c r="I654" s="114"/>
+      <c r="J654" s="99"/>
+    </row>
+    <row r="655" spans="9:10">
+      <c r="I655" s="114"/>
+      <c r="J655" s="99"/>
+    </row>
+    <row r="656" spans="9:10">
+      <c r="I656" s="114"/>
+      <c r="J656" s="99"/>
+    </row>
+    <row r="657" spans="9:10">
+      <c r="I657" s="114"/>
+      <c r="J657" s="99"/>
+    </row>
+    <row r="658" spans="9:10">
+      <c r="I658" s="114"/>
+      <c r="J658" s="99"/>
+    </row>
+    <row r="659" spans="9:10">
+      <c r="I659" s="114"/>
+      <c r="J659" s="99"/>
+    </row>
+    <row r="660" spans="9:10">
+      <c r="I660" s="114"/>
+      <c r="J660" s="99"/>
+    </row>
+    <row r="661" spans="9:10">
+      <c r="I661" s="114"/>
+      <c r="J661" s="99"/>
+    </row>
+    <row r="662" spans="9:10">
+      <c r="I662" s="114"/>
+      <c r="J662" s="99"/>
+    </row>
+    <row r="663" spans="9:10">
+      <c r="I663" s="114"/>
+      <c r="J663" s="99"/>
+    </row>
+    <row r="664" spans="9:10">
+      <c r="I664" s="114"/>
+      <c r="J664" s="99"/>
+    </row>
+    <row r="665" spans="9:10">
+      <c r="I665" s="114"/>
+      <c r="J665" s="99"/>
+    </row>
+    <row r="666" spans="9:10">
+      <c r="I666" s="114"/>
+      <c r="J666" s="99"/>
+    </row>
+    <row r="667" spans="9:10">
+      <c r="I667" s="114"/>
+      <c r="J667" s="99"/>
+    </row>
+    <row r="668" spans="9:10">
+      <c r="I668" s="114"/>
+      <c r="J668" s="99"/>
+    </row>
+    <row r="669" spans="9:10">
+      <c r="I669" s="114"/>
+      <c r="J669" s="99"/>
+    </row>
+    <row r="670" spans="9:10">
+      <c r="I670" s="114"/>
+      <c r="J670" s="99"/>
+    </row>
+    <row r="671" spans="9:10">
+      <c r="I671" s="114"/>
+      <c r="J671" s="99"/>
+    </row>
+    <row r="672" spans="9:10">
+      <c r="I672" s="114"/>
+      <c r="J672" s="99"/>
+    </row>
+    <row r="673" spans="9:10">
+      <c r="I673" s="114"/>
+      <c r="J673" s="99"/>
+    </row>
+    <row r="674" spans="9:10">
+      <c r="I674" s="114"/>
+      <c r="J674" s="99"/>
+    </row>
+    <row r="675" spans="9:10">
+      <c r="I675" s="114"/>
+      <c r="J675" s="99"/>
+    </row>
+    <row r="676" spans="9:10">
+      <c r="I676" s="114"/>
+      <c r="J676" s="99"/>
+    </row>
+    <row r="677" spans="9:10">
+      <c r="I677" s="114"/>
+      <c r="J677" s="99"/>
+    </row>
+    <row r="678" spans="9:10">
+      <c r="I678" s="114"/>
+      <c r="J678" s="99"/>
+    </row>
+    <row r="679" spans="9:10">
+      <c r="I679" s="114"/>
+      <c r="J679" s="99"/>
+    </row>
+    <row r="680" spans="9:10">
+      <c r="I680" s="114"/>
+      <c r="J680" s="99"/>
+    </row>
+    <row r="681" spans="9:10">
+      <c r="I681" s="114"/>
+      <c r="J681" s="99"/>
+    </row>
+    <row r="682" spans="9:10">
+      <c r="I682" s="114"/>
+      <c r="J682" s="99"/>
+    </row>
+    <row r="683" spans="9:10">
+      <c r="I683" s="114"/>
+      <c r="J683" s="99"/>
+    </row>
+    <row r="684" spans="9:10">
+      <c r="I684" s="114"/>
+      <c r="J684" s="99"/>
+    </row>
+    <row r="685" spans="9:10">
+      <c r="I685" s="114"/>
+      <c r="J685" s="99"/>
+    </row>
+    <row r="686" spans="9:10">
+      <c r="I686" s="114"/>
+      <c r="J686" s="99"/>
+    </row>
+    <row r="687" spans="9:10">
+      <c r="I687" s="114"/>
+      <c r="J687" s="99"/>
+    </row>
+    <row r="688" spans="9:10">
+      <c r="I688" s="114"/>
+      <c r="J688" s="99"/>
+    </row>
+    <row r="689" spans="9:10">
+      <c r="I689" s="114"/>
+      <c r="J689" s="99"/>
+    </row>
+    <row r="690" spans="9:10">
+      <c r="I690" s="114"/>
+      <c r="J690" s="99"/>
+    </row>
+    <row r="691" spans="9:10">
+      <c r="I691" s="114"/>
+      <c r="J691" s="99"/>
+    </row>
+    <row r="692" spans="9:10">
+      <c r="I692" s="114"/>
+      <c r="J692" s="99"/>
+    </row>
+    <row r="693" spans="9:10">
+      <c r="I693" s="114"/>
+      <c r="J693" s="99"/>
+    </row>
+    <row r="694" spans="9:10">
+      <c r="I694" s="114"/>
+      <c r="J694" s="99"/>
+    </row>
+    <row r="695" spans="9:10">
+      <c r="I695" s="114"/>
+      <c r="J695" s="99"/>
+    </row>
+    <row r="696" spans="9:10">
+      <c r="I696" s="114"/>
+      <c r="J696" s="99"/>
+    </row>
+    <row r="697" spans="9:10">
+      <c r="I697" s="114"/>
+      <c r="J697" s="99"/>
+    </row>
+    <row r="698" spans="9:10">
+      <c r="I698" s="114"/>
+      <c r="J698" s="99"/>
+    </row>
+    <row r="699" spans="9:10">
+      <c r="I699" s="114"/>
+      <c r="J699" s="99"/>
+    </row>
+    <row r="700" spans="9:10">
+      <c r="I700" s="114"/>
+      <c r="J700" s="99"/>
+    </row>
+    <row r="701" spans="9:10">
+      <c r="I701" s="114"/>
+      <c r="J701" s="99"/>
+    </row>
+    <row r="702" spans="9:10">
+      <c r="I702" s="114"/>
+      <c r="J702" s="99"/>
+    </row>
+    <row r="703" spans="9:10">
+      <c r="I703" s="114"/>
+      <c r="J703" s="99"/>
+    </row>
+    <row r="704" spans="9:10">
+      <c r="I704" s="114"/>
+      <c r="J704" s="99"/>
+    </row>
+    <row r="705" spans="9:10">
+      <c r="I705" s="114"/>
+      <c r="J705" s="99"/>
+    </row>
+    <row r="706" spans="9:10">
+      <c r="I706" s="114"/>
+      <c r="J706" s="99"/>
+    </row>
+    <row r="707" spans="9:10">
+      <c r="I707" s="114"/>
+      <c r="J707" s="99"/>
+    </row>
+    <row r="708" spans="9:10">
+      <c r="I708" s="114"/>
+      <c r="J708" s="99"/>
+    </row>
+    <row r="709" spans="9:10">
+      <c r="I709" s="114"/>
+      <c r="J709" s="99"/>
+    </row>
+    <row r="710" spans="9:10">
+      <c r="I710" s="114"/>
+      <c r="J710" s="99"/>
+    </row>
+    <row r="711" spans="9:10">
+      <c r="I711" s="114"/>
+      <c r="J711" s="99"/>
+    </row>
+    <row r="712" spans="9:10">
+      <c r="I712" s="114"/>
+      <c r="J712" s="99"/>
+    </row>
+    <row r="713" spans="9:10">
+      <c r="I713" s="114"/>
+      <c r="J713" s="99"/>
+    </row>
+    <row r="714" spans="9:10">
+      <c r="I714" s="114"/>
+      <c r="J714" s="99"/>
+    </row>
+    <row r="715" spans="9:10">
+      <c r="I715" s="114"/>
+      <c r="J715" s="99"/>
+    </row>
+    <row r="716" spans="9:10">
+      <c r="I716" s="114"/>
+      <c r="J716" s="99"/>
+    </row>
+    <row r="717" spans="9:10">
+      <c r="I717" s="114"/>
+      <c r="J717" s="99"/>
+    </row>
+    <row r="718" spans="9:10">
+      <c r="I718" s="114"/>
+      <c r="J718" s="99"/>
+    </row>
+    <row r="719" spans="9:10">
+      <c r="I719" s="114"/>
+      <c r="J719" s="99"/>
+    </row>
+    <row r="720" spans="9:10">
+      <c r="I720" s="114"/>
+      <c r="J720" s="99"/>
+    </row>
+    <row r="721" spans="9:10">
+      <c r="I721" s="114"/>
+      <c r="J721" s="99"/>
+    </row>
+    <row r="722" spans="9:10">
+      <c r="I722" s="114"/>
+      <c r="J722" s="99"/>
+    </row>
+    <row r="723" spans="9:10">
+      <c r="I723" s="114"/>
+      <c r="J723" s="99"/>
+    </row>
+    <row r="724" spans="9:10">
+      <c r="I724" s="114"/>
+      <c r="J724" s="99"/>
+    </row>
+    <row r="725" spans="9:10">
+      <c r="I725" s="114"/>
+      <c r="J725" s="99"/>
+    </row>
+    <row r="726" spans="9:10">
+      <c r="I726" s="114"/>
+      <c r="J726" s="99"/>
+    </row>
+    <row r="727" spans="9:10">
+      <c r="I727" s="114"/>
+      <c r="J727" s="99"/>
+    </row>
+    <row r="728" spans="9:10">
+      <c r="I728" s="114"/>
+      <c r="J728" s="99"/>
+    </row>
+    <row r="729" spans="9:10">
+      <c r="I729" s="114"/>
+      <c r="J729" s="99"/>
+    </row>
+    <row r="730" spans="9:10">
+      <c r="I730" s="114"/>
+      <c r="J730" s="99"/>
+    </row>
+    <row r="731" spans="9:10">
+      <c r="I731" s="114"/>
+      <c r="J731" s="99"/>
+    </row>
+    <row r="732" spans="9:10">
+      <c r="I732" s="114"/>
+      <c r="J732" s="99"/>
+    </row>
+    <row r="733" spans="9:10">
+      <c r="I733" s="114"/>
+      <c r="J733" s="99"/>
+    </row>
+    <row r="734" spans="9:10">
+      <c r="I734" s="114"/>
+      <c r="J734" s="99"/>
+    </row>
+    <row r="735" spans="9:10">
+      <c r="I735" s="114"/>
+      <c r="J735" s="99"/>
+    </row>
+    <row r="736" spans="9:10">
+      <c r="I736" s="114"/>
+      <c r="J736" s="99"/>
+    </row>
+    <row r="737" spans="9:10">
+      <c r="I737" s="114"/>
+      <c r="J737" s="99"/>
+    </row>
+    <row r="738" spans="9:10">
+      <c r="I738" s="114"/>
+      <c r="J738" s="99"/>
+    </row>
+    <row r="739" spans="9:10">
+      <c r="I739" s="114"/>
+      <c r="J739" s="99"/>
+    </row>
+    <row r="740" spans="9:10">
+      <c r="I740" s="114"/>
+      <c r="J740" s="99"/>
+    </row>
+    <row r="741" spans="9:10">
+      <c r="I741" s="114"/>
+      <c r="J741" s="99"/>
+    </row>
+    <row r="742" spans="9:10">
+      <c r="I742" s="114"/>
+      <c r="J742" s="99"/>
+    </row>
+    <row r="743" spans="9:10">
+      <c r="I743" s="114"/>
+      <c r="J743" s="99"/>
+    </row>
+    <row r="744" spans="9:10">
+      <c r="I744" s="114"/>
+      <c r="J744" s="99"/>
+    </row>
+    <row r="745" spans="9:10">
+      <c r="I745" s="114"/>
+      <c r="J745" s="99"/>
+    </row>
+    <row r="746" spans="9:10">
+      <c r="I746" s="114"/>
+      <c r="J746" s="99"/>
+    </row>
+    <row r="747" spans="9:10">
+      <c r="I747" s="114"/>
+      <c r="J747" s="99"/>
+    </row>
+    <row r="748" spans="9:10">
+      <c r="I748" s="114"/>
+      <c r="J748" s="99"/>
+    </row>
+    <row r="749" spans="9:10">
+      <c r="I749" s="114"/>
+      <c r="J749" s="99"/>
+    </row>
+    <row r="750" spans="9:10">
+      <c r="I750" s="114"/>
+      <c r="J750" s="99"/>
+    </row>
+    <row r="751" spans="9:10">
+      <c r="I751" s="114"/>
+      <c r="J751" s="99"/>
+    </row>
+    <row r="752" spans="9:10">
+      <c r="I752" s="114"/>
+      <c r="J752" s="99"/>
+    </row>
+    <row r="753" spans="9:10">
+      <c r="I753" s="114"/>
+      <c r="J753" s="99"/>
+    </row>
+    <row r="754" spans="9:10">
+      <c r="I754" s="114"/>
+      <c r="J754" s="99"/>
+    </row>
+    <row r="755" spans="9:10">
+      <c r="I755" s="114"/>
+      <c r="J755" s="99"/>
+    </row>
+    <row r="756" spans="9:10">
+      <c r="I756" s="114"/>
+      <c r="J756" s="99"/>
+    </row>
+    <row r="757" spans="9:10">
+      <c r="I757" s="114"/>
+      <c r="J757" s="99"/>
+    </row>
+    <row r="758" spans="9:10">
+      <c r="I758" s="114"/>
+      <c r="J758" s="99"/>
+    </row>
+    <row r="759" spans="9:10">
+      <c r="I759" s="114"/>
+      <c r="J759" s="99"/>
+    </row>
+    <row r="760" spans="9:10">
+      <c r="I760" s="114"/>
+      <c r="J760" s="99"/>
+    </row>
+    <row r="761" spans="9:10">
+      <c r="I761" s="114"/>
+      <c r="J761" s="99"/>
+    </row>
+    <row r="762" spans="9:10">
+      <c r="I762" s="114"/>
+      <c r="J762" s="99"/>
+    </row>
+    <row r="763" spans="9:10">
+      <c r="I763" s="114"/>
+      <c r="J763" s="99"/>
+    </row>
+    <row r="764" spans="9:10">
+      <c r="I764" s="114"/>
+      <c r="J764" s="99"/>
+    </row>
+    <row r="765" spans="9:10">
+      <c r="I765" s="114"/>
+      <c r="J765" s="99"/>
+    </row>
+    <row r="766" spans="9:10">
+      <c r="I766" s="114"/>
+      <c r="J766" s="99"/>
+    </row>
+    <row r="767" spans="9:10">
+      <c r="I767" s="114"/>
+      <c r="J767" s="99"/>
+    </row>
+    <row r="768" spans="9:10">
+      <c r="I768" s="114"/>
+      <c r="J768" s="99"/>
+    </row>
+    <row r="769" spans="9:10">
+      <c r="I769" s="114"/>
+      <c r="J769" s="99"/>
+    </row>
+    <row r="770" spans="9:10">
+      <c r="I770" s="114"/>
+      <c r="J770" s="99"/>
+    </row>
+    <row r="771" spans="9:10">
+      <c r="I771" s="114"/>
+      <c r="J771" s="99"/>
+    </row>
+    <row r="772" spans="9:10">
+      <c r="I772" s="114"/>
+      <c r="J772" s="99"/>
+    </row>
+    <row r="773" spans="9:10">
+      <c r="I773" s="114"/>
+      <c r="J773" s="99"/>
+    </row>
+    <row r="774" spans="9:10">
+      <c r="I774" s="114"/>
+      <c r="J774" s="99"/>
+    </row>
+    <row r="775" spans="9:10">
+      <c r="I775" s="114"/>
+      <c r="J775" s="99"/>
+    </row>
+    <row r="776" spans="9:10">
+      <c r="I776" s="114"/>
+      <c r="J776" s="99"/>
+    </row>
+    <row r="777" spans="9:10">
+      <c r="I777" s="114"/>
+      <c r="J777" s="99"/>
+    </row>
+    <row r="778" spans="9:10">
+      <c r="I778" s="114"/>
+      <c r="J778" s="99"/>
+    </row>
+    <row r="779" spans="9:10">
+      <c r="I779" s="114"/>
+      <c r="J779" s="99"/>
+    </row>
+    <row r="780" spans="9:10">
+      <c r="I780" s="114"/>
+      <c r="J780" s="99"/>
+    </row>
+    <row r="781" spans="9:10">
+      <c r="I781" s="114"/>
+      <c r="J781" s="99"/>
+    </row>
+    <row r="782" spans="9:10">
+      <c r="I782" s="114"/>
+      <c r="J782" s="99"/>
+    </row>
+    <row r="783" spans="9:10">
+      <c r="I783" s="114"/>
+      <c r="J783" s="99"/>
+    </row>
+    <row r="784" spans="9:10">
+      <c r="I784" s="114"/>
+      <c r="J784" s="99"/>
+    </row>
+    <row r="785" spans="9:10">
+      <c r="I785" s="114"/>
+      <c r="J785" s="99"/>
+    </row>
+    <row r="786" spans="9:10">
+      <c r="I786" s="114"/>
+      <c r="J786" s="99"/>
+    </row>
+    <row r="787" spans="9:10">
+      <c r="I787" s="114"/>
+      <c r="J787" s="99"/>
+    </row>
+    <row r="788" spans="9:10">
+      <c r="I788" s="114"/>
+      <c r="J788" s="99"/>
+    </row>
+    <row r="789" spans="9:10">
+      <c r="I789" s="114"/>
+      <c r="J789" s="99"/>
+    </row>
+    <row r="790" spans="9:10">
+      <c r="I790" s="114"/>
+      <c r="J790" s="99"/>
+    </row>
+    <row r="791" spans="9:10">
+      <c r="I791" s="114"/>
+      <c r="J791" s="99"/>
+    </row>
+    <row r="792" spans="9:10">
+      <c r="I792" s="114"/>
+      <c r="J792" s="99"/>
+    </row>
+    <row r="793" spans="9:10">
+      <c r="I793" s="114"/>
+      <c r="J793" s="99"/>
+    </row>
+    <row r="794" spans="9:10">
+      <c r="I794" s="114"/>
+      <c r="J794" s="99"/>
+    </row>
+    <row r="795" spans="9:10">
+      <c r="I795" s="114"/>
+      <c r="J795" s="99"/>
+    </row>
+    <row r="796" spans="9:10">
+      <c r="I796" s="114"/>
+      <c r="J796" s="99"/>
+    </row>
+    <row r="797" spans="9:10">
+      <c r="I797" s="114"/>
+      <c r="J797" s="99"/>
+    </row>
+    <row r="798" spans="9:10">
+      <c r="I798" s="114"/>
+      <c r="J798" s="99"/>
+    </row>
+    <row r="799" spans="9:10">
+      <c r="I799" s="114"/>
+      <c r="J799" s="99"/>
+    </row>
+    <row r="800" spans="9:10">
+      <c r="I800" s="114"/>
+      <c r="J800" s="99"/>
+    </row>
+    <row r="801" spans="9:10">
+      <c r="I801" s="114"/>
+      <c r="J801" s="99"/>
+    </row>
+    <row r="802" spans="9:10">
+      <c r="I802" s="114"/>
+      <c r="J802" s="99"/>
+    </row>
+    <row r="803" spans="9:10">
+      <c r="I803" s="114"/>
+      <c r="J803" s="99"/>
+    </row>
+    <row r="804" spans="9:10">
+      <c r="I804" s="114"/>
+      <c r="J804" s="99"/>
+    </row>
+    <row r="805" spans="9:10">
+      <c r="I805" s="114"/>
+      <c r="J805" s="99"/>
+    </row>
+    <row r="806" spans="9:10">
+      <c r="I806" s="114"/>
+      <c r="J806" s="99"/>
+    </row>
+    <row r="807" spans="9:10">
+      <c r="I807" s="114"/>
+      <c r="J807" s="99"/>
+    </row>
+    <row r="808" spans="9:10">
+      <c r="I808" s="114"/>
+      <c r="J808" s="99"/>
+    </row>
+    <row r="809" spans="9:10">
+      <c r="I809" s="114"/>
+      <c r="J809" s="99"/>
+    </row>
+    <row r="810" spans="9:10">
+      <c r="I810" s="114"/>
+      <c r="J810" s="99"/>
+    </row>
+    <row r="811" spans="9:10">
+      <c r="I811" s="114"/>
+      <c r="J811" s="99"/>
+    </row>
+    <row r="812" spans="9:10">
+      <c r="I812" s="114"/>
+      <c r="J812" s="99"/>
+    </row>
+    <row r="813" spans="9:10">
+      <c r="I813" s="114"/>
+      <c r="J813" s="99"/>
+    </row>
+    <row r="814" spans="9:10">
+      <c r="I814" s="114"/>
+      <c r="J814" s="99"/>
+    </row>
+    <row r="815" spans="9:10">
+      <c r="I815" s="114"/>
+      <c r="J815" s="99"/>
+    </row>
+    <row r="816" spans="9:10">
+      <c r="I816" s="114"/>
+      <c r="J816" s="99"/>
+    </row>
+    <row r="817" spans="9:10">
+      <c r="I817" s="114"/>
+      <c r="J817" s="99"/>
+    </row>
+    <row r="818" spans="9:10">
+      <c r="I818" s="114"/>
+      <c r="J818" s="99"/>
+    </row>
+    <row r="819" spans="9:10">
+      <c r="I819" s="114"/>
+      <c r="J819" s="99"/>
+    </row>
+    <row r="820" spans="9:10">
+      <c r="I820" s="114"/>
+      <c r="J820" s="99"/>
+    </row>
+    <row r="821" spans="9:10">
+      <c r="I821" s="114"/>
+      <c r="J821" s="99"/>
+    </row>
+    <row r="822" spans="9:10">
+      <c r="I822" s="114"/>
+      <c r="J822" s="99"/>
+    </row>
+    <row r="823" spans="9:10">
+      <c r="I823" s="114"/>
+      <c r="J823" s="99"/>
+    </row>
+    <row r="824" spans="9:10">
+      <c r="I824" s="114"/>
+      <c r="J824" s="99"/>
+    </row>
+    <row r="825" spans="9:10">
+      <c r="I825" s="114"/>
+      <c r="J825" s="99"/>
+    </row>
+    <row r="826" spans="9:10">
+      <c r="I826" s="114"/>
+      <c r="J826" s="99"/>
+    </row>
+    <row r="827" spans="9:10">
+      <c r="I827" s="114"/>
+      <c r="J827" s="99"/>
+    </row>
+    <row r="828" spans="9:10">
+      <c r="I828" s="114"/>
+      <c r="J828" s="99"/>
+    </row>
+    <row r="829" spans="9:10">
+      <c r="I829" s="114"/>
+      <c r="J829" s="99"/>
+    </row>
+    <row r="830" spans="9:10">
+      <c r="I830" s="114"/>
+      <c r="J830" s="99"/>
+    </row>
+    <row r="831" spans="9:10">
+      <c r="I831" s="114"/>
+      <c r="J831" s="99"/>
+    </row>
+    <row r="832" spans="9:10">
+      <c r="I832" s="114"/>
+      <c r="J832" s="99"/>
+    </row>
+    <row r="833" spans="9:10">
+      <c r="I833" s="114"/>
+      <c r="J833" s="99"/>
+    </row>
+    <row r="834" spans="9:10">
+      <c r="I834" s="114"/>
+      <c r="J834" s="99"/>
+    </row>
+    <row r="835" spans="9:10">
+      <c r="I835" s="114"/>
+      <c r="J835" s="99"/>
+    </row>
+    <row r="836" spans="9:10">
+      <c r="I836" s="114"/>
+      <c r="J836" s="99"/>
+    </row>
+    <row r="837" spans="9:10">
+      <c r="I837" s="114"/>
+      <c r="J837" s="99"/>
+    </row>
+    <row r="838" spans="9:10">
+      <c r="I838" s="114"/>
+      <c r="J838" s="99"/>
+    </row>
+    <row r="839" spans="9:10">
+      <c r="I839" s="114"/>
+      <c r="J839" s="99"/>
+    </row>
+    <row r="840" spans="9:10">
+      <c r="I840" s="114"/>
+      <c r="J840" s="99"/>
+    </row>
+    <row r="841" spans="9:10">
+      <c r="I841" s="114"/>
+      <c r="J841" s="99"/>
+    </row>
+    <row r="842" spans="9:10">
+      <c r="I842" s="114"/>
+      <c r="J842" s="99"/>
+    </row>
+    <row r="843" spans="9:10">
+      <c r="I843" s="114"/>
+      <c r="J843" s="99"/>
+    </row>
+    <row r="844" spans="9:10">
+      <c r="I844" s="114"/>
+      <c r="J844" s="99"/>
+    </row>
+    <row r="845" spans="9:10">
+      <c r="I845" s="114"/>
+      <c r="J845" s="99"/>
+    </row>
+    <row r="846" spans="9:10">
+      <c r="I846" s="114"/>
+      <c r="J846" s="99"/>
+    </row>
+    <row r="847" spans="9:10">
+      <c r="I847" s="114"/>
+      <c r="J847" s="99"/>
+    </row>
+    <row r="848" spans="9:10">
+      <c r="I848" s="114"/>
+      <c r="J848" s="99"/>
+    </row>
+    <row r="849" spans="9:10">
+      <c r="I849" s="114"/>
+      <c r="J849" s="99"/>
+    </row>
+    <row r="850" spans="9:10">
+      <c r="I850" s="114"/>
+      <c r="J850" s="99"/>
+    </row>
+    <row r="851" spans="9:10">
+      <c r="I851" s="114"/>
+      <c r="J851" s="99"/>
+    </row>
+    <row r="852" spans="9:10">
+      <c r="I852" s="114"/>
+      <c r="J852" s="99"/>
+    </row>
+    <row r="853" spans="9:10">
+      <c r="I853" s="114"/>
+      <c r="J853" s="99"/>
+    </row>
+    <row r="854" spans="9:10">
+      <c r="I854" s="114"/>
+      <c r="J854" s="99"/>
+    </row>
+    <row r="855" spans="9:10">
+      <c r="I855" s="114"/>
+      <c r="J855" s="99"/>
+    </row>
+    <row r="856" spans="9:10">
+      <c r="I856" s="114"/>
+      <c r="J856" s="99"/>
+    </row>
+    <row r="857" spans="9:10">
+      <c r="I857" s="114"/>
+      <c r="J857" s="99"/>
+    </row>
+    <row r="858" spans="9:10">
+      <c r="I858" s="114"/>
+      <c r="J858" s="99"/>
+    </row>
+    <row r="859" spans="9:10">
+      <c r="I859" s="114"/>
+      <c r="J859" s="99"/>
+    </row>
+    <row r="860" spans="9:10">
+      <c r="I860" s="114"/>
+      <c r="J860" s="99"/>
+    </row>
+    <row r="861" spans="9:10">
+      <c r="I861" s="114"/>
+      <c r="J861" s="99"/>
+    </row>
+    <row r="862" spans="9:10">
+      <c r="I862" s="114"/>
+      <c r="J862" s="99"/>
+    </row>
+    <row r="863" spans="9:10">
+      <c r="I863" s="114"/>
+      <c r="J863" s="99"/>
+    </row>
+    <row r="864" spans="9:10">
+      <c r="I864" s="114"/>
+      <c r="J864" s="99"/>
+    </row>
+    <row r="865" spans="9:10">
+      <c r="I865" s="114"/>
+      <c r="J865" s="99"/>
+    </row>
+    <row r="866" spans="9:10">
+      <c r="I866" s="114"/>
+      <c r="J866" s="99"/>
+    </row>
+    <row r="867" spans="9:10">
+      <c r="I867" s="114"/>
+      <c r="J867" s="99"/>
+    </row>
+    <row r="868" spans="9:10">
+      <c r="I868" s="114"/>
+      <c r="J868" s="99"/>
+    </row>
+    <row r="869" spans="9:10">
+      <c r="I869" s="114"/>
+      <c r="J869" s="99"/>
+    </row>
+    <row r="870" spans="9:10">
+      <c r="I870" s="114"/>
+      <c r="J870" s="99"/>
+    </row>
+    <row r="871" spans="9:10">
+      <c r="I871" s="114"/>
+      <c r="J871" s="99"/>
+    </row>
+    <row r="872" spans="9:10">
+      <c r="I872" s="114"/>
+      <c r="J872" s="99"/>
+    </row>
+    <row r="873" spans="9:10">
+      <c r="I873" s="114"/>
+      <c r="J873" s="99"/>
+    </row>
+    <row r="874" spans="9:10">
+      <c r="I874" s="114"/>
+      <c r="J874" s="99"/>
+    </row>
+    <row r="875" spans="9:10">
+      <c r="I875" s="114"/>
+      <c r="J875" s="99"/>
+    </row>
+    <row r="876" spans="9:10">
+      <c r="I876" s="114"/>
+      <c r="J876" s="99"/>
+    </row>
+    <row r="877" spans="9:10">
+      <c r="I877" s="114"/>
+      <c r="J877" s="99"/>
+    </row>
+    <row r="878" spans="9:10">
+      <c r="I878" s="114"/>
+      <c r="J878" s="99"/>
+    </row>
+    <row r="879" spans="9:10">
+      <c r="I879" s="114"/>
+      <c r="J879" s="99"/>
+    </row>
+    <row r="880" spans="9:10">
+      <c r="I880" s="114"/>
+      <c r="J880" s="99"/>
+    </row>
+    <row r="881" spans="9:10">
+      <c r="I881" s="114"/>
+      <c r="J881" s="99"/>
+    </row>
+    <row r="882" spans="9:10">
+      <c r="I882" s="114"/>
+      <c r="J882" s="99"/>
+    </row>
+    <row r="883" spans="9:10">
+      <c r="I883" s="114"/>
+      <c r="J883" s="99"/>
+    </row>
+    <row r="884" spans="9:10">
+      <c r="I884" s="114"/>
+      <c r="J884" s="99"/>
+    </row>
+    <row r="885" spans="9:10">
+      <c r="I885" s="114"/>
+      <c r="J885" s="99"/>
+    </row>
+    <row r="886" spans="9:10">
+      <c r="I886" s="114"/>
+      <c r="J886" s="99"/>
+    </row>
+    <row r="887" spans="9:10">
+      <c r="I887" s="114"/>
+      <c r="J887" s="99"/>
+    </row>
+    <row r="888" spans="9:10">
+      <c r="I888" s="114"/>
+      <c r="J888" s="99"/>
+    </row>
+    <row r="889" spans="9:10">
+      <c r="I889" s="114"/>
+      <c r="J889" s="99"/>
+    </row>
+    <row r="890" spans="9:10">
+      <c r="I890" s="114"/>
+      <c r="J890" s="99"/>
+    </row>
+    <row r="891" spans="9:10">
+      <c r="I891" s="114"/>
+      <c r="J891" s="99"/>
+    </row>
+    <row r="892" spans="9:10">
+      <c r="I892" s="114"/>
+      <c r="J892" s="99"/>
+    </row>
+    <row r="893" spans="9:10">
+      <c r="I893" s="114"/>
+      <c r="J893" s="99"/>
+    </row>
+    <row r="894" spans="9:10">
+      <c r="I894" s="114"/>
+      <c r="J894" s="99"/>
+    </row>
+    <row r="895" spans="9:10">
+      <c r="I895" s="114"/>
+      <c r="J895" s="99"/>
+    </row>
+    <row r="896" spans="9:10">
+      <c r="I896" s="114"/>
+      <c r="J896" s="99"/>
+    </row>
+    <row r="897" spans="9:10">
+      <c r="I897" s="114"/>
+      <c r="J897" s="99"/>
+    </row>
+    <row r="898" spans="9:10">
+      <c r="I898" s="114"/>
+      <c r="J898" s="99"/>
+    </row>
+    <row r="899" spans="9:10">
+      <c r="I899" s="114"/>
+      <c r="J899" s="99"/>
+    </row>
+    <row r="900" spans="9:10">
+      <c r="I900" s="114"/>
+      <c r="J900" s="99"/>
+    </row>
+    <row r="901" spans="9:10">
+      <c r="I901" s="114"/>
+      <c r="J901" s="99"/>
+    </row>
+    <row r="902" spans="9:10">
+      <c r="I902" s="114"/>
+      <c r="J902" s="99"/>
+    </row>
+    <row r="903" spans="9:10">
+      <c r="I903" s="114"/>
+      <c r="J903" s="99"/>
+    </row>
+    <row r="904" spans="9:10">
+      <c r="I904" s="114"/>
+      <c r="J904" s="99"/>
+    </row>
+    <row r="905" spans="9:10">
+      <c r="I905" s="114"/>
+      <c r="J905" s="99"/>
+    </row>
+    <row r="906" spans="9:10">
+      <c r="I906" s="114"/>
+      <c r="J906" s="99"/>
+    </row>
+    <row r="907" spans="9:10">
+      <c r="I907" s="114"/>
+      <c r="J907" s="99"/>
+    </row>
+    <row r="908" spans="9:10">
+      <c r="I908" s="114"/>
+      <c r="J908" s="99"/>
+    </row>
+    <row r="909" spans="9:10">
+      <c r="I909" s="114"/>
+      <c r="J909" s="99"/>
+    </row>
+    <row r="910" spans="9:10">
+      <c r="I910" s="114"/>
+      <c r="J910" s="99"/>
+    </row>
+    <row r="911" spans="9:10">
+      <c r="I911" s="114"/>
+      <c r="J911" s="99"/>
+    </row>
+    <row r="912" spans="9:10">
+      <c r="I912" s="114"/>
+      <c r="J912" s="99"/>
+    </row>
+    <row r="913" spans="9:10">
+      <c r="I913" s="114"/>
+      <c r="J913" s="99"/>
+    </row>
+    <row r="914" spans="9:10">
+      <c r="I914" s="114"/>
+      <c r="J914" s="99"/>
+    </row>
+    <row r="915" spans="9:10">
+      <c r="I915" s="114"/>
+      <c r="J915" s="99"/>
+    </row>
+    <row r="916" spans="9:10">
+      <c r="I916" s="114"/>
+      <c r="J916" s="99"/>
+    </row>
+    <row r="917" spans="9:10">
+      <c r="I917" s="114"/>
+      <c r="J917" s="99"/>
+    </row>
+    <row r="918" spans="9:10">
+      <c r="I918" s="114"/>
+      <c r="J918" s="99"/>
+    </row>
+    <row r="919" spans="9:10">
+      <c r="I919" s="114"/>
+      <c r="J919" s="99"/>
+    </row>
+    <row r="920" spans="9:10">
+      <c r="I920" s="114"/>
+      <c r="J920" s="99"/>
+    </row>
+    <row r="921" spans="9:10">
+      <c r="I921" s="114"/>
+      <c r="J921" s="99"/>
+    </row>
+    <row r="922" spans="9:10">
+      <c r="I922" s="114"/>
+      <c r="J922" s="99"/>
+    </row>
+    <row r="923" spans="9:10">
+      <c r="I923" s="114"/>
+      <c r="J923" s="99"/>
+    </row>
+    <row r="924" spans="9:10">
+      <c r="I924" s="114"/>
+      <c r="J924" s="99"/>
+    </row>
+    <row r="925" spans="9:10">
+      <c r="I925" s="114"/>
+      <c r="J925" s="99"/>
+    </row>
+    <row r="926" spans="9:10">
+      <c r="I926" s="114"/>
+      <c r="J926" s="99"/>
+    </row>
+    <row r="927" spans="9:10">
+      <c r="I927" s="114"/>
+      <c r="J927" s="99"/>
+    </row>
+    <row r="928" spans="9:10">
+      <c r="I928" s="114"/>
+      <c r="J928" s="99"/>
+    </row>
+    <row r="929" spans="9:10">
+      <c r="I929" s="114"/>
+      <c r="J929" s="99"/>
+    </row>
+    <row r="930" spans="9:10">
+      <c r="I930" s="114"/>
+      <c r="J930" s="99"/>
+    </row>
+    <row r="931" spans="9:10">
+      <c r="I931" s="114"/>
+      <c r="J931" s="99"/>
+    </row>
+    <row r="932" spans="9:10">
+      <c r="I932" s="114"/>
+      <c r="J932" s="99"/>
+    </row>
+    <row r="933" spans="9:10">
+      <c r="I933" s="114"/>
+      <c r="J933" s="99"/>
+    </row>
+    <row r="934" spans="9:10">
+      <c r="I934" s="114"/>
+      <c r="J934" s="99"/>
+    </row>
+    <row r="935" spans="9:10">
+      <c r="I935" s="114"/>
+      <c r="J935" s="99"/>
+    </row>
+    <row r="936" spans="9:10">
+      <c r="I936" s="114"/>
+      <c r="J936" s="99"/>
+    </row>
+    <row r="937" spans="9:10">
+      <c r="I937" s="114"/>
+      <c r="J937" s="99"/>
+    </row>
+    <row r="938" spans="9:10">
+      <c r="I938" s="114"/>
+      <c r="J938" s="99"/>
+    </row>
+    <row r="939" spans="9:10">
+      <c r="I939" s="114"/>
+      <c r="J939" s="99"/>
+    </row>
+    <row r="940" spans="9:10">
+      <c r="I940" s="114"/>
+      <c r="J940" s="99"/>
+    </row>
+    <row r="941" spans="9:10">
+      <c r="I941" s="114"/>
+      <c r="J941" s="99"/>
+    </row>
+    <row r="942" spans="9:10">
+      <c r="I942" s="114"/>
+      <c r="J942" s="99"/>
+    </row>
+    <row r="943" spans="9:10">
+      <c r="I943" s="114"/>
+      <c r="J943" s="99"/>
+    </row>
+    <row r="944" spans="9:10">
+      <c r="I944" s="114"/>
+      <c r="J944" s="99"/>
+    </row>
+    <row r="945" spans="9:10">
+      <c r="I945" s="114"/>
+      <c r="J945" s="99"/>
+    </row>
+    <row r="946" spans="9:10">
+      <c r="I946" s="114"/>
+      <c r="J946" s="99"/>
+    </row>
+    <row r="947" spans="9:10">
+      <c r="I947" s="114"/>
+      <c r="J947" s="99"/>
+    </row>
+    <row r="948" spans="9:10">
+      <c r="I948" s="114"/>
+      <c r="J948" s="99"/>
+    </row>
+    <row r="949" spans="9:10">
+      <c r="I949" s="114"/>
+      <c r="J949" s="99"/>
+    </row>
+    <row r="950" spans="9:10">
+      <c r="I950" s="114"/>
+      <c r="J950" s="99"/>
+    </row>
+    <row r="951" spans="9:10">
+      <c r="I951" s="114"/>
+      <c r="J951" s="99"/>
+    </row>
+    <row r="952" spans="9:10">
+      <c r="I952" s="114"/>
+      <c r="J952" s="99"/>
+    </row>
+    <row r="953" spans="9:10">
+      <c r="I953" s="114"/>
+      <c r="J953" s="99"/>
+    </row>
+    <row r="954" spans="9:10">
+      <c r="I954" s="114"/>
+      <c r="J954" s="99"/>
+    </row>
+    <row r="955" spans="9:10">
+      <c r="I955" s="114"/>
+      <c r="J955" s="99"/>
+    </row>
+    <row r="956" spans="9:10">
+      <c r="I956" s="114"/>
+      <c r="J956" s="99"/>
+    </row>
+    <row r="957" spans="9:10">
+      <c r="I957" s="114"/>
+      <c r="J957" s="99"/>
+    </row>
+    <row r="958" spans="9:10">
+      <c r="I958" s="114"/>
+      <c r="J958" s="99"/>
+    </row>
+    <row r="959" spans="9:10">
+      <c r="I959" s="114"/>
+      <c r="J959" s="99"/>
+    </row>
+    <row r="960" spans="9:10">
+      <c r="I960" s="114"/>
+      <c r="J960" s="99"/>
+    </row>
+    <row r="961" spans="9:10">
+      <c r="I961" s="114"/>
+      <c r="J961" s="99"/>
+    </row>
+    <row r="962" spans="9:10">
+      <c r="I962" s="114"/>
+      <c r="J962" s="99"/>
+    </row>
+    <row r="963" spans="9:10">
+      <c r="I963" s="114"/>
+      <c r="J963" s="99"/>
+    </row>
+    <row r="964" spans="9:10">
+      <c r="I964" s="114"/>
+      <c r="J964" s="99"/>
+    </row>
+    <row r="965" spans="9:10">
+      <c r="I965" s="114"/>
+      <c r="J965" s="99"/>
+    </row>
+    <row r="966" spans="9:10">
+      <c r="I966" s="114"/>
+      <c r="J966" s="99"/>
+    </row>
+    <row r="967" spans="9:10">
+      <c r="I967" s="114"/>
+      <c r="J967" s="99"/>
+    </row>
+    <row r="968" spans="9:10">
+      <c r="I968" s="114"/>
+      <c r="J968" s="99"/>
+    </row>
+    <row r="969" spans="9:10">
+      <c r="I969" s="114"/>
+      <c r="J969" s="99"/>
+    </row>
+    <row r="970" spans="9:10">
+      <c r="I970" s="114"/>
+      <c r="J970" s="99"/>
+    </row>
+    <row r="971" spans="9:10">
+      <c r="I971" s="114"/>
+      <c r="J971" s="99"/>
+    </row>
+    <row r="972" spans="9:10">
+      <c r="I972" s="114"/>
+      <c r="J972" s="99"/>
+    </row>
+    <row r="973" spans="9:10">
+      <c r="I973" s="114"/>
+      <c r="J973" s="99"/>
+    </row>
+    <row r="974" spans="9:10">
+      <c r="I974" s="114"/>
+      <c r="J974" s="99"/>
+    </row>
+    <row r="975" spans="9:10">
+      <c r="I975" s="114"/>
+      <c r="J975" s="99"/>
+    </row>
+    <row r="976" spans="9:10">
+      <c r="I976" s="114"/>
+      <c r="J976" s="99"/>
+    </row>
+    <row r="977" spans="9:10">
+      <c r="I977" s="114"/>
+      <c r="J977" s="99"/>
+    </row>
+    <row r="978" spans="9:10">
+      <c r="I978" s="114"/>
+      <c r="J978" s="99"/>
+    </row>
+    <row r="979" spans="9:10">
+      <c r="I979" s="114"/>
+      <c r="J979" s="99"/>
+    </row>
+    <row r="980" spans="9:10">
+      <c r="I980" s="114"/>
+      <c r="J980" s="99"/>
+    </row>
+    <row r="981" spans="9:10">
+      <c r="I981" s="114"/>
+      <c r="J981" s="99"/>
+    </row>
+    <row r="982" spans="9:10">
+      <c r="I982" s="114"/>
+      <c r="J982" s="99"/>
+    </row>
+    <row r="983" spans="9:10">
+      <c r="I983" s="114"/>
+      <c r="J983" s="99"/>
+    </row>
+    <row r="984" spans="9:10">
+      <c r="I984" s="114"/>
+      <c r="J984" s="99"/>
+    </row>
+    <row r="985" spans="9:10">
+      <c r="I985" s="114"/>
+      <c r="J985" s="99"/>
+    </row>
+    <row r="986" spans="9:10">
+      <c r="I986" s="114"/>
+      <c r="J986" s="99"/>
+    </row>
+    <row r="987" spans="9:10">
+      <c r="I987" s="114"/>
+      <c r="J987" s="99"/>
+    </row>
+    <row r="988" spans="9:10">
+      <c r="I988" s="114"/>
+      <c r="J988" s="99"/>
+    </row>
+    <row r="989" spans="9:10">
+      <c r="I989" s="114"/>
+      <c r="J989" s="99"/>
+    </row>
+    <row r="990" spans="9:10">
+      <c r="I990" s="114"/>
+      <c r="J990" s="99"/>
+    </row>
+    <row r="991" spans="9:10">
+      <c r="I991" s="114"/>
+      <c r="J991" s="99"/>
+    </row>
+    <row r="992" spans="9:10">
+      <c r="I992" s="114"/>
+      <c r="J992" s="99"/>
+    </row>
+    <row r="993" spans="9:10">
+      <c r="I993" s="114"/>
+      <c r="J993" s="99"/>
+    </row>
+    <row r="994" spans="9:10">
+      <c r="I994" s="114"/>
+      <c r="J994" s="99"/>
+    </row>
+    <row r="995" spans="9:10">
+      <c r="I995" s="114"/>
+      <c r="J995" s="99"/>
+    </row>
+    <row r="996" spans="9:10">
+      <c r="I996" s="114"/>
+      <c r="J996" s="99"/>
+    </row>
+    <row r="997" spans="9:10">
+      <c r="I997" s="114"/>
+      <c r="J997" s="99"/>
+    </row>
+    <row r="998" spans="9:10">
+      <c r="I998" s="114"/>
+      <c r="J998" s="99"/>
+    </row>
+    <row r="999" spans="9:10">
+      <c r="I999" s="114"/>
+      <c r="J999" s="99"/>
+    </row>
+    <row r="1000" spans="9:10">
+      <c r="I1000" s="114"/>
+      <c r="J1000" s="99"/>
+    </row>
+    <row r="1001" spans="9:10">
+      <c r="I1001" s="114"/>
+      <c r="J1001" s="99"/>
+    </row>
+    <row r="1002" spans="9:10">
+      <c r="I1002" s="114"/>
+      <c r="J1002" s="99"/>
+    </row>
+    <row r="1003" spans="9:10">
+      <c r="I1003" s="114"/>
+      <c r="J1003" s="99"/>
+    </row>
+    <row r="1004" spans="9:10">
+      <c r="I1004" s="114"/>
+      <c r="J1004" s="99"/>
+    </row>
+    <row r="1005" spans="9:10">
+      <c r="I1005" s="114"/>
+      <c r="J1005" s="99"/>
+    </row>
+    <row r="1006" spans="9:10">
+      <c r="I1006" s="114"/>
+      <c r="J1006" s="99"/>
+    </row>
+    <row r="1007" spans="9:10">
+      <c r="I1007" s="114"/>
+      <c r="J1007" s="99"/>
+    </row>
+    <row r="1008" spans="9:10">
+      <c r="I1008" s="114"/>
+      <c r="J1008" s="99"/>
+    </row>
+    <row r="1009" spans="9:10">
+      <c r="I1009" s="114"/>
+      <c r="J1009" s="99"/>
+    </row>
+    <row r="1010" spans="9:10">
+      <c r="I1010" s="114"/>
+      <c r="J1010" s="99"/>
+    </row>
+    <row r="1011" spans="9:10">
+      <c r="I1011" s="114"/>
+      <c r="J1011" s="99"/>
+    </row>
+    <row r="1012" spans="9:10">
+      <c r="I1012" s="114"/>
+      <c r="J1012" s="99"/>
+    </row>
+    <row r="1013" spans="9:10">
+      <c r="I1013" s="114"/>
+      <c r="J1013" s="99"/>
+    </row>
+    <row r="1014" spans="9:10">
+      <c r="I1014" s="114"/>
+      <c r="J1014" s="99"/>
+    </row>
+    <row r="1015" spans="9:10">
+      <c r="I1015" s="114"/>
+      <c r="J1015" s="99"/>
+    </row>
+    <row r="1016" spans="9:10">
+      <c r="I1016" s="114"/>
+      <c r="J1016" s="99"/>
+    </row>
+    <row r="1017" spans="9:10">
+      <c r="I1017" s="114"/>
+      <c r="J1017" s="99"/>
+    </row>
+    <row r="1018" spans="9:10">
+      <c r="I1018" s="114"/>
+      <c r="J1018" s="99"/>
+    </row>
+    <row r="1019" spans="9:10">
+      <c r="I1019" s="114"/>
+      <c r="J1019" s="99"/>
+    </row>
+    <row r="1020" spans="9:10">
+      <c r="I1020" s="114"/>
+      <c r="J1020" s="99"/>
+    </row>
+    <row r="1021" spans="9:10">
+      <c r="I1021" s="114"/>
+      <c r="J1021" s="99"/>
+    </row>
+    <row r="1022" spans="9:10">
+      <c r="I1022" s="114"/>
+      <c r="J1022" s="99"/>
+    </row>
+    <row r="1023" spans="9:10">
+      <c r="I1023" s="114"/>
+      <c r="J1023" s="99"/>
+    </row>
+    <row r="1024" spans="9:10">
+      <c r="I1024" s="114"/>
+      <c r="J1024" s="99"/>
+    </row>
+    <row r="1025" spans="9:10">
+      <c r="I1025" s="114"/>
+      <c r="J1025" s="99"/>
+    </row>
+    <row r="1026" spans="9:10">
+      <c r="I1026" s="114"/>
+      <c r="J1026" s="99"/>
+    </row>
+    <row r="1027" spans="9:10">
+      <c r="I1027" s="114"/>
+      <c r="J1027" s="99"/>
+    </row>
+    <row r="1028" spans="9:10">
+      <c r="I1028" s="114"/>
+      <c r="J1028" s="99"/>
+    </row>
+    <row r="1029" spans="9:10">
+      <c r="I1029" s="114"/>
+      <c r="J1029" s="99"/>
+    </row>
+    <row r="1030" spans="9:10">
+      <c r="I1030" s="114"/>
+      <c r="J1030" s="99"/>
+    </row>
+    <row r="1031" spans="9:10">
+      <c r="I1031" s="114"/>
+      <c r="J1031" s="99"/>
+    </row>
+    <row r="1032" spans="9:10">
+      <c r="I1032" s="114"/>
+      <c r="J1032" s="99"/>
+    </row>
+    <row r="1033" spans="9:10">
+      <c r="I1033" s="114"/>
+      <c r="J1033" s="99"/>
+    </row>
+    <row r="1034" spans="9:10">
+      <c r="I1034" s="114"/>
+      <c r="J1034" s="99"/>
+    </row>
+    <row r="1035" spans="9:10">
+      <c r="I1035" s="114"/>
+      <c r="J1035" s="99"/>
+    </row>
+    <row r="1036" spans="9:10">
+      <c r="I1036" s="114"/>
+      <c r="J1036" s="99"/>
+    </row>
+    <row r="1037" spans="9:10">
+      <c r="I1037" s="114"/>
+      <c r="J1037" s="99"/>
+    </row>
+    <row r="1038" spans="9:10">
+      <c r="I1038" s="114"/>
+      <c r="J1038" s="99"/>
+    </row>
+    <row r="1039" spans="9:10">
+      <c r="I1039" s="114"/>
+      <c r="J1039" s="99"/>
+    </row>
+    <row r="1040" spans="9:10">
+      <c r="I1040" s="114"/>
+      <c r="J1040" s="99"/>
+    </row>
+    <row r="1041" spans="9:10">
+      <c r="I1041" s="114"/>
+      <c r="J1041" s="99"/>
+    </row>
+    <row r="1042" spans="9:10">
+      <c r="I1042" s="114"/>
+      <c r="J1042" s="99"/>
+    </row>
+    <row r="1043" spans="9:10">
+      <c r="I1043" s="114"/>
+      <c r="J1043" s="99"/>
+    </row>
+    <row r="1044" spans="9:10">
+      <c r="I1044" s="114"/>
+      <c r="J1044" s="99"/>
+    </row>
+    <row r="1045" spans="9:10">
+      <c r="I1045" s="114"/>
+      <c r="J1045" s="99"/>
+    </row>
+    <row r="1046" spans="9:10">
+      <c r="I1046" s="114"/>
+      <c r="J1046" s="99"/>
+    </row>
+    <row r="1047" spans="9:10">
+      <c r="I1047" s="114"/>
+      <c r="J1047" s="99"/>
+    </row>
+    <row r="1048" spans="9:10">
+      <c r="I1048" s="114"/>
+      <c r="J1048" s="99"/>
+    </row>
+    <row r="1049" spans="9:10">
+      <c r="I1049" s="114"/>
+      <c r="J1049" s="99"/>
+    </row>
+    <row r="1050" spans="9:10">
+      <c r="I1050" s="114"/>
+      <c r="J1050" s="99"/>
+    </row>
+    <row r="1051" spans="9:10">
+      <c r="I1051" s="114"/>
+      <c r="J1051" s="99"/>
+    </row>
+    <row r="1052" spans="9:10">
+      <c r="I1052" s="114"/>
+      <c r="J1052" s="99"/>
+    </row>
+    <row r="1053" spans="9:10">
+      <c r="I1053" s="114"/>
+      <c r="J1053" s="99"/>
+    </row>
+    <row r="1054" spans="9:10">
+      <c r="I1054" s="114"/>
+      <c r="J1054" s="99"/>
+    </row>
+    <row r="1055" spans="9:10">
+      <c r="I1055" s="114"/>
+      <c r="J1055" s="99"/>
+    </row>
+    <row r="1056" spans="9:10">
+      <c r="I1056" s="114"/>
+      <c r="J1056" s="99"/>
+    </row>
+    <row r="1057" spans="9:10">
+      <c r="I1057" s="114"/>
+      <c r="J1057" s="99"/>
+    </row>
+    <row r="1058" spans="9:10">
+      <c r="I1058" s="114"/>
+      <c r="J1058" s="99"/>
+    </row>
+    <row r="1059" spans="9:10">
+      <c r="I1059" s="114"/>
+      <c r="J1059" s="99"/>
+    </row>
+    <row r="1060" spans="9:10">
+      <c r="I1060" s="114"/>
+      <c r="J1060" s="99"/>
+    </row>
+    <row r="1061" spans="9:10">
+      <c r="I1061" s="114"/>
+      <c r="J1061" s="99"/>
+    </row>
+    <row r="1062" spans="9:10">
+      <c r="I1062" s="114"/>
+      <c r="J1062" s="99"/>
+    </row>
+    <row r="1063" spans="9:10">
+      <c r="I1063" s="114"/>
+      <c r="J1063" s="99"/>
+    </row>
+    <row r="1064" spans="9:10">
+      <c r="I1064" s="114"/>
+      <c r="J1064" s="99"/>
+    </row>
+    <row r="1065" spans="9:10">
+      <c r="I1065" s="114"/>
+      <c r="J1065" s="99"/>
+    </row>
+    <row r="1066" spans="9:10">
+      <c r="I1066" s="114"/>
+      <c r="J1066" s="99"/>
+    </row>
+    <row r="1067" spans="9:10">
+      <c r="I1067" s="114"/>
+      <c r="J1067" s="99"/>
+    </row>
+    <row r="1068" spans="9:10">
+      <c r="I1068" s="114"/>
+      <c r="J1068" s="99"/>
+    </row>
+    <row r="1069" spans="9:10">
+      <c r="I1069" s="114"/>
+      <c r="J1069" s="99"/>
+    </row>
+    <row r="1070" spans="9:10">
+      <c r="I1070" s="114"/>
+      <c r="J1070" s="99"/>
+    </row>
+    <row r="1071" spans="9:10">
+      <c r="I1071" s="114"/>
+      <c r="J1071" s="99"/>
+    </row>
+    <row r="1072" spans="9:10">
+      <c r="I1072" s="114"/>
+      <c r="J1072" s="99"/>
+    </row>
+    <row r="1073" spans="9:10">
+      <c r="I1073" s="114"/>
+      <c r="J1073" s="99"/>
+    </row>
+    <row r="1074" spans="9:10">
+      <c r="I1074" s="114"/>
+      <c r="J1074" s="99"/>
+    </row>
+    <row r="1075" spans="9:10">
+      <c r="I1075" s="114"/>
+      <c r="J1075" s="99"/>
+    </row>
+    <row r="1076" spans="9:10">
+      <c r="I1076" s="114"/>
+      <c r="J1076" s="99"/>
+    </row>
+    <row r="1077" spans="9:10">
+      <c r="I1077" s="114"/>
+      <c r="J1077" s="99"/>
+    </row>
+    <row r="1078" spans="9:10">
+      <c r="I1078" s="114"/>
+      <c r="J1078" s="99"/>
+    </row>
+    <row r="1079" spans="9:10">
+      <c r="I1079" s="114"/>
+      <c r="J1079" s="99"/>
+    </row>
+    <row r="1080" spans="9:10">
+      <c r="I1080" s="114"/>
+      <c r="J1080" s="99"/>
+    </row>
+    <row r="1081" spans="9:10">
+      <c r="I1081" s="114"/>
+      <c r="J1081" s="99"/>
+    </row>
+    <row r="1082" spans="9:10">
+      <c r="I1082" s="114"/>
+      <c r="J1082" s="99"/>
+    </row>
+    <row r="1083" spans="9:10">
+      <c r="I1083" s="114"/>
+      <c r="J1083" s="99"/>
+    </row>
+    <row r="1084" spans="9:10">
+      <c r="I1084" s="114"/>
+      <c r="J1084" s="99"/>
+    </row>
+    <row r="1085" spans="9:10">
+      <c r="I1085" s="114"/>
+      <c r="J1085" s="99"/>
+    </row>
+    <row r="1086" spans="9:10">
+      <c r="I1086" s="114"/>
+      <c r="J1086" s="99"/>
+    </row>
+    <row r="1087" spans="9:10">
+      <c r="I1087" s="114"/>
+      <c r="J1087" s="99"/>
+    </row>
+    <row r="1088" spans="9:10">
+      <c r="I1088" s="114"/>
+      <c r="J1088" s="99"/>
+    </row>
+    <row r="1089" spans="9:10">
+      <c r="I1089" s="114"/>
+      <c r="J1089" s="99"/>
+    </row>
+    <row r="1090" spans="9:10">
+      <c r="I1090" s="114"/>
+      <c r="J1090" s="99"/>
+    </row>
+    <row r="1091" spans="9:10">
+      <c r="I1091" s="114"/>
+      <c r="J1091" s="99"/>
+    </row>
+    <row r="1092" spans="9:10">
+      <c r="I1092" s="114"/>
+      <c r="J1092" s="99"/>
+    </row>
+    <row r="1093" spans="9:10">
+      <c r="I1093" s="114"/>
+      <c r="J1093" s="99"/>
+    </row>
+    <row r="1094" spans="9:10">
+      <c r="I1094" s="114"/>
+      <c r="J1094" s="99"/>
+    </row>
+    <row r="1095" spans="9:10">
+      <c r="I1095" s="114"/>
+      <c r="J1095" s="99"/>
+    </row>
+    <row r="1096" spans="9:10">
+      <c r="I1096" s="114"/>
+      <c r="J1096" s="99"/>
+    </row>
+    <row r="1097" spans="9:10">
+      <c r="I1097" s="114"/>
+      <c r="J1097" s="99"/>
+    </row>
+    <row r="1098" spans="9:10">
+      <c r="I1098" s="114"/>
+      <c r="J1098" s="99"/>
+    </row>
+    <row r="1099" spans="9:10">
+      <c r="I1099" s="114"/>
+      <c r="J1099" s="99"/>
+    </row>
+    <row r="1100" spans="9:10">
+      <c r="I1100" s="114"/>
+      <c r="J1100" s="99"/>
+    </row>
+    <row r="1101" spans="9:10">
+      <c r="I1101" s="114"/>
+      <c r="J1101" s="99"/>
+    </row>
+    <row r="1102" spans="9:10">
+      <c r="I1102" s="114"/>
+      <c r="J1102" s="99"/>
+    </row>
+    <row r="1103" spans="9:10">
+      <c r="I1103" s="114"/>
+      <c r="J1103" s="99"/>
+    </row>
+    <row r="1104" spans="9:10">
+      <c r="I1104" s="114"/>
+      <c r="J1104" s="99"/>
+    </row>
+    <row r="1105" spans="9:10">
+      <c r="I1105" s="114"/>
+      <c r="J1105" s="99"/>
+    </row>
+    <row r="1106" spans="9:10">
+      <c r="I1106" s="114"/>
+      <c r="J1106" s="99"/>
+    </row>
+    <row r="1107" spans="9:10">
+      <c r="I1107" s="114"/>
+      <c r="J1107" s="99"/>
+    </row>
+    <row r="1108" spans="9:10">
+      <c r="I1108" s="114"/>
+      <c r="J1108" s="99"/>
+    </row>
+    <row r="1109" spans="9:10">
+      <c r="I1109" s="114"/>
+      <c r="J1109" s="99"/>
+    </row>
+    <row r="1110" spans="9:10">
+      <c r="I1110" s="114"/>
+      <c r="J1110" s="99"/>
+    </row>
+    <row r="1111" spans="9:10">
+      <c r="I1111" s="114"/>
+      <c r="J1111" s="99"/>
+    </row>
+    <row r="1112" spans="9:10">
+      <c r="I1112" s="114"/>
+      <c r="J1112" s="99"/>
+    </row>
+    <row r="1113" spans="9:10">
+      <c r="I1113" s="114"/>
+      <c r="J1113" s="99"/>
+    </row>
+    <row r="1114" spans="9:10">
+      <c r="I1114" s="114"/>
+      <c r="J1114" s="99"/>
+    </row>
+    <row r="1115" spans="9:10">
+      <c r="I1115" s="114"/>
+      <c r="J1115" s="99"/>
+    </row>
+    <row r="1116" spans="9:10">
+      <c r="I1116" s="114"/>
+      <c r="J1116" s="99"/>
+    </row>
+    <row r="1117" spans="9:10">
+      <c r="I1117" s="114"/>
+      <c r="J1117" s="99"/>
+    </row>
+    <row r="1118" spans="9:10">
+      <c r="I1118" s="114"/>
+      <c r="J1118" s="99"/>
+    </row>
+    <row r="1119" spans="9:10">
+      <c r="I1119" s="114"/>
+      <c r="J1119" s="99"/>
+    </row>
+    <row r="1120" spans="9:10">
+      <c r="I1120" s="114"/>
+      <c r="J1120" s="99"/>
+    </row>
+    <row r="1121" spans="9:10">
+      <c r="I1121" s="114"/>
+      <c r="J1121" s="99"/>
+    </row>
+    <row r="1122" spans="9:10">
+      <c r="I1122" s="114"/>
+      <c r="J1122" s="99"/>
+    </row>
+    <row r="1123" spans="9:10">
+      <c r="I1123" s="114"/>
+      <c r="J1123" s="99"/>
+    </row>
+    <row r="1124" spans="9:10">
+      <c r="I1124" s="114"/>
+      <c r="J1124" s="99"/>
+    </row>
+    <row r="1125" spans="9:10">
+      <c r="I1125" s="114"/>
+      <c r="J1125" s="99"/>
+    </row>
+    <row r="1126" spans="9:10">
+      <c r="I1126" s="114"/>
+      <c r="J1126" s="99"/>
+    </row>
+    <row r="1127" spans="9:10">
+      <c r="I1127" s="114"/>
+      <c r="J1127" s="99"/>
+    </row>
+    <row r="1128" spans="9:10">
+      <c r="I1128" s="114"/>
+      <c r="J1128" s="99"/>
+    </row>
+    <row r="1129" spans="9:10">
+      <c r="I1129" s="114"/>
+      <c r="J1129" s="99"/>
+    </row>
+    <row r="1130" spans="9:10">
+      <c r="I1130" s="114"/>
+      <c r="J1130" s="99"/>
+    </row>
+    <row r="1131" spans="9:10">
+      <c r="I1131" s="114"/>
+      <c r="J1131" s="99"/>
+    </row>
+    <row r="1132" spans="9:10">
+      <c r="I1132" s="114"/>
+      <c r="J1132" s="99"/>
+    </row>
+    <row r="1133" spans="9:10">
+      <c r="I1133" s="114"/>
+      <c r="J1133" s="99"/>
+    </row>
+    <row r="1134" spans="9:10">
+      <c r="I1134" s="114"/>
+      <c r="J1134" s="99"/>
+    </row>
+    <row r="1135" spans="9:10">
+      <c r="I1135" s="114"/>
+      <c r="J1135" s="99"/>
+    </row>
+    <row r="1136" spans="9:10">
+      <c r="I1136" s="114"/>
+      <c r="J1136" s="99"/>
+    </row>
+    <row r="1137" spans="9:10">
+      <c r="I1137" s="114"/>
+      <c r="J1137" s="99"/>
+    </row>
+    <row r="1138" spans="9:10">
+      <c r="I1138" s="114"/>
+      <c r="J1138" s="99"/>
+    </row>
+    <row r="1139" spans="9:10">
+      <c r="I1139" s="114"/>
+      <c r="J1139" s="99"/>
+    </row>
+    <row r="1140" spans="9:10">
+      <c r="I1140" s="114"/>
+      <c r="J1140" s="99"/>
+    </row>
+    <row r="1141" spans="9:10">
+      <c r="I1141" s="114"/>
+      <c r="J1141" s="99"/>
+    </row>
+    <row r="1142" spans="9:10">
+      <c r="I1142" s="114"/>
+      <c r="J1142" s="99"/>
+    </row>
+    <row r="1143" spans="9:10">
+      <c r="I1143" s="114"/>
+      <c r="J1143" s="99"/>
+    </row>
+    <row r="1144" spans="9:10">
+      <c r="I1144" s="114"/>
+      <c r="J1144" s="99"/>
+    </row>
+    <row r="1145" spans="9:10">
+      <c r="I1145" s="114"/>
+      <c r="J1145" s="99"/>
+    </row>
+    <row r="1146" spans="9:10">
+      <c r="I1146" s="114"/>
+      <c r="J1146" s="99"/>
+    </row>
+    <row r="1147" spans="9:10">
+      <c r="I1147" s="114"/>
+      <c r="J1147" s="99"/>
+    </row>
+    <row r="1148" spans="9:10">
+      <c r="I1148" s="114"/>
+      <c r="J1148" s="99"/>
+    </row>
+    <row r="1149" spans="9:10">
+      <c r="I1149" s="114"/>
+      <c r="J1149" s="99"/>
+    </row>
+    <row r="1150" spans="9:10">
+      <c r="I1150" s="114"/>
+      <c r="J1150" s="99"/>
+    </row>
+    <row r="1151" spans="9:10">
+      <c r="I1151" s="114"/>
+      <c r="J1151" s="99"/>
+    </row>
+    <row r="1152" spans="9:10">
+      <c r="I1152" s="114"/>
+      <c r="J1152" s="99"/>
+    </row>
+    <row r="1153" spans="9:10">
+      <c r="I1153" s="114"/>
+      <c r="J1153" s="99"/>
+    </row>
+    <row r="1154" spans="9:10">
+      <c r="I1154" s="114"/>
+      <c r="J1154" s="99"/>
+    </row>
+    <row r="1155" spans="9:10">
+      <c r="I1155" s="114"/>
+      <c r="J1155" s="99"/>
+    </row>
+    <row r="1156" spans="9:10">
+      <c r="I1156" s="114"/>
+      <c r="J1156" s="99"/>
+    </row>
+    <row r="1157" spans="9:10">
+      <c r="I1157" s="114"/>
+      <c r="J1157" s="99"/>
+    </row>
+    <row r="1158" spans="9:10">
+      <c r="I1158" s="114"/>
+      <c r="J1158" s="99"/>
+    </row>
+    <row r="1159" spans="9:10">
+      <c r="I1159" s="114"/>
+      <c r="J1159" s="99"/>
+    </row>
+    <row r="1160" spans="9:10">
+      <c r="I1160" s="114"/>
+      <c r="J1160" s="99"/>
+    </row>
+    <row r="1161" spans="9:10">
+      <c r="I1161" s="114"/>
+      <c r="J1161" s="99"/>
+    </row>
+    <row r="1162" spans="9:10">
+      <c r="I1162" s="114"/>
+      <c r="J1162" s="99"/>
+    </row>
+    <row r="1163" spans="9:10">
+      <c r="I1163" s="114"/>
+      <c r="J1163" s="99"/>
+    </row>
+    <row r="1164" spans="9:10">
+      <c r="I1164" s="114"/>
+      <c r="J1164" s="99"/>
+    </row>
+    <row r="1165" spans="9:10">
+      <c r="I1165" s="114"/>
+      <c r="J1165" s="99"/>
+    </row>
+    <row r="1166" spans="9:10">
+      <c r="I1166" s="114"/>
+      <c r="J1166" s="99"/>
+    </row>
+    <row r="1167" spans="9:10">
+      <c r="I1167" s="114"/>
+      <c r="J1167" s="99"/>
+    </row>
+    <row r="1168" spans="9:10">
+      <c r="I1168" s="114"/>
+      <c r="J1168" s="99"/>
+    </row>
+    <row r="1169" spans="9:10">
+      <c r="I1169" s="114"/>
+      <c r="J1169" s="99"/>
+    </row>
+    <row r="1170" spans="9:10">
+      <c r="I1170" s="114"/>
+      <c r="J1170" s="99"/>
+    </row>
+    <row r="1171" spans="9:10">
+      <c r="I1171" s="114"/>
+      <c r="J1171" s="99"/>
+    </row>
+    <row r="1172" spans="9:10">
+      <c r="I1172" s="114"/>
+      <c r="J1172" s="99"/>
+    </row>
+    <row r="1173" spans="9:10">
+      <c r="I1173" s="114"/>
+      <c r="J1173" s="99"/>
+    </row>
+    <row r="1174" spans="9:10">
+      <c r="I1174" s="114"/>
+      <c r="J1174" s="99"/>
+    </row>
+    <row r="1175" spans="9:10">
+      <c r="I1175" s="114"/>
+      <c r="J1175" s="99"/>
+    </row>
+    <row r="1176" spans="9:10">
+      <c r="I1176" s="114"/>
+      <c r="J1176" s="99"/>
+    </row>
+    <row r="1177" spans="9:10">
+      <c r="I1177" s="114"/>
+      <c r="J1177" s="99"/>
+    </row>
+    <row r="1178" spans="9:10">
+      <c r="I1178" s="114"/>
+      <c r="J1178" s="99"/>
+    </row>
+    <row r="1179" spans="9:10">
+      <c r="I1179" s="114"/>
+      <c r="J1179" s="99"/>
+    </row>
+    <row r="1180" spans="9:10">
+      <c r="I1180" s="114"/>
+      <c r="J1180" s="99"/>
+    </row>
+    <row r="1181" spans="9:10">
+      <c r="I1181" s="114"/>
+      <c r="J1181" s="99"/>
+    </row>
+    <row r="1182" spans="9:10">
+      <c r="I1182" s="114"/>
+      <c r="J1182" s="99"/>
+    </row>
+    <row r="1183" spans="9:10">
+      <c r="I1183" s="114"/>
+      <c r="J1183" s="99"/>
+    </row>
+    <row r="1184" spans="9:10">
+      <c r="I1184" s="114"/>
+      <c r="J1184" s="99"/>
+    </row>
+    <row r="1185" spans="9:10">
+      <c r="I1185" s="114"/>
+      <c r="J1185" s="99"/>
+    </row>
+    <row r="1186" spans="9:10">
+      <c r="I1186" s="114"/>
+      <c r="J1186" s="99"/>
+    </row>
+    <row r="1187" spans="9:10">
+      <c r="I1187" s="114"/>
+      <c r="J1187" s="99"/>
+    </row>
+    <row r="1188" spans="9:10">
+      <c r="I1188" s="114"/>
+      <c r="J1188" s="99"/>
+    </row>
+    <row r="1189" spans="9:10">
+      <c r="I1189" s="114"/>
+      <c r="J1189" s="99"/>
+    </row>
+    <row r="1190" spans="9:10">
+      <c r="I1190" s="114"/>
+      <c r="J1190" s="99"/>
+    </row>
+    <row r="1191" spans="9:10">
+      <c r="I1191" s="114"/>
+      <c r="J1191" s="99"/>
+    </row>
+    <row r="1192" spans="9:10">
+      <c r="I1192" s="114"/>
+      <c r="J1192" s="99"/>
+    </row>
+    <row r="1193" spans="9:10">
+      <c r="I1193" s="114"/>
+      <c r="J1193" s="99"/>
+    </row>
+    <row r="1194" spans="9:10">
+      <c r="I1194" s="114"/>
+      <c r="J1194" s="99"/>
+    </row>
+    <row r="1195" spans="9:10">
+      <c r="I1195" s="114"/>
+      <c r="J1195" s="99"/>
+    </row>
+    <row r="1196" spans="9:10">
+      <c r="I1196" s="114"/>
+      <c r="J1196" s="99"/>
+    </row>
+    <row r="1197" spans="9:10">
+      <c r="I1197" s="114"/>
+      <c r="J1197" s="99"/>
+    </row>
+    <row r="1198" spans="9:10">
+      <c r="I1198" s="114"/>
+      <c r="J1198" s="99"/>
+    </row>
+    <row r="1199" spans="9:10">
+      <c r="I1199" s="114"/>
+      <c r="J1199" s="99"/>
+    </row>
+    <row r="1200" spans="9:10">
+      <c r="I1200" s="114"/>
+      <c r="J1200" s="99"/>
+    </row>
+    <row r="1201" spans="9:10">
+      <c r="I1201" s="114"/>
+      <c r="J1201" s="99"/>
+    </row>
+    <row r="1202" spans="9:10">
+      <c r="I1202" s="114"/>
+      <c r="J1202" s="99"/>
+    </row>
+    <row r="1203" spans="9:10">
+      <c r="I1203" s="114"/>
+      <c r="J1203" s="99"/>
+    </row>
+    <row r="1204" spans="9:10">
+      <c r="I1204" s="114"/>
+      <c r="J1204" s="99"/>
+    </row>
+    <row r="1205" spans="9:10">
+      <c r="I1205" s="114"/>
+      <c r="J1205" s="99"/>
+    </row>
+    <row r="1206" spans="9:10">
+      <c r="I1206" s="114"/>
+      <c r="J1206" s="99"/>
+    </row>
+    <row r="1207" spans="9:10">
+      <c r="I1207" s="114"/>
+      <c r="J1207" s="99"/>
+    </row>
+    <row r="1208" spans="9:10">
+      <c r="I1208" s="114"/>
+      <c r="J1208" s="99"/>
+    </row>
+    <row r="1209" spans="9:10">
+      <c r="I1209" s="114"/>
+      <c r="J1209" s="99"/>
+    </row>
+    <row r="1210" spans="9:10">
+      <c r="I1210" s="114"/>
+      <c r="J1210" s="99"/>
+    </row>
+    <row r="1211" spans="9:10">
+      <c r="I1211" s="114"/>
+      <c r="J1211" s="99"/>
+    </row>
+    <row r="1212" spans="9:10">
+      <c r="I1212" s="114"/>
+      <c r="J1212" s="99"/>
+    </row>
+    <row r="1213" spans="9:10">
+      <c r="I1213" s="114"/>
+      <c r="J1213" s="99"/>
+    </row>
+    <row r="1214" spans="9:10">
+      <c r="I1214" s="114"/>
+      <c r="J1214" s="99"/>
+    </row>
+    <row r="1215" spans="9:10">
+      <c r="I1215" s="114"/>
+      <c r="J1215" s="99"/>
+    </row>
+    <row r="1216" spans="9:10">
+      <c r="I1216" s="114"/>
+      <c r="J1216" s="99"/>
+    </row>
+    <row r="1217" spans="9:10">
+      <c r="I1217" s="114"/>
+      <c r="J1217" s="99"/>
+    </row>
+    <row r="1218" spans="9:10">
+      <c r="I1218" s="114"/>
+      <c r="J1218" s="99"/>
+    </row>
+    <row r="1219" spans="9:10">
+      <c r="I1219" s="114"/>
+      <c r="J1219" s="99"/>
+    </row>
+    <row r="1220" spans="9:10">
+      <c r="I1220" s="114"/>
+      <c r="J1220" s="99"/>
+    </row>
+    <row r="1221" spans="9:10">
+      <c r="I1221" s="114"/>
+      <c r="J1221" s="99"/>
+    </row>
+    <row r="1222" spans="9:10">
+      <c r="I1222" s="114"/>
+      <c r="J1222" s="99"/>
+    </row>
+    <row r="1223" spans="9:10">
+      <c r="I1223" s="114"/>
+      <c r="J1223" s="99"/>
+    </row>
+    <row r="1224" spans="9:10">
+      <c r="I1224" s="114"/>
+      <c r="J1224" s="99"/>
+    </row>
+    <row r="1225" spans="9:10">
+      <c r="I1225" s="114"/>
+      <c r="J1225" s="99"/>
+    </row>
+    <row r="1226" spans="9:10">
+      <c r="I1226" s="114"/>
+      <c r="J1226" s="99"/>
+    </row>
+    <row r="1227" spans="9:10">
+      <c r="I1227" s="114"/>
+      <c r="J1227" s="99"/>
+    </row>
+  </sheetData>
+  <mergeCells count="262">
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="D153:F155"/>
+    <mergeCell ref="H153:H155"/>
+    <mergeCell ref="I153:I155"/>
+    <mergeCell ref="J153:J155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="D149:F151"/>
+    <mergeCell ref="H149:H151"/>
+    <mergeCell ref="I149:I151"/>
+    <mergeCell ref="J149:J151"/>
+    <mergeCell ref="B152:J152"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="D145:F147"/>
+    <mergeCell ref="H145:H147"/>
+    <mergeCell ref="I145:I147"/>
+    <mergeCell ref="J145:J147"/>
+    <mergeCell ref="B148:J148"/>
+    <mergeCell ref="B141:B143"/>
+    <mergeCell ref="D141:F143"/>
+    <mergeCell ref="H141:H143"/>
+    <mergeCell ref="I141:I143"/>
+    <mergeCell ref="J141:J143"/>
+    <mergeCell ref="B144:J144"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="D137:F139"/>
+    <mergeCell ref="H137:H139"/>
+    <mergeCell ref="I137:I139"/>
+    <mergeCell ref="J137:J139"/>
+    <mergeCell ref="B140:J140"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="D133:F135"/>
+    <mergeCell ref="H133:H135"/>
+    <mergeCell ref="I133:I135"/>
+    <mergeCell ref="J133:J135"/>
+    <mergeCell ref="B136:J136"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="A128:J128"/>
+    <mergeCell ref="A129:A155"/>
+    <mergeCell ref="B129:B131"/>
+    <mergeCell ref="D129:F131"/>
+    <mergeCell ref="H129:H131"/>
+    <mergeCell ref="I129:I131"/>
+    <mergeCell ref="J129:J131"/>
+    <mergeCell ref="B132:J132"/>
+    <mergeCell ref="D119:F121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="B122:J122"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="D123:F125"/>
+    <mergeCell ref="H123:H125"/>
+    <mergeCell ref="I123:I125"/>
+    <mergeCell ref="J123:J125"/>
+    <mergeCell ref="A113:J113"/>
+    <mergeCell ref="A114:A125"/>
+    <mergeCell ref="B114:J114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="D115:F117"/>
+    <mergeCell ref="H115:H117"/>
+    <mergeCell ref="I115:I117"/>
+    <mergeCell ref="J115:J117"/>
+    <mergeCell ref="B118:J118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B107:J107"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="D108:F110"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="J108:J110"/>
+    <mergeCell ref="D100:F102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="B103:J103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:F106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="A94:J94"/>
+    <mergeCell ref="A95:A110"/>
+    <mergeCell ref="B95:J95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="D96:F98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B89:J89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="D90:F91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="B86:J86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="D87:F88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="I87:I88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="D81:F82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="D84:F85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="D78:F79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="B80:J80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B71:J71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="D72:F73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D69:F70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="D66:F67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="B62:J62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="D63:F64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D60:F61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D57:F58"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D54:F55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D51:F52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D47:F49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:F39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="D32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:A73"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:F24"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:F16"/>
+    <mergeCell ref="H13:H16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="52" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
